--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -572,7 +572,7 @@
         <v>43392</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43731</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45121</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44165</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43816</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44013</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>45105</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45082</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43587</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43623</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>45086</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44552</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45041</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44015</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44133</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44585</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44155</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>44271</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44308</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44355</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44534</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44834</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43474</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43920</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44150</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44183</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44194</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44452</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44510</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44515</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45149</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43669</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43670</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43705</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43731</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43816</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>43817</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44174</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44512</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44722</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44722</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44728</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>44797</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44879</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44903</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>44904</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>44966</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>43402</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43490</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44468</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44671</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>44757</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44757</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44841</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44867</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44873</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44936</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45049</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43433</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43503</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43608</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43816</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44123</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>44279</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44316</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44355</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44378</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44524</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44757</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>44890</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>43327</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43353</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>43412</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43508</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43642</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43734</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43783</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>43815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43858</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43930</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43956</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44075</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44099</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44154</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44207</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44308</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44510</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44512</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44512</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44540</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44540</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44540</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44568</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44568</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44603</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44683</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44747</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44788</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>44797</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45079</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>43328</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>43334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>43335</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>43335</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>43340</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43342</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43342</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43346</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43350</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43350</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43353</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43362</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43362</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43362</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43364</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43392</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43412</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>43412</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43413</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>43413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43413</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43417</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43420</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>43427</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43430</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43433</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43437</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43439</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43441</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43453</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43455</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43455</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43455</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43463</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43468</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>43474</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>43474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>43476</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>43476</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>43477</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>43479</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>43488</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>43490</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>43497</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43500</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>43503</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43514</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43521</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43522</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43522</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43523</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>43523</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>43528</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>43530</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>43530</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>43535</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>43539</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>43545</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>43545</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43545</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43549</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>43558</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>43559</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>43559</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>43559</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>43559</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>43560</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>43563</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>43563</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>43564</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>43565</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>43566</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>43572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>43579</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>43580</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>43581</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>43581</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>43584</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>43585</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>43585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43585</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43587</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43587</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>43591</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43594</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>43599</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>43602</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>43602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>43602</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>43605</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>43608</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>43612</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>43612</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>43613</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>43614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>43616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>43619</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>43619</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>43619</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>43619</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>43623</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>43623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>43623</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>43626</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>43628</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>43628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>43633</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>43633</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>43633</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>43634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>43636</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>43636</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>43640</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>43640</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>43640</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>43641</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>43641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>43649</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>43649</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>43650</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>43651</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>43651</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>43654</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>43655</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>43657</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>43657</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>43661</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>43661</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>43678</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>43682</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>43684</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>43690</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>43691</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>43692</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>43692</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>43693</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>43696</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>43703</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>43703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>43704</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>43704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>43704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>43704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43717</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43722</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43726</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>43727</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>43731</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>43731</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>43731</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>43731</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>43734</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>43734</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>43734</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>43734</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>43735</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>43735</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>43735</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>43741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>43745</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>43747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>43747</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>43752</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>43752</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>43752</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43755</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43755</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43755</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43759</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>43759</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>43762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>43762</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>43762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>43762</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>43763</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>43768</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>43770</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>43770</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>43773</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>43774</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>43776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>43776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43781</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>43782</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43783</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43783</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>43783</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>43784</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>43787</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>43787</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>43787</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>43787</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>43789</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>43789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>43790</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>43791</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>43794</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>43794</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>43801</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>43802</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>43802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>43804</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>43805</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>43809</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>43810</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>43811</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>43811</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>43811</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>43811</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>43816</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>43818</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>43818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>43826</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>43826</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>43831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>43837</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>43838</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>43859</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>43860</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>43874</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>43874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>43879</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>43879</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>43879</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>43880</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30597,7 +30597,7 @@
         <v>43885</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30654,7 +30654,7 @@
         <v>43887</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>43889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>43893</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>43894</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>43900</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>43900</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30996,7 +30996,7 @@
         <v>43900</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31053,7 +31053,7 @@
         <v>43907</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>43907</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>43913</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31224,7 +31224,7 @@
         <v>43920</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31281,7 +31281,7 @@
         <v>43927</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31338,7 +31338,7 @@
         <v>43928</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31395,7 +31395,7 @@
         <v>43936</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
         <v>43938</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>43941</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         <v>43942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>43942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>43951</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31747,7 +31747,7 @@
         <v>43951</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>43955</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>43959</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>43983</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>43983</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>43991</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32094,7 +32094,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>44013</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>44015</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>44032</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         <v>44033</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>44038</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>44048</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>44050</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>44050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>44050</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44057</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44061</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44062</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         <v>44090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44095</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44095</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44102</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>44103</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>44106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>44113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>44113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33425,7 +33425,7 @@
         <v>44113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>44123</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33606,7 +33606,7 @@
         <v>44123</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>44123</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44123</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>44126</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>44133</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>44133</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44133</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>44133</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44139</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34139,7 +34139,7 @@
         <v>44140</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>44140</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44141</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34310,7 +34310,7 @@
         <v>44141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34367,7 +34367,7 @@
         <v>44146</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>44148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44151</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44151</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>44153</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>44154</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>44154</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>44159</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44161</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>44162</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>44162</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>44167</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>44169</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>44169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>44172</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>44172</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35279,7 +35279,7 @@
         <v>44173</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44175</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35398,7 +35398,7 @@
         <v>44175</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35455,7 +35455,7 @@
         <v>44179</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35512,7 +35512,7 @@
         <v>44183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>44183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>44183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>44183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35740,7 +35740,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35797,7 +35797,7 @@
         <v>44186</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35854,7 +35854,7 @@
         <v>44186</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35911,7 +35911,7 @@
         <v>44188</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>44200</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>44203</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>44206</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>44207</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>44207</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>44207</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36320,7 +36320,7 @@
         <v>44207</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36377,7 +36377,7 @@
         <v>44209</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36434,7 +36434,7 @@
         <v>44209</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36491,7 +36491,7 @@
         <v>44209</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         <v>44209</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44211</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44211</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>44214</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>44214</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44214</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>44214</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37004,7 +37004,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37061,7 +37061,7 @@
         <v>44228</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37118,7 +37118,7 @@
         <v>44228</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37175,7 +37175,7 @@
         <v>44243</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37232,7 +37232,7 @@
         <v>44244</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37289,7 +37289,7 @@
         <v>44255</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44256</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37403,7 +37403,7 @@
         <v>44260</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37460,7 +37460,7 @@
         <v>44263</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37517,7 +37517,7 @@
         <v>44265</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37574,7 +37574,7 @@
         <v>44265</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44270</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44271</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44273</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37807,7 +37807,7 @@
         <v>44278</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37864,7 +37864,7 @@
         <v>44279</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37921,7 +37921,7 @@
         <v>44279</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37978,7 +37978,7 @@
         <v>44279</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         <v>44279</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38092,7 +38092,7 @@
         <v>44284</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38149,7 +38149,7 @@
         <v>44285</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38206,7 +38206,7 @@
         <v>44285</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44285</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44285</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38377,7 +38377,7 @@
         <v>44286</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>44287</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>44292</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44299</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44300</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
         <v>44306</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>44312</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38776,7 +38776,7 @@
         <v>44313</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38833,7 +38833,7 @@
         <v>44316</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>44323</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38947,7 +38947,7 @@
         <v>44326</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39004,7 +39004,7 @@
         <v>44331</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39061,7 +39061,7 @@
         <v>44333</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39118,7 +39118,7 @@
         <v>44334</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39175,7 +39175,7 @@
         <v>44335</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39232,7 +39232,7 @@
         <v>44337</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39289,7 +39289,7 @@
         <v>44337</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         <v>44348</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39408,7 +39408,7 @@
         <v>44348</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39470,7 +39470,7 @@
         <v>44349</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>44358</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>44362</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>44363</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>44370</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39760,7 +39760,7 @@
         <v>44370</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44371</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44377</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44377</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39998,7 +39998,7 @@
         <v>44377</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44379</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44381</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44389</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40236,7 +40236,7 @@
         <v>44389</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         <v>44390</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40350,7 +40350,7 @@
         <v>44391</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40407,7 +40407,7 @@
         <v>44391</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40464,7 +40464,7 @@
         <v>44407</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>44419</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40578,7 +40578,7 @@
         <v>44427</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40635,7 +40635,7 @@
         <v>44445</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40692,7 +40692,7 @@
         <v>44447</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44449</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44452</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44456</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44459</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44459</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44460</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41210,7 +41210,7 @@
         <v>44470</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44480</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44491</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41500,7 +41500,7 @@
         <v>44494</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>44495</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41614,7 +41614,7 @@
         <v>44495</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>44498</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41728,7 +41728,7 @@
         <v>44498</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41785,7 +41785,7 @@
         <v>44498</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41899,7 +41899,7 @@
         <v>44504</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41956,7 +41956,7 @@
         <v>44510</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42013,7 +42013,7 @@
         <v>44512</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42075,7 +42075,7 @@
         <v>44516</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42132,7 +42132,7 @@
         <v>44524</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>44524</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42246,7 +42246,7 @@
         <v>44524</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>44524</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42360,7 +42360,7 @@
         <v>44525</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42422,7 +42422,7 @@
         <v>44525</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42479,7 +42479,7 @@
         <v>44525</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>44526</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>44532</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42660,7 +42660,7 @@
         <v>44533</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42717,7 +42717,7 @@
         <v>44535</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         <v>44539</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42831,7 +42831,7 @@
         <v>44539</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42888,7 +42888,7 @@
         <v>44540</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42945,7 +42945,7 @@
         <v>44540</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43002,7 +43002,7 @@
         <v>44543</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44544</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44544</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         <v>44546</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>44550</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>44557</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>44568</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>44573</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>44575</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>44575</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44582</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43639,7 +43639,7 @@
         <v>44591</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>44592</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43753,7 +43753,7 @@
         <v>44596</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43810,7 +43810,7 @@
         <v>44609</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>44610</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>44610</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>44631</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>44638</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>44652</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>44658</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>44664</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>44665</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>44672</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>44679</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>44683</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>44686</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44561,7 +44561,7 @@
         <v>44686</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>44694</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>44699</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>44700</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>44705</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>44705</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44918,7 +44918,7 @@
         <v>44705</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44975,7 +44975,7 @@
         <v>44711</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45037,7 +45037,7 @@
         <v>44714</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45094,7 +45094,7 @@
         <v>44720</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44721</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>44725</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>44726</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>44726</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>44727</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44727</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44727</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44732</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44732</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44741</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44748</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45964,7 +45964,7 @@
         <v>44749</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46026,7 +46026,7 @@
         <v>44749</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46083,7 +46083,7 @@
         <v>44749</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>44749</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46207,7 +46207,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46264,7 +46264,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46321,7 +46321,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46378,7 +46378,7 @@
         <v>44750</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46440,7 +46440,7 @@
         <v>44757</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46497,7 +46497,7 @@
         <v>44757</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46559,7 +46559,7 @@
         <v>44757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>44764</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>44764</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>44780</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>44788</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46854,7 +46854,7 @@
         <v>44788</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46911,7 +46911,7 @@
         <v>44788</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46968,7 +46968,7 @@
         <v>44788</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47025,7 +47025,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47087,7 +47087,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>44795</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>44795</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47273,7 +47273,7 @@
         <v>44796</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>44797</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47397,7 +47397,7 @@
         <v>44797</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47459,7 +47459,7 @@
         <v>44803</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47516,7 +47516,7 @@
         <v>44818</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47573,7 +47573,7 @@
         <v>44820</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47630,7 +47630,7 @@
         <v>44825</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47692,7 +47692,7 @@
         <v>44825</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47749,7 +47749,7 @@
         <v>44830</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47811,7 +47811,7 @@
         <v>44833</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47868,7 +47868,7 @@
         <v>44841</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         <v>44847</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47982,7 +47982,7 @@
         <v>44847</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48039,7 +48039,7 @@
         <v>44848</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>44848</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>44848</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>44855</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>44855</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>44858</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48438,7 +48438,7 @@
         <v>44861</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48495,7 +48495,7 @@
         <v>44861</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48552,7 +48552,7 @@
         <v>44865</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48609,7 +48609,7 @@
         <v>44866</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48666,7 +48666,7 @@
         <v>44873</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48723,7 +48723,7 @@
         <v>44873</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48800,7 +48800,7 @@
         <v>44873</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48857,7 +48857,7 @@
         <v>44874</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48914,7 +48914,7 @@
         <v>44875</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48971,7 +48971,7 @@
         <v>44875</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49033,7 +49033,7 @@
         <v>44875</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49090,7 +49090,7 @@
         <v>44879</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49147,7 +49147,7 @@
         <v>44880</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49209,7 +49209,7 @@
         <v>44880</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         <v>44881</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49323,7 +49323,7 @@
         <v>44883</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49380,7 +49380,7 @@
         <v>44883</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         <v>44887</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49499,7 +49499,7 @@
         <v>44887</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49561,7 +49561,7 @@
         <v>44889</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49618,7 +49618,7 @@
         <v>44889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49675,7 +49675,7 @@
         <v>44889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49732,7 +49732,7 @@
         <v>44890</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49794,7 +49794,7 @@
         <v>44893</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49851,7 +49851,7 @@
         <v>44895</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49908,7 +49908,7 @@
         <v>44900</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>44900</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50022,7 +50022,7 @@
         <v>44901</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50079,7 +50079,7 @@
         <v>44904</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50136,7 +50136,7 @@
         <v>44908</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50198,7 +50198,7 @@
         <v>44911</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50255,7 +50255,7 @@
         <v>44922</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50317,7 +50317,7 @@
         <v>44922</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50374,7 +50374,7 @@
         <v>44931</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50431,7 +50431,7 @@
         <v>44931</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50488,7 +50488,7 @@
         <v>44935</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44939</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50602,7 +50602,7 @@
         <v>44946</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50659,7 +50659,7 @@
         <v>44946</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50716,7 +50716,7 @@
         <v>44946</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50773,7 +50773,7 @@
         <v>44961</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50830,7 +50830,7 @@
         <v>44963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50887,7 +50887,7 @@
         <v>44965</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         <v>44966</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51006,7 +51006,7 @@
         <v>44966</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51063,7 +51063,7 @@
         <v>44970</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51120,7 +51120,7 @@
         <v>44970</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51177,7 +51177,7 @@
         <v>44971</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51234,7 +51234,7 @@
         <v>44974</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51296,7 +51296,7 @@
         <v>44977</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51358,7 +51358,7 @@
         <v>44977</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51415,7 +51415,7 @@
         <v>44978</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51472,7 +51472,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51534,7 +51534,7 @@
         <v>45000</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51596,7 +51596,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51653,7 +51653,7 @@
         <v>45006</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         <v>45019</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51772,7 +51772,7 @@
         <v>45020</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51829,7 +51829,7 @@
         <v>45022</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51886,7 +51886,7 @@
         <v>45022</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51943,7 +51943,7 @@
         <v>45029</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52005,7 +52005,7 @@
         <v>45034</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52062,7 +52062,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52119,7 +52119,7 @@
         <v>45036</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52176,7 +52176,7 @@
         <v>45036</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52233,7 +52233,7 @@
         <v>45036</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52290,7 +52290,7 @@
         <v>45036</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52347,7 +52347,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52404,7 +52404,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         <v>45040</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52518,7 +52518,7 @@
         <v>45040</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52575,7 +52575,7 @@
         <v>45040</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52632,7 +52632,7 @@
         <v>45041</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52689,7 +52689,7 @@
         <v>45042</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52746,7 +52746,7 @@
         <v>45048</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52808,7 +52808,7 @@
         <v>45048</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52870,7 +52870,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52927,7 +52927,7 @@
         <v>45049</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52984,7 +52984,7 @@
         <v>45050</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53046,7 +53046,7 @@
         <v>45055</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53103,7 +53103,7 @@
         <v>45055</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53160,7 +53160,7 @@
         <v>45056</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53217,7 +53217,7 @@
         <v>45056</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53274,7 +53274,7 @@
         <v>45056</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53331,7 +53331,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53388,7 +53388,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53450,7 +53450,7 @@
         <v>45062</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53512,7 +53512,7 @@
         <v>45062</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53574,7 +53574,7 @@
         <v>45065</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53636,7 +53636,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53693,7 +53693,7 @@
         <v>45071</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53750,7 +53750,7 @@
         <v>45079</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53807,7 +53807,7 @@
         <v>45082</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53869,7 +53869,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53926,7 +53926,7 @@
         <v>45086</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53983,7 +53983,7 @@
         <v>45090</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54040,7 +54040,7 @@
         <v>45090</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54097,7 +54097,7 @@
         <v>45090</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54154,7 +54154,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54211,7 +54211,7 @@
         <v>45096</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54268,7 +54268,7 @@
         <v>45097</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54325,7 +54325,7 @@
         <v>45097</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54382,7 +54382,7 @@
         <v>45097</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54444,7 +54444,7 @@
         <v>45098</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54506,7 +54506,7 @@
         <v>45099</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54563,7 +54563,7 @@
         <v>45105</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54620,7 +54620,7 @@
         <v>45107</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54677,7 +54677,7 @@
         <v>45107</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54734,7 +54734,7 @@
         <v>45107</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54791,7 +54791,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54848,7 +54848,7 @@
         <v>45111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54905,7 +54905,7 @@
         <v>45111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54962,7 +54962,7 @@
         <v>45112</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55019,7 +55019,7 @@
         <v>45112</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55076,7 +55076,7 @@
         <v>45112</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55133,7 +55133,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55190,7 +55190,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55247,7 +55247,7 @@
         <v>45117</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55304,7 +55304,7 @@
         <v>45117</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55361,7 +55361,7 @@
         <v>45117</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55418,7 +55418,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55475,7 +55475,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55537,7 +55537,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55599,7 +55599,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55656,7 +55656,7 @@
         <v>45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55713,7 +55713,7 @@
         <v>45139</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55775,7 +55775,7 @@
         <v>45140</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55832,7 +55832,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55889,7 +55889,7 @@
         <v>45146</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55946,7 +55946,7 @@
         <v>45148</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56008,7 +56008,7 @@
         <v>45149</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56065,7 +56065,7 @@
         <v>45152</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56122,7 +56122,7 @@
         <v>45152</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         <v>45152</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56241,7 +56241,7 @@
         <v>45153</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56303,7 +56303,7 @@
         <v>45159</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56360,7 +56360,7 @@
         <v>45162</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56422,7 +56422,7 @@
         <v>45163</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56479,7 +56479,7 @@
         <v>45166</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56536,7 +56536,7 @@
         <v>45168</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56593,7 +56593,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56655,7 +56655,7 @@
         <v>45169</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y879"/>
+  <dimension ref="A1:Y881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43392</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43731</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45121</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44165</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43816</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44013</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1643,14 +1643,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 29346-2023</t>
+          <t>A 18570-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45105</v>
+        <v>45041</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>17.3</v>
+        <v>20.4</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1675,7 +1675,7 @@
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1687,114 +1687,15 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Doftskinn
-Flattoppad klubbsvamp
-Garnlav
-Granticka
-Luddfingersvamp
-Skrovellav
-Tallticka
-Ullticka
-Gytterlav
-Kransrams
-Rostfläck
-Stuplav
-Trådticka
-Fläcknycklar
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/artfynd/A 29346-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/kartor/A 29346-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomål/A 29346-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomålsmail/A 29346-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsyn/A 29346-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsynsmail/A 29346-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 18570-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45041</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KROKOM</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>9</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>14</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Brunpudrad nållav
@@ -1812,87 +1713,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/artfynd/A 18570-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/kartor/A 18570-2023.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomål/A 18570-2023.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomålsmail/A 18570-2023.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsyn/A 18570-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsynsmail/A 18570-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 24413-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45082</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KROKOM</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I13" t="n">
         <v>10</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>4</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>14</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Gränsticka
@@ -1910,28 +1811,126 @@
 Ögonpyrola</t>
         </is>
       </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/artfynd/A 24413-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/kartor/A 24413-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomål/A 24413-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomålsmail/A 24413-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsyn/A 24413-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsynsmail/A 24413-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 29346-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45105</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>14</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Doftskinn
+Garnlav
+Granticka
+Luddfingersvamp
+Skrovellav
+Tallticka
+Ullticka
+Gytterlav
+Kransrams
+Rostfläck
+Stuplav
+Trådticka
+Fläcknycklar
+Revlummer</t>
+        </is>
+      </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/artfynd/A 24413-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/artfynd/A 29346-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/kartor/A 24413-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/kartor/A 29346-2023.png")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomål/A 24413-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomål/A 29346-2023.docx")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomålsmail/A 24413-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/klagomålsmail/A 29346-2023.docx")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsyn/A 24413-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsyn/A 29346-2023.docx")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsynsmail/A 24413-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KROKOM/tillsynsmail/A 29346-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -1945,7 +1944,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2045,7 +2044,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2140,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2240,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2336,7 +2335,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2435,7 +2434,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2534,7 +2533,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2633,7 +2632,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2732,7 +2731,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2826,7 +2825,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2920,7 +2919,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3019,7 +3018,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3117,7 +3116,7 @@
         <v>43587</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3210,7 +3209,7 @@
         <v>43623</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3303,7 +3302,7 @@
         <v>44118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3396,7 +3395,7 @@
         <v>45086</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3494,7 +3493,7 @@
         <v>44552</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3595,7 +3594,7 @@
         <v>45041</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3687,7 +3686,7 @@
         <v>44015</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3782,7 +3781,7 @@
         <v>44038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3873,7 +3872,7 @@
         <v>44133</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3964,7 +3963,7 @@
         <v>44500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4055,7 +4054,7 @@
         <v>44585</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4151,7 +4150,7 @@
         <v>44698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4242,7 +4241,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4333,7 +4332,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4428,7 +4427,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4522,7 +4521,7 @@
         <v>44155</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4617,7 +4616,7 @@
         <v>44271</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4707,7 +4706,7 @@
         <v>44308</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4797,7 +4796,7 @@
         <v>44355</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4887,7 +4886,7 @@
         <v>44477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4982,7 +4981,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5081,7 +5080,7 @@
         <v>44534</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5175,7 @@
         <v>44834</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5270,7 +5269,7 @@
         <v>43474</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5359,7 +5358,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5453,7 +5452,7 @@
         <v>43920</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5542,7 +5541,7 @@
         <v>44150</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5631,7 +5630,7 @@
         <v>44183</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5720,7 +5719,7 @@
         <v>44194</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5809,7 +5808,7 @@
         <v>44452</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5898,7 +5897,7 @@
         <v>44510</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5987,7 +5986,7 @@
         <v>44515</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6081,7 +6080,7 @@
         <v>44557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6170,7 +6169,7 @@
         <v>44895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6259,7 +6258,7 @@
         <v>45149</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6348,7 +6347,7 @@
         <v>43669</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6436,7 +6435,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6524,7 +6523,7 @@
         <v>43670</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6612,7 +6611,7 @@
         <v>43705</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6705,7 +6704,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6793,7 +6792,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6881,7 +6880,7 @@
         <v>43731</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6969,7 +6968,7 @@
         <v>43816</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7062,7 +7061,7 @@
         <v>43817</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7155,7 +7154,7 @@
         <v>44174</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7243,7 +7242,7 @@
         <v>44260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7331,7 +7330,7 @@
         <v>44512</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7424,7 +7423,7 @@
         <v>44553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7512,7 +7511,7 @@
         <v>44722</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7605,7 +7604,7 @@
         <v>44722</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7702,7 +7701,7 @@
         <v>44728</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7799,7 +7798,7 @@
         <v>44797</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7887,7 +7886,7 @@
         <v>44879</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7980,7 +7979,7 @@
         <v>44895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8068,7 +8067,7 @@
         <v>44903</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8161,7 +8160,7 @@
         <v>44904</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8249,7 +8248,7 @@
         <v>44966</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8337,7 +8336,7 @@
         <v>43402</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8424,7 +8423,7 @@
         <v>43490</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8511,7 +8510,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8602,7 +8601,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8689,7 +8688,7 @@
         <v>44468</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8781,7 +8780,7 @@
         <v>44671</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8868,7 +8867,7 @@
         <v>44757</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8955,7 +8954,7 @@
         <v>44757</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9042,7 +9041,7 @@
         <v>44841</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9133,7 +9132,7 @@
         <v>44867</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9220,7 +9219,7 @@
         <v>44873</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9311,7 +9310,7 @@
         <v>44936</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9403,7 +9402,7 @@
         <v>45049</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9490,7 +9489,7 @@
         <v>43362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9576,7 +9575,7 @@
         <v>43433</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9666,7 +9665,7 @@
         <v>43503</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9757,7 +9756,7 @@
         <v>43608</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9848,7 +9847,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9939,7 +9938,7 @@
         <v>43811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10025,7 +10024,7 @@
         <v>43816</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10116,7 +10115,7 @@
         <v>44123</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10202,7 +10201,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10288,7 +10287,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10374,7 +10373,7 @@
         <v>44279</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10460,7 +10459,7 @@
         <v>44316</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10546,7 +10545,7 @@
         <v>44355</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10632,7 +10631,7 @@
         <v>44378</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10718,7 +10717,7 @@
         <v>44524</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10809,7 +10808,7 @@
         <v>44757</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10895,7 +10894,7 @@
         <v>44890</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10986,7 +10985,7 @@
         <v>43327</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11071,7 +11070,7 @@
         <v>43353</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11156,7 +11155,7 @@
         <v>43412</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11241,7 +11240,7 @@
         <v>43508</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11326,7 +11325,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11411,7 +11410,7 @@
         <v>43642</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11496,7 +11495,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11581,7 +11580,7 @@
         <v>43734</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11666,7 +11665,7 @@
         <v>43783</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11760,7 +11759,7 @@
         <v>43815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11850,7 +11849,7 @@
         <v>43858</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11935,7 +11934,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12020,7 +12019,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12110,7 +12109,7 @@
         <v>43930</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12195,7 +12194,7 @@
         <v>43956</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12280,7 +12279,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12365,7 +12364,7 @@
         <v>44075</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12450,7 +12449,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12535,7 +12534,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12625,7 +12624,7 @@
         <v>44099</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12715,7 +12714,7 @@
         <v>44154</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12805,7 +12804,7 @@
         <v>44207</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12895,7 +12894,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12980,7 +12979,7 @@
         <v>44308</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13065,7 +13064,7 @@
         <v>44445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13155,7 +13154,7 @@
         <v>44445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13245,7 +13244,7 @@
         <v>44494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13335,7 +13334,7 @@
         <v>44510</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13420,7 +13419,7 @@
         <v>44512</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13510,7 +13509,7 @@
         <v>44512</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13600,7 +13599,7 @@
         <v>44524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13690,7 +13689,7 @@
         <v>44530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13780,7 +13779,7 @@
         <v>44540</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13865,7 +13864,7 @@
         <v>44540</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13950,7 +13949,7 @@
         <v>44540</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14035,7 +14034,7 @@
         <v>44568</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14120,7 +14119,7 @@
         <v>44568</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14205,7 +14204,7 @@
         <v>44603</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14290,7 +14289,7 @@
         <v>44683</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14375,7 +14374,7 @@
         <v>44728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14465,7 +14464,7 @@
         <v>44742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14555,7 +14554,7 @@
         <v>44747</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14645,7 +14644,7 @@
         <v>44788</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14730,7 +14729,7 @@
         <v>44797</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14815,7 +14814,7 @@
         <v>45079</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14900,7 +14899,7 @@
         <v>43328</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14957,7 +14956,7 @@
         <v>43334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15019,7 +15018,7 @@
         <v>43335</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15081,7 +15080,7 @@
         <v>43335</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15143,7 +15142,7 @@
         <v>43340</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15205,7 +15204,7 @@
         <v>43342</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15262,7 +15261,7 @@
         <v>43342</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15319,7 +15318,7 @@
         <v>43346</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15376,7 +15375,7 @@
         <v>43350</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15433,7 +15432,7 @@
         <v>43350</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15490,7 +15489,7 @@
         <v>43353</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15547,7 +15546,7 @@
         <v>43357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15604,7 +15603,7 @@
         <v>43357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15661,7 +15660,7 @@
         <v>43362</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15718,7 +15717,7 @@
         <v>43362</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15775,7 +15774,7 @@
         <v>43362</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15832,7 +15831,7 @@
         <v>43364</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15889,7 +15888,7 @@
         <v>43389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15946,7 +15945,7 @@
         <v>43392</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16003,7 +16002,7 @@
         <v>43412</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16065,7 +16064,7 @@
         <v>43412</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16122,7 +16121,7 @@
         <v>43412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16179,7 +16178,7 @@
         <v>43413</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16241,7 +16240,7 @@
         <v>43413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16303,7 +16302,7 @@
         <v>43413</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16365,7 +16364,7 @@
         <v>43417</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16422,7 +16421,7 @@
         <v>43420</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16484,7 +16483,7 @@
         <v>43423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16541,7 +16540,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16598,7 +16597,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16660,7 +16659,7 @@
         <v>43427</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16722,7 +16721,7 @@
         <v>43430</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16784,7 +16783,7 @@
         <v>43431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16841,7 +16840,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16898,7 +16897,7 @@
         <v>43433</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16955,7 +16954,7 @@
         <v>43437</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17012,7 +17011,7 @@
         <v>43439</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17069,7 +17068,7 @@
         <v>43441</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17126,7 +17125,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17183,7 +17182,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17240,7 +17239,7 @@
         <v>43453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17297,7 +17296,7 @@
         <v>43453</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17354,7 +17353,7 @@
         <v>43455</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17411,7 +17410,7 @@
         <v>43455</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17468,7 +17467,7 @@
         <v>43455</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17525,7 +17524,7 @@
         <v>43463</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17582,7 +17581,7 @@
         <v>43468</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17639,7 +17638,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17696,7 +17695,7 @@
         <v>43474</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17753,7 +17752,7 @@
         <v>43474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17810,7 +17809,7 @@
         <v>43476</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17867,7 +17866,7 @@
         <v>43476</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17924,7 +17923,7 @@
         <v>43477</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17981,7 +17980,7 @@
         <v>43479</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18038,7 +18037,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18095,7 +18094,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18152,7 +18151,7 @@
         <v>43488</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18209,7 +18208,7 @@
         <v>43490</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18266,7 +18265,7 @@
         <v>43497</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18323,7 +18322,7 @@
         <v>43500</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18380,7 +18379,7 @@
         <v>43503</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18442,7 +18441,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18504,7 +18503,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18566,7 +18565,7 @@
         <v>43509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18623,7 +18622,7 @@
         <v>43509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18680,7 +18679,7 @@
         <v>43514</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18737,7 +18736,7 @@
         <v>43521</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18794,7 +18793,7 @@
         <v>43522</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18851,7 +18850,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18908,7 +18907,7 @@
         <v>43522</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18965,7 +18964,7 @@
         <v>43523</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19022,7 +19021,7 @@
         <v>43523</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19079,7 +19078,7 @@
         <v>43528</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19136,7 +19135,7 @@
         <v>43530</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19193,7 +19192,7 @@
         <v>43530</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19250,7 +19249,7 @@
         <v>43535</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19307,7 +19306,7 @@
         <v>43539</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19364,7 +19363,7 @@
         <v>43545</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19421,7 +19420,7 @@
         <v>43545</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19478,7 +19477,7 @@
         <v>43545</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19535,7 +19534,7 @@
         <v>43549</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19592,7 +19591,7 @@
         <v>43551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19649,7 +19648,7 @@
         <v>43556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19711,7 +19710,7 @@
         <v>43558</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19768,7 +19767,7 @@
         <v>43559</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19825,7 +19824,7 @@
         <v>43559</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19882,7 +19881,7 @@
         <v>43559</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19939,7 +19938,7 @@
         <v>43559</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19996,7 +19995,7 @@
         <v>43560</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20053,7 +20052,7 @@
         <v>43563</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20110,7 +20109,7 @@
         <v>43563</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20167,7 +20166,7 @@
         <v>43564</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20224,7 +20223,7 @@
         <v>43565</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20281,7 +20280,7 @@
         <v>43566</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20338,7 +20337,7 @@
         <v>43571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20395,7 +20394,7 @@
         <v>43572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20452,7 +20451,7 @@
         <v>43579</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20509,7 +20508,7 @@
         <v>43580</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20566,7 +20565,7 @@
         <v>43581</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20623,7 +20622,7 @@
         <v>43581</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20680,7 +20679,7 @@
         <v>43584</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20737,7 +20736,7 @@
         <v>43585</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20794,7 +20793,7 @@
         <v>43585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20851,7 +20850,7 @@
         <v>43585</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20908,7 +20907,7 @@
         <v>43587</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20970,7 +20969,7 @@
         <v>43587</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21032,7 +21031,7 @@
         <v>43591</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21089,7 +21088,7 @@
         <v>43594</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21146,7 +21145,7 @@
         <v>43599</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21203,7 +21202,7 @@
         <v>43602</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21260,7 +21259,7 @@
         <v>43602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21317,7 +21316,7 @@
         <v>43602</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21374,7 +21373,7 @@
         <v>43605</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21431,7 +21430,7 @@
         <v>43608</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21493,7 +21492,7 @@
         <v>43612</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21550,7 +21549,7 @@
         <v>43612</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21607,7 +21606,7 @@
         <v>43613</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21669,7 +21668,7 @@
         <v>43614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21726,7 +21725,7 @@
         <v>43616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21783,7 +21782,7 @@
         <v>43619</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21840,7 +21839,7 @@
         <v>43619</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21897,7 +21896,7 @@
         <v>43619</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21954,7 +21953,7 @@
         <v>43619</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22011,7 +22010,7 @@
         <v>43623</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22068,7 +22067,7 @@
         <v>43623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22125,7 +22124,7 @@
         <v>43623</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22182,7 +22181,7 @@
         <v>43626</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22239,7 +22238,7 @@
         <v>43628</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22301,7 +22300,7 @@
         <v>43628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22358,7 +22357,7 @@
         <v>43633</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22415,7 +22414,7 @@
         <v>43633</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22472,7 +22471,7 @@
         <v>43633</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22529,7 +22528,7 @@
         <v>43634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22586,7 +22585,7 @@
         <v>43636</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22643,7 +22642,7 @@
         <v>43636</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22700,7 +22699,7 @@
         <v>43640</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22762,7 +22761,7 @@
         <v>43640</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22824,7 +22823,7 @@
         <v>43640</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22881,7 +22880,7 @@
         <v>43641</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22938,7 +22937,7 @@
         <v>43641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22995,7 +22994,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23052,7 +23051,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23109,7 +23108,7 @@
         <v>43649</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23171,7 +23170,7 @@
         <v>43649</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23233,7 +23232,7 @@
         <v>43650</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23290,7 +23289,7 @@
         <v>43651</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23347,7 +23346,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23404,7 +23403,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23461,7 +23460,7 @@
         <v>43651</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23518,7 +23517,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23575,7 +23574,7 @@
         <v>43654</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23632,7 +23631,7 @@
         <v>43655</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23689,7 +23688,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23746,7 +23745,7 @@
         <v>43657</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23808,7 +23807,7 @@
         <v>43657</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23865,7 +23864,7 @@
         <v>43661</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23922,7 +23921,7 @@
         <v>43661</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23979,7 +23978,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24036,7 +24035,7 @@
         <v>43678</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24093,7 +24092,7 @@
         <v>43682</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24150,7 +24149,7 @@
         <v>43684</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24207,7 +24206,7 @@
         <v>43690</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24264,7 +24263,7 @@
         <v>43691</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24321,7 +24320,7 @@
         <v>43692</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24378,7 +24377,7 @@
         <v>43692</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24435,7 +24434,7 @@
         <v>43693</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24492,7 +24491,7 @@
         <v>43696</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24554,7 +24553,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24611,7 +24610,7 @@
         <v>43703</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24668,7 +24667,7 @@
         <v>43703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24725,7 +24724,7 @@
         <v>43704</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24782,7 +24781,7 @@
         <v>43704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24844,7 +24843,7 @@
         <v>43704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24901,7 +24900,7 @@
         <v>43704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24963,7 +24962,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25025,7 +25024,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25082,7 +25081,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25139,7 +25138,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25196,7 +25195,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25253,7 +25252,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25310,7 +25309,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25367,7 +25366,7 @@
         <v>43717</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25424,7 +25423,7 @@
         <v>43722</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25481,7 +25480,7 @@
         <v>43726</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25538,7 +25537,7 @@
         <v>43727</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25595,7 +25594,7 @@
         <v>43731</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25652,7 +25651,7 @@
         <v>43731</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25709,7 +25708,7 @@
         <v>43731</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25766,7 +25765,7 @@
         <v>43731</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25823,7 +25822,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25880,7 +25879,7 @@
         <v>43734</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25942,7 +25941,7 @@
         <v>43734</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25999,7 +25998,7 @@
         <v>43734</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26056,7 +26055,7 @@
         <v>43734</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26113,7 +26112,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26170,7 +26169,7 @@
         <v>43735</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26227,7 +26226,7 @@
         <v>43735</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26284,7 +26283,7 @@
         <v>43735</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26341,7 +26340,7 @@
         <v>43741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26398,7 +26397,7 @@
         <v>43745</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26455,7 +26454,7 @@
         <v>43747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26512,7 +26511,7 @@
         <v>43747</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26569,7 +26568,7 @@
         <v>43752</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26631,7 +26630,7 @@
         <v>43752</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26688,7 +26687,7 @@
         <v>43752</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26750,7 +26749,7 @@
         <v>43755</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26807,7 +26806,7 @@
         <v>43755</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26864,7 +26863,7 @@
         <v>43755</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26921,7 +26920,7 @@
         <v>43759</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26978,7 +26977,7 @@
         <v>43759</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27035,7 +27034,7 @@
         <v>43762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27092,7 +27091,7 @@
         <v>43762</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27149,7 +27148,7 @@
         <v>43762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27206,7 +27205,7 @@
         <v>43762</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27263,7 +27262,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27320,7 +27319,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27377,7 +27376,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27434,7 +27433,7 @@
         <v>43763</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27496,7 +27495,7 @@
         <v>43768</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27553,7 +27552,7 @@
         <v>43770</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27610,7 +27609,7 @@
         <v>43770</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27667,7 +27666,7 @@
         <v>43773</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27724,7 +27723,7 @@
         <v>43774</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27786,7 +27785,7 @@
         <v>43776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27848,7 +27847,7 @@
         <v>43776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27910,7 +27909,7 @@
         <v>43781</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27967,7 +27966,7 @@
         <v>43782</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28029,7 +28028,7 @@
         <v>43783</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28091,7 +28090,7 @@
         <v>43783</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28148,7 +28147,7 @@
         <v>43783</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28205,7 +28204,7 @@
         <v>43784</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28262,7 +28261,7 @@
         <v>43787</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28319,7 +28318,7 @@
         <v>43787</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28376,7 +28375,7 @@
         <v>43787</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28433,7 +28432,7 @@
         <v>43787</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28490,7 +28489,7 @@
         <v>43789</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28552,7 +28551,7 @@
         <v>43789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28614,7 +28613,7 @@
         <v>43790</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28671,7 +28670,7 @@
         <v>43791</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28728,7 +28727,7 @@
         <v>43794</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28790,7 +28789,7 @@
         <v>43794</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28852,7 +28851,7 @@
         <v>43801</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28914,7 +28913,7 @@
         <v>43802</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28976,7 +28975,7 @@
         <v>43802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29033,7 +29032,7 @@
         <v>43804</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29090,7 +29089,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29147,7 +29146,7 @@
         <v>43805</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29204,7 +29203,7 @@
         <v>43809</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29261,7 +29260,7 @@
         <v>43810</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29318,7 +29317,7 @@
         <v>43811</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29375,7 +29374,7 @@
         <v>43811</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29437,7 +29436,7 @@
         <v>43811</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29499,7 +29498,7 @@
         <v>43811</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29561,7 +29560,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29623,7 +29622,7 @@
         <v>43816</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29685,7 +29684,7 @@
         <v>43818</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29742,7 +29741,7 @@
         <v>43818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29799,7 +29798,7 @@
         <v>43826</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29856,7 +29855,7 @@
         <v>43826</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29913,7 +29912,7 @@
         <v>43831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29970,7 +29969,7 @@
         <v>43837</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30027,7 +30026,7 @@
         <v>43838</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30084,7 +30083,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30141,7 +30140,7 @@
         <v>43859</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30198,7 +30197,7 @@
         <v>43860</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30255,7 +30254,7 @@
         <v>43874</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30312,7 +30311,7 @@
         <v>43874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30369,7 +30368,7 @@
         <v>43879</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30426,7 +30425,7 @@
         <v>43879</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30483,7 +30482,7 @@
         <v>43879</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30540,7 +30539,7 @@
         <v>43880</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30597,7 +30596,7 @@
         <v>43885</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30654,7 +30653,7 @@
         <v>43887</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30711,7 +30710,7 @@
         <v>43889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30768,7 +30767,7 @@
         <v>43893</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30825,7 +30824,7 @@
         <v>43894</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30882,7 +30881,7 @@
         <v>43900</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30939,7 +30938,7 @@
         <v>43900</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30996,7 +30995,7 @@
         <v>43900</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31053,7 +31052,7 @@
         <v>43907</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31110,7 +31109,7 @@
         <v>43907</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31167,7 +31166,7 @@
         <v>43913</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31224,7 +31223,7 @@
         <v>43920</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31281,7 +31280,7 @@
         <v>43927</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31338,7 +31337,7 @@
         <v>43928</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31395,7 +31394,7 @@
         <v>43936</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31452,7 +31451,7 @@
         <v>43938</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31509,7 +31508,7 @@
         <v>43941</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31566,7 +31565,7 @@
         <v>43942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31628,7 +31627,7 @@
         <v>43942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31690,7 +31689,7 @@
         <v>43951</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31747,7 +31746,7 @@
         <v>43951</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31804,7 +31803,7 @@
         <v>43955</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31861,7 +31860,7 @@
         <v>43959</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31918,7 +31917,7 @@
         <v>43983</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31975,7 +31974,7 @@
         <v>43983</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32032,7 +32031,7 @@
         <v>43991</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32094,7 +32093,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32151,7 +32150,7 @@
         <v>44013</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32208,7 +32207,7 @@
         <v>44015</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32265,7 +32264,7 @@
         <v>44032</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32322,7 +32321,7 @@
         <v>44033</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32379,7 +32378,7 @@
         <v>44038</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32436,7 +32435,7 @@
         <v>44048</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32493,7 +32492,7 @@
         <v>44050</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32550,7 +32549,7 @@
         <v>44050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32607,7 +32606,7 @@
         <v>44050</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32664,7 +32663,7 @@
         <v>44057</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32721,7 +32720,7 @@
         <v>44061</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32778,7 +32777,7 @@
         <v>44062</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32840,7 +32839,7 @@
         <v>44076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32897,7 +32896,7 @@
         <v>44077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32954,7 +32953,7 @@
         <v>44090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33016,7 +33015,7 @@
         <v>44095</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33073,7 +33072,7 @@
         <v>44095</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33130,7 +33129,7 @@
         <v>44102</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33187,7 +33186,7 @@
         <v>44103</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33244,7 +33243,7 @@
         <v>44106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33306,7 +33305,7 @@
         <v>44113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33363,7 +33362,7 @@
         <v>44113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33425,7 +33424,7 @@
         <v>44113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33487,7 +33486,7 @@
         <v>44113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33549,7 +33548,7 @@
         <v>44123</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33606,7 +33605,7 @@
         <v>44123</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33668,7 +33667,7 @@
         <v>44123</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33730,7 +33729,7 @@
         <v>44123</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33792,7 +33791,7 @@
         <v>44126</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33849,7 +33848,7 @@
         <v>44133</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33906,7 +33905,7 @@
         <v>44133</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33963,7 +33962,7 @@
         <v>44133</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34020,7 +34019,7 @@
         <v>44133</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34077,7 +34076,7 @@
         <v>44139</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34139,7 +34138,7 @@
         <v>44140</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34196,7 +34195,7 @@
         <v>44140</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34253,7 +34252,7 @@
         <v>44141</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34310,7 +34309,7 @@
         <v>44141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34367,7 +34366,7 @@
         <v>44146</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34424,7 +34423,7 @@
         <v>44148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34481,7 +34480,7 @@
         <v>44151</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34538,7 +34537,7 @@
         <v>44151</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34595,7 +34594,7 @@
         <v>44153</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34652,7 +34651,7 @@
         <v>44154</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34709,7 +34708,7 @@
         <v>44154</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34766,7 +34765,7 @@
         <v>44159</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34823,7 +34822,7 @@
         <v>44161</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34880,7 +34879,7 @@
         <v>44162</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34937,7 +34936,7 @@
         <v>44162</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34994,7 +34993,7 @@
         <v>44167</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35051,7 +35050,7 @@
         <v>44169</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35108,7 +35107,7 @@
         <v>44169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35165,7 +35164,7 @@
         <v>44172</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35222,7 +35221,7 @@
         <v>44172</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35279,7 +35278,7 @@
         <v>44173</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35341,7 +35340,7 @@
         <v>44175</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35398,7 +35397,7 @@
         <v>44175</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35455,7 +35454,7 @@
         <v>44179</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35512,7 +35511,7 @@
         <v>44183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35569,7 +35568,7 @@
         <v>44183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35626,7 +35625,7 @@
         <v>44183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35683,7 +35682,7 @@
         <v>44183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35740,7 +35739,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35797,7 +35796,7 @@
         <v>44186</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35854,7 +35853,7 @@
         <v>44186</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35911,7 +35910,7 @@
         <v>44188</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35968,7 +35967,7 @@
         <v>44200</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36025,7 +36024,7 @@
         <v>44203</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36082,7 +36081,7 @@
         <v>44206</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36139,7 +36138,7 @@
         <v>44207</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36201,7 +36200,7 @@
         <v>44207</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36258,7 +36257,7 @@
         <v>44207</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36320,7 +36319,7 @@
         <v>44207</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36377,7 +36376,7 @@
         <v>44209</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36434,7 +36433,7 @@
         <v>44209</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36491,7 +36490,7 @@
         <v>44209</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36548,7 +36547,7 @@
         <v>44209</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36605,7 +36604,7 @@
         <v>44211</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36662,7 +36661,7 @@
         <v>44211</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36719,7 +36718,7 @@
         <v>44214</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36776,7 +36775,7 @@
         <v>44214</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36833,7 +36832,7 @@
         <v>44214</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36890,7 +36889,7 @@
         <v>44214</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36947,7 +36946,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37004,7 +37003,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37061,7 +37060,7 @@
         <v>44228</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37118,7 +37117,7 @@
         <v>44228</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37175,7 +37174,7 @@
         <v>44243</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37232,7 +37231,7 @@
         <v>44244</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37289,7 +37288,7 @@
         <v>44255</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37346,7 +37345,7 @@
         <v>44256</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37403,7 +37402,7 @@
         <v>44260</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37460,7 +37459,7 @@
         <v>44263</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37517,7 +37516,7 @@
         <v>44265</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37574,7 +37573,7 @@
         <v>44265</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37631,7 +37630,7 @@
         <v>44270</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37693,7 +37692,7 @@
         <v>44271</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37750,7 +37749,7 @@
         <v>44273</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37807,7 +37806,7 @@
         <v>44278</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37864,7 +37863,7 @@
         <v>44279</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37921,7 +37920,7 @@
         <v>44279</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37978,7 +37977,7 @@
         <v>44279</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38035,7 +38034,7 @@
         <v>44279</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38092,7 +38091,7 @@
         <v>44284</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38149,7 +38148,7 @@
         <v>44285</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38206,7 +38205,7 @@
         <v>44285</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38263,7 +38262,7 @@
         <v>44285</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38320,7 +38319,7 @@
         <v>44285</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38377,7 +38376,7 @@
         <v>44286</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38434,7 +38433,7 @@
         <v>44287</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38491,7 +38490,7 @@
         <v>44292</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38548,7 +38547,7 @@
         <v>44299</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38605,7 +38604,7 @@
         <v>44300</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38662,7 +38661,7 @@
         <v>44306</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38719,7 +38718,7 @@
         <v>44312</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38776,7 +38775,7 @@
         <v>44313</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38833,7 +38832,7 @@
         <v>44316</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38890,7 +38889,7 @@
         <v>44323</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38947,7 +38946,7 @@
         <v>44326</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39004,7 +39003,7 @@
         <v>44331</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39061,7 +39060,7 @@
         <v>44333</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39118,7 +39117,7 @@
         <v>44334</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39175,7 +39174,7 @@
         <v>44335</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39232,7 +39231,7 @@
         <v>44337</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39289,7 +39288,7 @@
         <v>44337</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39346,7 +39345,7 @@
         <v>44348</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39408,7 +39407,7 @@
         <v>44348</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39470,7 +39469,7 @@
         <v>44349</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39532,7 +39531,7 @@
         <v>44358</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39589,7 +39588,7 @@
         <v>44362</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39646,7 +39645,7 @@
         <v>44363</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39703,7 +39702,7 @@
         <v>44370</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39760,7 +39759,7 @@
         <v>44370</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39817,7 +39816,7 @@
         <v>44371</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39879,7 +39878,7 @@
         <v>44377</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39936,7 +39935,7 @@
         <v>44377</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39998,7 +39997,7 @@
         <v>44377</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40060,7 +40059,7 @@
         <v>44379</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40117,7 +40116,7 @@
         <v>44381</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40174,7 +40173,7 @@
         <v>44389</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40236,7 +40235,7 @@
         <v>44389</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40293,7 +40292,7 @@
         <v>44390</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40350,7 +40349,7 @@
         <v>44391</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40407,7 +40406,7 @@
         <v>44391</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40464,7 +40463,7 @@
         <v>44407</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40521,7 +40520,7 @@
         <v>44419</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40578,7 +40577,7 @@
         <v>44427</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40635,7 +40634,7 @@
         <v>44445</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40692,7 +40691,7 @@
         <v>44447</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40749,7 +40748,7 @@
         <v>44449</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40806,7 +40805,7 @@
         <v>44452</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40863,7 +40862,7 @@
         <v>44456</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40920,7 +40919,7 @@
         <v>44459</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40977,7 +40976,7 @@
         <v>44459</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41034,7 +41033,7 @@
         <v>44460</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41091,7 +41090,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41153,7 +41152,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41210,7 +41209,7 @@
         <v>44470</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41267,7 +41266,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41324,7 +41323,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41381,7 +41380,7 @@
         <v>44480</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41443,7 +41442,7 @@
         <v>44491</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41500,7 +41499,7 @@
         <v>44494</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41557,7 +41556,7 @@
         <v>44495</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41614,7 +41613,7 @@
         <v>44495</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41671,7 +41670,7 @@
         <v>44498</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41728,7 +41727,7 @@
         <v>44498</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41785,7 +41784,7 @@
         <v>44498</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41842,7 +41841,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41899,7 +41898,7 @@
         <v>44504</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41956,7 +41955,7 @@
         <v>44510</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42013,7 +42012,7 @@
         <v>44512</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42075,7 +42074,7 @@
         <v>44516</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42132,7 +42131,7 @@
         <v>44524</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42189,7 +42188,7 @@
         <v>44524</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42246,7 +42245,7 @@
         <v>44524</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42303,7 +42302,7 @@
         <v>44524</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42360,7 +42359,7 @@
         <v>44525</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42422,7 +42421,7 @@
         <v>44525</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42479,7 +42478,7 @@
         <v>44525</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42541,7 +42540,7 @@
         <v>44526</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42598,7 +42597,7 @@
         <v>44532</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42660,7 +42659,7 @@
         <v>44533</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42717,7 +42716,7 @@
         <v>44535</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42774,7 +42773,7 @@
         <v>44539</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42831,7 +42830,7 @@
         <v>44539</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42888,7 +42887,7 @@
         <v>44540</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42945,7 +42944,7 @@
         <v>44540</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43002,7 +43001,7 @@
         <v>44543</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43059,7 +43058,7 @@
         <v>44544</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43116,7 +43115,7 @@
         <v>44544</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43173,7 +43172,7 @@
         <v>44546</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43235,7 +43234,7 @@
         <v>44550</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43292,7 +43291,7 @@
         <v>44557</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43349,7 +43348,7 @@
         <v>44568</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43406,7 +43405,7 @@
         <v>44573</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43468,7 +43467,7 @@
         <v>44575</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43525,7 +43524,7 @@
         <v>44575</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43582,7 +43581,7 @@
         <v>44582</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43639,7 +43638,7 @@
         <v>44591</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43696,7 +43695,7 @@
         <v>44592</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43753,7 +43752,7 @@
         <v>44596</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43810,7 +43809,7 @@
         <v>44609</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43872,7 +43871,7 @@
         <v>44610</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43929,7 +43928,7 @@
         <v>44610</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43986,7 +43985,7 @@
         <v>44631</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44043,7 +44042,7 @@
         <v>44638</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44100,7 +44099,7 @@
         <v>44652</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44157,7 +44156,7 @@
         <v>44658</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44214,7 +44213,7 @@
         <v>44664</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44271,7 +44270,7 @@
         <v>44665</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44328,7 +44327,7 @@
         <v>44672</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44385,7 +44384,7 @@
         <v>44679</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44447,7 +44446,7 @@
         <v>44683</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44504,7 +44503,7 @@
         <v>44686</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44561,7 +44560,7 @@
         <v>44686</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44618,7 +44617,7 @@
         <v>44694</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44680,7 +44679,7 @@
         <v>44699</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44737,7 +44736,7 @@
         <v>44700</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44799,7 +44798,7 @@
         <v>44705</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44861,7 +44860,7 @@
         <v>44705</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44918,7 +44917,7 @@
         <v>44705</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44975,7 +44974,7 @@
         <v>44711</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45037,7 +45036,7 @@
         <v>44714</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45094,7 +45093,7 @@
         <v>44720</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45156,7 +45155,7 @@
         <v>44721</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45218,7 +45217,7 @@
         <v>44725</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45275,7 +45274,7 @@
         <v>44726</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45332,7 +45331,7 @@
         <v>44726</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45389,7 +45388,7 @@
         <v>44727</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45446,7 +45445,7 @@
         <v>44727</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45503,7 +45502,7 @@
         <v>44727</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45560,7 +45559,7 @@
         <v>44732</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45617,7 +45616,7 @@
         <v>44732</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45674,7 +45673,7 @@
         <v>44741</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45731,7 +45730,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45788,7 +45787,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45845,7 +45844,7 @@
         <v>44743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45907,7 +45906,7 @@
         <v>44748</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45964,7 +45963,7 @@
         <v>44749</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46026,7 +46025,7 @@
         <v>44749</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46083,7 +46082,7 @@
         <v>44749</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46145,7 +46144,7 @@
         <v>44749</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46207,7 +46206,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46264,7 +46263,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46321,7 +46320,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46378,7 +46377,7 @@
         <v>44750</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46440,7 +46439,7 @@
         <v>44757</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46497,7 +46496,7 @@
         <v>44757</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46559,7 +46558,7 @@
         <v>44757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46621,7 +46620,7 @@
         <v>44764</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46678,7 +46677,7 @@
         <v>44764</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46735,7 +46734,7 @@
         <v>44780</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46792,7 +46791,7 @@
         <v>44788</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46854,7 +46853,7 @@
         <v>44788</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46911,7 +46910,7 @@
         <v>44788</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46968,7 +46967,7 @@
         <v>44788</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47025,7 +47024,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47087,7 +47086,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47149,7 +47148,7 @@
         <v>44795</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47211,7 +47210,7 @@
         <v>44795</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47273,7 +47272,7 @@
         <v>44796</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47335,7 +47334,7 @@
         <v>44797</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47397,7 +47396,7 @@
         <v>44797</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47459,7 +47458,7 @@
         <v>44803</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47516,7 +47515,7 @@
         <v>44818</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47573,7 +47572,7 @@
         <v>44820</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47630,7 +47629,7 @@
         <v>44825</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47692,7 +47691,7 @@
         <v>44825</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47749,7 +47748,7 @@
         <v>44830</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47811,7 +47810,7 @@
         <v>44833</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47868,7 +47867,7 @@
         <v>44841</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47925,7 +47924,7 @@
         <v>44847</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47982,7 +47981,7 @@
         <v>44847</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48039,7 +48038,7 @@
         <v>44848</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48096,7 +48095,7 @@
         <v>44848</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48153,7 +48152,7 @@
         <v>44848</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48210,7 +48209,7 @@
         <v>44855</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48267,7 +48266,7 @@
         <v>44855</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48324,7 +48323,7 @@
         <v>44858</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48381,7 +48380,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48438,7 +48437,7 @@
         <v>44861</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48495,7 +48494,7 @@
         <v>44861</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48552,7 +48551,7 @@
         <v>44865</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48609,7 +48608,7 @@
         <v>44866</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48666,7 +48665,7 @@
         <v>44873</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48723,7 +48722,7 @@
         <v>44873</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48800,7 +48799,7 @@
         <v>44873</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48857,7 +48856,7 @@
         <v>44874</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48914,7 +48913,7 @@
         <v>44875</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48971,7 +48970,7 @@
         <v>44875</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49033,7 +49032,7 @@
         <v>44875</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49090,7 +49089,7 @@
         <v>44879</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49147,7 +49146,7 @@
         <v>44880</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49209,7 +49208,7 @@
         <v>44880</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49266,7 +49265,7 @@
         <v>44881</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49323,7 +49322,7 @@
         <v>44883</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49380,7 +49379,7 @@
         <v>44883</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49437,7 +49436,7 @@
         <v>44887</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49499,7 +49498,7 @@
         <v>44887</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49561,7 +49560,7 @@
         <v>44889</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49618,7 +49617,7 @@
         <v>44889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49675,7 +49674,7 @@
         <v>44889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49732,7 +49731,7 @@
         <v>44890</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49794,7 +49793,7 @@
         <v>44893</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49851,7 +49850,7 @@
         <v>44895</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49908,7 +49907,7 @@
         <v>44900</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49965,7 +49964,7 @@
         <v>44900</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50022,7 +50021,7 @@
         <v>44901</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50079,7 +50078,7 @@
         <v>44904</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50136,7 +50135,7 @@
         <v>44908</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50198,7 +50197,7 @@
         <v>44911</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50255,7 +50254,7 @@
         <v>44922</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50317,7 +50316,7 @@
         <v>44922</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50374,7 +50373,7 @@
         <v>44931</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50431,7 +50430,7 @@
         <v>44931</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50488,7 +50487,7 @@
         <v>44935</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50545,7 +50544,7 @@
         <v>44939</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50602,7 +50601,7 @@
         <v>44946</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50659,7 +50658,7 @@
         <v>44946</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50716,7 +50715,7 @@
         <v>44946</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50773,7 +50772,7 @@
         <v>44961</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50830,7 +50829,7 @@
         <v>44963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50887,7 +50886,7 @@
         <v>44965</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50949,7 +50948,7 @@
         <v>44966</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51006,7 +51005,7 @@
         <v>44966</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51063,7 +51062,7 @@
         <v>44970</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51120,7 +51119,7 @@
         <v>44970</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51177,7 +51176,7 @@
         <v>44971</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51234,7 +51233,7 @@
         <v>44974</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51296,7 +51295,7 @@
         <v>44977</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51358,7 +51357,7 @@
         <v>44977</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51415,7 +51414,7 @@
         <v>44978</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51472,7 +51471,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51534,7 +51533,7 @@
         <v>45000</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51596,7 +51595,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51653,7 +51652,7 @@
         <v>45006</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51715,7 +51714,7 @@
         <v>45019</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51772,7 +51771,7 @@
         <v>45020</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51829,7 +51828,7 @@
         <v>45022</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51886,7 +51885,7 @@
         <v>45022</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51943,7 +51942,7 @@
         <v>45029</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52005,7 +52004,7 @@
         <v>45034</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52062,7 +52061,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52119,7 +52118,7 @@
         <v>45036</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52176,7 +52175,7 @@
         <v>45036</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52233,7 +52232,7 @@
         <v>45036</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52290,7 +52289,7 @@
         <v>45036</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52347,7 +52346,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52404,7 +52403,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52461,7 +52460,7 @@
         <v>45040</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52518,7 +52517,7 @@
         <v>45040</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52575,7 +52574,7 @@
         <v>45040</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52632,7 +52631,7 @@
         <v>45041</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52689,7 +52688,7 @@
         <v>45042</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52746,7 +52745,7 @@
         <v>45048</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52808,7 +52807,7 @@
         <v>45048</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52870,7 +52869,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52927,7 +52926,7 @@
         <v>45049</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52984,7 +52983,7 @@
         <v>45050</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53046,7 +53045,7 @@
         <v>45055</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53103,7 +53102,7 @@
         <v>45055</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53160,7 +53159,7 @@
         <v>45056</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53217,7 +53216,7 @@
         <v>45056</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53274,7 +53273,7 @@
         <v>45056</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53331,7 +53330,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53388,7 +53387,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53450,7 +53449,7 @@
         <v>45062</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53512,7 +53511,7 @@
         <v>45062</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53574,7 +53573,7 @@
         <v>45065</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53636,7 +53635,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53693,7 +53692,7 @@
         <v>45071</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53750,7 +53749,7 @@
         <v>45079</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53807,7 +53806,7 @@
         <v>45082</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53869,7 +53868,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53926,7 +53925,7 @@
         <v>45086</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53983,7 +53982,7 @@
         <v>45090</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54040,7 +54039,7 @@
         <v>45090</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54097,7 +54096,7 @@
         <v>45090</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54154,7 +54153,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54211,7 +54210,7 @@
         <v>45096</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54268,7 +54267,7 @@
         <v>45097</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54325,7 +54324,7 @@
         <v>45097</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54382,7 +54381,7 @@
         <v>45097</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54444,7 +54443,7 @@
         <v>45098</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54506,7 +54505,7 @@
         <v>45099</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54563,7 +54562,7 @@
         <v>45105</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54620,7 +54619,7 @@
         <v>45107</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54677,7 +54676,7 @@
         <v>45107</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54734,7 +54733,7 @@
         <v>45107</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54791,7 +54790,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54848,7 +54847,7 @@
         <v>45111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54905,7 +54904,7 @@
         <v>45111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54962,7 +54961,7 @@
         <v>45112</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55019,7 +55018,7 @@
         <v>45112</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55076,7 +55075,7 @@
         <v>45112</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55133,7 +55132,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55190,7 +55189,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55247,7 +55246,7 @@
         <v>45117</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55304,7 +55303,7 @@
         <v>45117</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55361,7 +55360,7 @@
         <v>45117</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55418,7 +55417,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55475,7 +55474,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55537,7 +55536,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55599,7 +55598,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55656,7 +55655,7 @@
         <v>45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55713,7 +55712,7 @@
         <v>45139</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55775,7 +55774,7 @@
         <v>45140</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55832,7 +55831,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55889,7 +55888,7 @@
         <v>45146</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55946,7 +55945,7 @@
         <v>45148</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56008,7 +56007,7 @@
         <v>45149</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56065,7 +56064,7 @@
         <v>45152</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56122,7 +56121,7 @@
         <v>45152</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56179,7 +56178,7 @@
         <v>45152</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56241,7 +56240,7 @@
         <v>45153</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56303,7 +56302,7 @@
         <v>45159</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56360,7 +56359,7 @@
         <v>45162</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56422,7 +56421,7 @@
         <v>45163</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56479,7 +56478,7 @@
         <v>45166</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56536,7 +56535,7 @@
         <v>45168</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56593,7 +56592,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56645,7 +56644,7 @@
       </c>
       <c r="R878" s="2" t="inlineStr"/>
     </row>
-    <row r="879">
+    <row r="879" ht="15" customHeight="1">
       <c r="A879" t="inlineStr">
         <is>
           <t>A 40179-2023</t>
@@ -56655,7 +56654,7 @@
         <v>45169</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56706,6 +56705,125 @@
         <v>0</v>
       </c>
       <c r="R879" s="2" t="inlineStr"/>
+    </row>
+    <row r="880" ht="15" customHeight="1">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>A 41090-2023</t>
+        </is>
+      </c>
+      <c r="B880" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C880" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="G880" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H880" t="n">
+        <v>0</v>
+      </c>
+      <c r="I880" t="n">
+        <v>0</v>
+      </c>
+      <c r="J880" t="n">
+        <v>0</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0</v>
+      </c>
+      <c r="N880" t="n">
+        <v>0</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" s="2" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>A 41142-2023</t>
+        </is>
+      </c>
+      <c r="B881" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C881" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G881" t="n">
+        <v>2</v>
+      </c>
+      <c r="H881" t="n">
+        <v>0</v>
+      </c>
+      <c r="I881" t="n">
+        <v>0</v>
+      </c>
+      <c r="J881" t="n">
+        <v>0</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>0</v>
+      </c>
+      <c r="N881" t="n">
+        <v>0</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y881"/>
+  <dimension ref="A1:Y883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43392</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43731</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45121</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44165</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43816</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44013</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>45041</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43587</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43623</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>44118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45086</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>44552</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45041</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44015</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44133</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44585</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>44698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44155</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44271</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44308</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44355</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44534</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44834</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43474</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43920</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44150</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44183</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44194</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>44452</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44510</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44515</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>45149</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43669</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43670</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43705</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43731</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43816</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43817</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44174</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>44512</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>44722</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>44722</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44728</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44797</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44879</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>44895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44903</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44904</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44966</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43402</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43490</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44468</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>44671</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>44757</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44757</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44841</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>44867</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44873</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44936</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45049</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43433</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43503</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43608</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43816</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44123</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44279</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44316</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44355</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44378</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44524</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44757</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44890</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43327</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43353</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43412</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43508</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43642</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>43734</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43783</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>43815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43858</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>43930</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>43956</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44075</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>44099</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44154</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>44207</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>44308</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>44510</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44512</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44512</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44540</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44540</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44540</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44568</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44568</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44603</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44683</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>44742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>44747</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44788</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>44797</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>45079</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43328</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43335</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43335</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>43340</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>43342</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43342</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>43346</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>43350</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43350</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43353</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43362</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>43362</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>43362</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>43364</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43392</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>43412</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43412</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>43413</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>43413</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>43417</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>43420</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43427</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>43430</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>43431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>43433</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>43437</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>43439</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43441</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43453</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43455</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43455</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43455</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>43463</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>43468</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>43474</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>43476</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>43476</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>43477</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>43479</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43488</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43490</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43497</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43500</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43503</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43514</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43521</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43522</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43522</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43523</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43523</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43528</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43530</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43530</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43535</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43539</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43545</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43545</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43545</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43549</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>43558</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>43559</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>43559</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>43559</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>43559</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>43560</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>43563</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>43563</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>43564</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43565</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43566</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43579</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43580</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43581</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43581</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43584</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43585</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>43585</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>43587</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43587</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>43591</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>43594</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>43599</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>43602</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>43602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>43602</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>43605</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43608</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>43612</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>43612</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>43613</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>43614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>43616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43619</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>43619</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>43619</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>43619</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>43623</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>43623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>43623</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>43626</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>43628</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43633</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43633</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43633</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>43634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>43636</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>43636</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>43640</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43640</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>43640</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>43641</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>43641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43649</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>43649</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>43650</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>43651</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>43651</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>43654</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>43655</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>43657</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43657</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43661</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43661</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43678</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43682</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43684</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43690</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43691</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43692</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43692</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43693</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43696</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>43703</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>43703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>43704</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>43704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>43704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>43704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>43717</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>43722</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>43726</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>43727</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>43731</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>43731</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>43731</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>43731</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>43734</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>43734</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>43734</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>43734</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>43735</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>43735</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>43735</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>43741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43745</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>43747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>43747</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>43752</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43752</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43752</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43755</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>43755</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>43755</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>43759</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>43759</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>43762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>43762</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>43762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>43762</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>43763</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>43768</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>43770</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>43770</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>43773</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>43774</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>43776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>43776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>43781</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>43782</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>43783</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>43783</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>43783</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>43784</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>43787</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>43787</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>43787</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>43787</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>43789</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>43789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>43790</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>43791</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>43794</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>43794</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>43801</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>43802</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>43802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>43804</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>43805</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>43809</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>43810</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29317,7 +29317,7 @@
         <v>43811</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>43811</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29436,7 +29436,7 @@
         <v>43811</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>43811</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>43816</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>43818</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>43818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>43826</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29855,7 +29855,7 @@
         <v>43826</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29912,7 +29912,7 @@
         <v>43831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29969,7 +29969,7 @@
         <v>43837</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>43838</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30140,7 +30140,7 @@
         <v>43859</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>43860</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>43874</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30311,7 +30311,7 @@
         <v>43874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         <v>43879</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>43879</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>43879</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>43880</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>43885</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>43887</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>43889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>43893</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>43894</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>43900</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>43900</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>43900</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>43907</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>43907</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>43913</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>43920</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>43927</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>43928</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>43936</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>43938</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>43941</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>43942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>43942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>43951</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>43951</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>43955</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>43959</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>43983</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>43983</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>43991</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44013</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44015</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44032</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44033</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44038</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44048</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44050</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44050</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44057</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44061</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32777,7 +32777,7 @@
         <v>44062</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32953,7 +32953,7 @@
         <v>44090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44095</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44095</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44102</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44103</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>44113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44123</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44123</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33667,7 +33667,7 @@
         <v>44123</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44123</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33791,7 +33791,7 @@
         <v>44126</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33848,7 +33848,7 @@
         <v>44133</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44133</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>44133</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>44133</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44139</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44140</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44140</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34252,7 +34252,7 @@
         <v>44141</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34309,7 +34309,7 @@
         <v>44141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34366,7 +34366,7 @@
         <v>44146</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34423,7 +34423,7 @@
         <v>44148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>44151</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>44151</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34594,7 +34594,7 @@
         <v>44153</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         <v>44154</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>44154</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>44159</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>44161</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>44162</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>44162</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>44167</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44169</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44172</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>44172</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>44173</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44175</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44175</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44179</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44186</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44186</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44188</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44200</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44203</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44206</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44207</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>44207</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44207</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44207</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>44209</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36433,7 +36433,7 @@
         <v>44209</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44209</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36547,7 +36547,7 @@
         <v>44209</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36604,7 +36604,7 @@
         <v>44211</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36661,7 +36661,7 @@
         <v>44211</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44214</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36775,7 +36775,7 @@
         <v>44214</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36832,7 +36832,7 @@
         <v>44214</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36889,7 +36889,7 @@
         <v>44214</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>44228</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>44228</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>44243</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>44244</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>44255</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44256</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>44260</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>44263</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44265</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44265</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44270</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44271</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>44273</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>44278</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>44279</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44279</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>44279</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>44279</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>44284</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>44285</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>44285</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44285</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>44285</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>44286</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>44287</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>44292</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>44299</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44300</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>44306</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>44312</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44313</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44316</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>44323</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         <v>44326</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39003,7 +39003,7 @@
         <v>44331</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39060,7 +39060,7 @@
         <v>44333</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         <v>44334</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39174,7 +39174,7 @@
         <v>44335</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39231,7 +39231,7 @@
         <v>44337</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         <v>44337</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>44348</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>44348</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39469,7 +39469,7 @@
         <v>44349</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>44358</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>44362</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>44363</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>44370</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>44370</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>44371</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>44377</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>44377</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44377</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>44379</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>44381</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>44389</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40235,7 +40235,7 @@
         <v>44389</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40292,7 +40292,7 @@
         <v>44390</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40349,7 +40349,7 @@
         <v>44391</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40406,7 +40406,7 @@
         <v>44391</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44407</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>44419</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44427</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>44445</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>44447</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>44449</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>44452</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40862,7 +40862,7 @@
         <v>44456</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40919,7 +40919,7 @@
         <v>44459</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40976,7 +40976,7 @@
         <v>44459</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41033,7 +41033,7 @@
         <v>44460</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41090,7 +41090,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41152,7 +41152,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41209,7 +41209,7 @@
         <v>44470</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>44480</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41442,7 +41442,7 @@
         <v>44491</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>44494</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>44495</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>44495</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>44498</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>44498</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>44498</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>44504</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>44510</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>44512</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>44516</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>44524</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>44524</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>44524</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>44524</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>44525</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42421,7 +42421,7 @@
         <v>44525</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>44525</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>44526</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>44532</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42659,7 +42659,7 @@
         <v>44533</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>44535</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>44539</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>44539</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42887,7 +42887,7 @@
         <v>44540</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42944,7 +42944,7 @@
         <v>44540</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44543</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43058,7 +43058,7 @@
         <v>44544</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43115,7 +43115,7 @@
         <v>44544</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43172,7 +43172,7 @@
         <v>44546</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43234,7 +43234,7 @@
         <v>44550</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         <v>44557</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43348,7 +43348,7 @@
         <v>44568</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43405,7 +43405,7 @@
         <v>44573</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43467,7 +43467,7 @@
         <v>44575</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43524,7 +43524,7 @@
         <v>44575</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43581,7 +43581,7 @@
         <v>44582</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43638,7 +43638,7 @@
         <v>44591</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43695,7 +43695,7 @@
         <v>44592</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44596</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44609</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44610</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43928,7 +43928,7 @@
         <v>44610</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>44631</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44042,7 +44042,7 @@
         <v>44638</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44099,7 +44099,7 @@
         <v>44652</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44658</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44664</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44270,7 +44270,7 @@
         <v>44665</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44327,7 +44327,7 @@
         <v>44672</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44384,7 +44384,7 @@
         <v>44679</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44683</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44686</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44560,7 +44560,7 @@
         <v>44686</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>44694</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44679,7 +44679,7 @@
         <v>44699</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>44700</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44705</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44705</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44705</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44711</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>44714</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>44720</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44721</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45217,7 +45217,7 @@
         <v>44725</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45274,7 +45274,7 @@
         <v>44726</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45331,7 +45331,7 @@
         <v>44726</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45388,7 +45388,7 @@
         <v>44727</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44727</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45502,7 +45502,7 @@
         <v>44727</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45559,7 +45559,7 @@
         <v>44732</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45616,7 +45616,7 @@
         <v>44732</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44741</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>44748</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>44749</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46025,7 +46025,7 @@
         <v>44749</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46082,7 +46082,7 @@
         <v>44749</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>44749</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46206,7 +46206,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46263,7 +46263,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46320,7 +46320,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46377,7 +46377,7 @@
         <v>44750</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46439,7 +46439,7 @@
         <v>44757</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46496,7 +46496,7 @@
         <v>44757</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46558,7 +46558,7 @@
         <v>44757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46620,7 +46620,7 @@
         <v>44764</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46677,7 +46677,7 @@
         <v>44764</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46734,7 +46734,7 @@
         <v>44780</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46791,7 +46791,7 @@
         <v>44788</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46853,7 +46853,7 @@
         <v>44788</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46910,7 +46910,7 @@
         <v>44788</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46967,7 +46967,7 @@
         <v>44788</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47024,7 +47024,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47086,7 +47086,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44795</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44795</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47272,7 +47272,7 @@
         <v>44796</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47334,7 +47334,7 @@
         <v>44797</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47396,7 +47396,7 @@
         <v>44797</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47458,7 +47458,7 @@
         <v>44803</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47515,7 +47515,7 @@
         <v>44818</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47572,7 +47572,7 @@
         <v>44820</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47629,7 +47629,7 @@
         <v>44825</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47691,7 +47691,7 @@
         <v>44825</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47748,7 +47748,7 @@
         <v>44830</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47810,7 +47810,7 @@
         <v>44833</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47867,7 +47867,7 @@
         <v>44841</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47924,7 +47924,7 @@
         <v>44847</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47981,7 +47981,7 @@
         <v>44847</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48038,7 +48038,7 @@
         <v>44848</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48095,7 +48095,7 @@
         <v>44848</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>44848</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48209,7 +48209,7 @@
         <v>44855</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>44855</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>44858</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48380,7 +48380,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48437,7 +48437,7 @@
         <v>44861</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48494,7 +48494,7 @@
         <v>44861</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48551,7 +48551,7 @@
         <v>44865</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48608,7 +48608,7 @@
         <v>44866</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>44873</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>44873</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48799,7 +48799,7 @@
         <v>44873</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48856,7 +48856,7 @@
         <v>44874</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48913,7 +48913,7 @@
         <v>44875</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48970,7 +48970,7 @@
         <v>44875</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49032,7 +49032,7 @@
         <v>44875</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49089,7 +49089,7 @@
         <v>44879</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49146,7 +49146,7 @@
         <v>44880</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49208,7 +49208,7 @@
         <v>44880</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>44881</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49322,7 +49322,7 @@
         <v>44883</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49379,7 +49379,7 @@
         <v>44883</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49436,7 +49436,7 @@
         <v>44887</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>44887</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49560,7 +49560,7 @@
         <v>44889</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49617,7 +49617,7 @@
         <v>44889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49674,7 +49674,7 @@
         <v>44889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49731,7 +49731,7 @@
         <v>44890</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49793,7 +49793,7 @@
         <v>44893</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49850,7 +49850,7 @@
         <v>44895</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>44900</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>44900</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>44901</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>44904</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>44908</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50197,7 +50197,7 @@
         <v>44911</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50254,7 +50254,7 @@
         <v>44922</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50316,7 +50316,7 @@
         <v>44922</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         <v>44931</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50430,7 +50430,7 @@
         <v>44931</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>44935</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>44939</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>44946</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>44946</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50715,7 +50715,7 @@
         <v>44946</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50772,7 +50772,7 @@
         <v>44961</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50829,7 +50829,7 @@
         <v>44963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50886,7 +50886,7 @@
         <v>44965</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50948,7 +50948,7 @@
         <v>44966</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51005,7 +51005,7 @@
         <v>44966</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51062,7 +51062,7 @@
         <v>44970</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44970</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51176,7 +51176,7 @@
         <v>44971</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>44974</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44977</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44977</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>44978</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51471,7 +51471,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45000</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51595,7 +51595,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51652,7 +51652,7 @@
         <v>45006</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>45019</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>45020</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>45022</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>45022</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>45029</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52004,7 +52004,7 @@
         <v>45034</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52061,7 +52061,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52118,7 +52118,7 @@
         <v>45036</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52175,7 +52175,7 @@
         <v>45036</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52232,7 +52232,7 @@
         <v>45036</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52289,7 +52289,7 @@
         <v>45036</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52346,7 +52346,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52403,7 +52403,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52460,7 +52460,7 @@
         <v>45040</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45040</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52574,7 +52574,7 @@
         <v>45040</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52631,7 +52631,7 @@
         <v>45041</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52688,7 +52688,7 @@
         <v>45042</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45048</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45048</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52926,7 +52926,7 @@
         <v>45049</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>45050</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>45055</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>45055</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53159,7 +53159,7 @@
         <v>45056</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53216,7 +53216,7 @@
         <v>45056</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53273,7 +53273,7 @@
         <v>45056</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53330,7 +53330,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53387,7 +53387,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53449,7 +53449,7 @@
         <v>45062</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53511,7 +53511,7 @@
         <v>45062</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53573,7 +53573,7 @@
         <v>45065</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53692,7 +53692,7 @@
         <v>45071</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53749,7 +53749,7 @@
         <v>45079</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53806,7 +53806,7 @@
         <v>45082</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53868,7 +53868,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53925,7 +53925,7 @@
         <v>45086</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53982,7 +53982,7 @@
         <v>45090</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54039,7 +54039,7 @@
         <v>45090</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54096,7 +54096,7 @@
         <v>45090</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54153,7 +54153,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54210,7 +54210,7 @@
         <v>45096</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54267,7 +54267,7 @@
         <v>45097</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54324,7 +54324,7 @@
         <v>45097</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54381,7 +54381,7 @@
         <v>45097</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54443,7 +54443,7 @@
         <v>45098</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>45099</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>45105</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>45107</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>45107</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54733,7 +54733,7 @@
         <v>45107</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54790,7 +54790,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54847,7 +54847,7 @@
         <v>45111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54904,7 +54904,7 @@
         <v>45111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54961,7 +54961,7 @@
         <v>45112</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55018,7 +55018,7 @@
         <v>45112</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>45112</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55132,7 +55132,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55189,7 +55189,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55246,7 +55246,7 @@
         <v>45117</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55303,7 +55303,7 @@
         <v>45117</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55360,7 +55360,7 @@
         <v>45117</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55417,7 +55417,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55474,7 +55474,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55536,7 +55536,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55598,7 +55598,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55655,7 +55655,7 @@
         <v>45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55712,7 +55712,7 @@
         <v>45139</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55774,7 +55774,7 @@
         <v>45140</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55831,7 +55831,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55888,7 +55888,7 @@
         <v>45146</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55945,7 +55945,7 @@
         <v>45148</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56007,7 +56007,7 @@
         <v>45149</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56064,7 +56064,7 @@
         <v>45152</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56121,7 +56121,7 @@
         <v>45152</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56178,7 +56178,7 @@
         <v>45152</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56240,7 +56240,7 @@
         <v>45153</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>45159</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>45162</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         <v>45163</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56478,7 +56478,7 @@
         <v>45166</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56535,7 +56535,7 @@
         <v>45168</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56592,7 +56592,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56654,7 +56654,7 @@
         <v>45169</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56716,7 +56716,7 @@
         <v>45173</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56763,7 +56763,7 @@
       </c>
       <c r="R880" s="2" t="inlineStr"/>
     </row>
-    <row r="881">
+    <row r="881" ht="15" customHeight="1">
       <c r="A881" t="inlineStr">
         <is>
           <t>A 41142-2023</t>
@@ -56773,7 +56773,7 @@
         <v>45173</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56824,6 +56824,130 @@
         <v>0</v>
       </c>
       <c r="R881" s="2" t="inlineStr"/>
+    </row>
+    <row r="882" ht="15" customHeight="1">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>A 41769-2023</t>
+        </is>
+      </c>
+      <c r="B882" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C882" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G882" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H882" t="n">
+        <v>0</v>
+      </c>
+      <c r="I882" t="n">
+        <v>0</v>
+      </c>
+      <c r="J882" t="n">
+        <v>0</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>0</v>
+      </c>
+      <c r="N882" t="n">
+        <v>0</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" s="2" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>A 41784-2023</t>
+        </is>
+      </c>
+      <c r="B883" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C883" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G883" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H883" t="n">
+        <v>0</v>
+      </c>
+      <c r="I883" t="n">
+        <v>0</v>
+      </c>
+      <c r="J883" t="n">
+        <v>0</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>0</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -572,7 +572,7 @@
         <v>43392</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43731</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45121</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44165</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43816</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44013</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>45041</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43587</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43623</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>44118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45086</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>44552</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45041</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44015</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44038</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44133</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44585</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>44698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44155</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44271</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44308</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44355</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44534</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44834</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43474</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43817</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43920</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44150</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44183</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44194</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>44452</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44510</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44515</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>45149</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43669</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43669</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43670</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43705</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43731</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43816</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43817</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44174</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>44512</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>44722</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>44722</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44728</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44797</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44879</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>44895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44903</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44904</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44966</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43402</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43490</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43717</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44468</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>44671</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>44757</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44757</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44841</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>44867</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44873</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44936</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45049</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43433</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43503</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43608</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43682</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43816</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44123</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44279</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44316</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44355</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44378</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44524</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44757</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44890</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43327</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43353</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43412</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43508</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43642</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>43734</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43783</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>43815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43858</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43873</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>43878</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>43930</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>43956</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44075</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>44099</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44154</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>44207</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>44308</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>44510</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44512</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44512</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44530</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44540</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44540</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44540</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44568</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44568</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44603</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44683</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>44742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>44747</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44788</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>44797</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>45079</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43328</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43335</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43335</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>43340</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>43342</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>43342</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>43346</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>43350</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43350</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43353</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43362</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>43362</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>43362</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>43364</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>43392</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>43412</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>43412</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>43412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>43413</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>43413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>43413</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>43417</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>43420</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>43423</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43427</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>43430</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>43431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>43433</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>43437</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>43439</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43441</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>43453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>43453</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43455</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43455</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43455</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>43463</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>43468</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>43474</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>43476</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>43476</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>43477</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>43479</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43488</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43490</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43497</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43500</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43503</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43514</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43521</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43522</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43522</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43523</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43523</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43528</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43530</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43530</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43535</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43539</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43545</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43545</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43545</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43549</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>43558</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>43559</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>43559</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>43559</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>43559</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>43560</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>43563</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>43563</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>43564</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43565</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43566</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43579</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43580</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43581</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43581</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43584</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43585</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>43585</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>43587</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43587</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>43591</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>43594</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>43599</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>43602</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>43602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>43602</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>43605</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43608</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>43612</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>43612</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>43613</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>43614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>43616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43619</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>43619</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>43619</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>43619</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>43623</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>43623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>43623</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>43626</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>43628</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>43628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43633</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>43633</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>43633</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>43634</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>43636</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>43636</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>43640</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>43640</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>43640</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>43641</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>43641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>43649</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>43649</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>43650</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>43651</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>43651</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>43654</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>43655</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>43657</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43657</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43661</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43661</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43678</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43682</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43684</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43690</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43691</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43692</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43692</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43693</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43696</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>43699</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>43703</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>43703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>43704</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>43704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>43704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>43704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>43707</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>43710</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>43712</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>43717</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>43722</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>43726</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>43727</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>43731</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>43731</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>43731</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>43731</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>43734</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>43734</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>43734</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>43734</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>43735</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>43735</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>43735</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>43741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>43745</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>43747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>43747</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>43752</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>43752</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>43752</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>43755</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>43755</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>43755</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>43759</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>43759</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>43762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>43762</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>43762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>43762</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>43763</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>43768</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>43770</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>43770</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>43773</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>43774</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>43776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>43776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>43781</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>43782</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>43783</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>43783</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>43783</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>43784</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>43787</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>43787</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>43787</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>43787</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>43789</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>43789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>43790</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>43791</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>43794</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>43794</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>43801</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>43802</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>43802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>43804</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>43805</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>43809</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>43810</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29317,7 +29317,7 @@
         <v>43811</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>43811</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29436,7 +29436,7 @@
         <v>43811</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>43811</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>43816</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>43818</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>43818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>43826</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29855,7 +29855,7 @@
         <v>43826</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29912,7 +29912,7 @@
         <v>43831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29969,7 +29969,7 @@
         <v>43837</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>43838</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>43858</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30140,7 +30140,7 @@
         <v>43859</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>43860</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>43874</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30311,7 +30311,7 @@
         <v>43874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         <v>43879</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>43879</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>43879</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>43880</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>43885</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>43887</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>43889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>43893</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>43894</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>43900</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>43900</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>43900</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>43907</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>43907</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>43913</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>43920</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>43927</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>43928</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>43936</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>43938</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>43941</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>43942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>43942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>43951</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>43951</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>43955</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>43959</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>43983</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>43983</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>43991</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44013</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44015</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44032</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44033</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44038</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44048</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44050</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44050</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44057</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44061</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32777,7 +32777,7 @@
         <v>44062</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32953,7 +32953,7 @@
         <v>44090</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44095</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44095</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44102</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44103</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>44113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44123</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44123</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33667,7 +33667,7 @@
         <v>44123</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44123</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33791,7 +33791,7 @@
         <v>44126</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33848,7 +33848,7 @@
         <v>44133</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44133</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>44133</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>44133</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>44139</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>44140</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>44140</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34252,7 +34252,7 @@
         <v>44141</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34309,7 +34309,7 @@
         <v>44141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34366,7 +34366,7 @@
         <v>44146</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34423,7 +34423,7 @@
         <v>44148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>44151</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>44151</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34594,7 +34594,7 @@
         <v>44153</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         <v>44154</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>44154</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>44159</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>44161</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>44162</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>44162</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>44167</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44169</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44172</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>44172</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>44173</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44175</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44175</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44179</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44186</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44186</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44188</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44200</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44203</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44206</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44207</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>44207</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44207</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44207</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>44209</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36433,7 +36433,7 @@
         <v>44209</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>44209</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36547,7 +36547,7 @@
         <v>44209</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36604,7 +36604,7 @@
         <v>44211</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36661,7 +36661,7 @@
         <v>44211</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44214</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36775,7 +36775,7 @@
         <v>44214</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36832,7 +36832,7 @@
         <v>44214</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36889,7 +36889,7 @@
         <v>44214</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>44228</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>44228</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>44243</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>44244</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>44255</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>44256</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>44260</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>44263</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44265</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44265</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44270</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44271</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>44273</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>44278</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>44279</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44279</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>44279</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>44279</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>44284</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>44285</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>44285</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44285</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>44285</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>44286</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>44287</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>44292</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>44299</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44300</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>44306</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>44312</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44313</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44316</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>44323</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         <v>44326</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39003,7 +39003,7 @@
         <v>44331</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39060,7 +39060,7 @@
         <v>44333</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         <v>44334</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39174,7 +39174,7 @@
         <v>44335</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39231,7 +39231,7 @@
         <v>44337</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         <v>44337</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>44348</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>44348</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39469,7 +39469,7 @@
         <v>44349</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>44358</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>44362</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>44363</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>44370</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>44370</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>44371</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>44377</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>44377</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44377</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>44379</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>44381</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>44389</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40235,7 +40235,7 @@
         <v>44389</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40292,7 +40292,7 @@
         <v>44390</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40349,7 +40349,7 @@
         <v>44391</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40406,7 +40406,7 @@
         <v>44391</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44407</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>44419</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44427</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>44445</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>44447</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>44449</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>44452</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40862,7 +40862,7 @@
         <v>44456</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40919,7 +40919,7 @@
         <v>44459</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40976,7 +40976,7 @@
         <v>44459</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41033,7 +41033,7 @@
         <v>44460</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41090,7 +41090,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41152,7 +41152,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41209,7 +41209,7 @@
         <v>44470</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>44480</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41442,7 +41442,7 @@
         <v>44491</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>44494</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>44495</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>44495</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>44498</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>44498</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>44498</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>44504</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>44510</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>44512</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>44516</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>44524</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>44524</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>44524</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>44524</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>44525</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42421,7 +42421,7 @@
         <v>44525</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>44525</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>44526</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>44532</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42659,7 +42659,7 @@
         <v>44533</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>44535</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>44539</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>44539</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42887,7 +42887,7 @@
         <v>44540</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42944,7 +42944,7 @@
         <v>44540</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>44543</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43058,7 +43058,7 @@
         <v>44544</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43115,7 +43115,7 @@
         <v>44544</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43172,7 +43172,7 @@
         <v>44546</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43234,7 +43234,7 @@
         <v>44550</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         <v>44557</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43348,7 +43348,7 @@
         <v>44568</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43405,7 +43405,7 @@
         <v>44573</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43467,7 +43467,7 @@
         <v>44575</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43524,7 +43524,7 @@
         <v>44575</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43581,7 +43581,7 @@
         <v>44582</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43638,7 +43638,7 @@
         <v>44591</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43695,7 +43695,7 @@
         <v>44592</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44596</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44609</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44610</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43928,7 +43928,7 @@
         <v>44610</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>44631</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44042,7 +44042,7 @@
         <v>44638</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44099,7 +44099,7 @@
         <v>44652</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44658</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44664</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44270,7 +44270,7 @@
         <v>44665</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44327,7 +44327,7 @@
         <v>44672</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44384,7 +44384,7 @@
         <v>44679</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44683</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44686</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44560,7 +44560,7 @@
         <v>44686</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>44694</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44679,7 +44679,7 @@
         <v>44699</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>44700</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44705</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44705</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44705</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44711</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>44714</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>44720</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>44721</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45217,7 +45217,7 @@
         <v>44725</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45274,7 +45274,7 @@
         <v>44726</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45331,7 +45331,7 @@
         <v>44726</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45388,7 +45388,7 @@
         <v>44727</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44727</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45502,7 +45502,7 @@
         <v>44727</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45559,7 +45559,7 @@
         <v>44732</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45616,7 +45616,7 @@
         <v>44732</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44741</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44743</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>44748</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>44749</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46025,7 +46025,7 @@
         <v>44749</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46082,7 +46082,7 @@
         <v>44749</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>44749</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46206,7 +46206,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46263,7 +46263,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46320,7 +46320,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46377,7 +46377,7 @@
         <v>44750</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46439,7 +46439,7 @@
         <v>44757</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46496,7 +46496,7 @@
         <v>44757</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46558,7 +46558,7 @@
         <v>44757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46620,7 +46620,7 @@
         <v>44764</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46677,7 +46677,7 @@
         <v>44764</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46734,7 +46734,7 @@
         <v>44780</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46791,7 +46791,7 @@
         <v>44788</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46853,7 +46853,7 @@
         <v>44788</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46910,7 +46910,7 @@
         <v>44788</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46967,7 +46967,7 @@
         <v>44788</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47024,7 +47024,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47086,7 +47086,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44795</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44795</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47272,7 +47272,7 @@
         <v>44796</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47334,7 +47334,7 @@
         <v>44797</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47396,7 +47396,7 @@
         <v>44797</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47458,7 +47458,7 @@
         <v>44803</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47515,7 +47515,7 @@
         <v>44818</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47572,7 +47572,7 @@
         <v>44820</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47629,7 +47629,7 @@
         <v>44825</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47691,7 +47691,7 @@
         <v>44825</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47748,7 +47748,7 @@
         <v>44830</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47810,7 +47810,7 @@
         <v>44833</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47867,7 +47867,7 @@
         <v>44841</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47924,7 +47924,7 @@
         <v>44847</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47981,7 +47981,7 @@
         <v>44847</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48038,7 +48038,7 @@
         <v>44848</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48095,7 +48095,7 @@
         <v>44848</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>44848</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48209,7 +48209,7 @@
         <v>44855</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>44855</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>44858</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48380,7 +48380,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48437,7 +48437,7 @@
         <v>44861</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48494,7 +48494,7 @@
         <v>44861</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48551,7 +48551,7 @@
         <v>44865</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48608,7 +48608,7 @@
         <v>44866</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>44873</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>44873</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48799,7 +48799,7 @@
         <v>44873</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48856,7 +48856,7 @@
         <v>44874</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48913,7 +48913,7 @@
         <v>44875</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48970,7 +48970,7 @@
         <v>44875</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49032,7 +49032,7 @@
         <v>44875</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49089,7 +49089,7 @@
         <v>44879</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49146,7 +49146,7 @@
         <v>44880</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49208,7 +49208,7 @@
         <v>44880</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>44881</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49322,7 +49322,7 @@
         <v>44883</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49379,7 +49379,7 @@
         <v>44883</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49436,7 +49436,7 @@
         <v>44887</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>44887</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49560,7 +49560,7 @@
         <v>44889</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49617,7 +49617,7 @@
         <v>44889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49674,7 +49674,7 @@
         <v>44889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49731,7 +49731,7 @@
         <v>44890</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49793,7 +49793,7 @@
         <v>44893</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49850,7 +49850,7 @@
         <v>44895</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>44900</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>44900</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>44901</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>44904</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>44908</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50197,7 +50197,7 @@
         <v>44911</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50254,7 +50254,7 @@
         <v>44922</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50316,7 +50316,7 @@
         <v>44922</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         <v>44931</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50430,7 +50430,7 @@
         <v>44931</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>44935</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>44939</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>44946</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>44946</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50715,7 +50715,7 @@
         <v>44946</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50772,7 +50772,7 @@
         <v>44961</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50829,7 +50829,7 @@
         <v>44963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50886,7 +50886,7 @@
         <v>44965</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50948,7 +50948,7 @@
         <v>44966</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51005,7 +51005,7 @@
         <v>44966</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51062,7 +51062,7 @@
         <v>44970</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51119,7 +51119,7 @@
         <v>44970</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51176,7 +51176,7 @@
         <v>44971</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51233,7 +51233,7 @@
         <v>44974</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>44977</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51357,7 +51357,7 @@
         <v>44977</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51414,7 +51414,7 @@
         <v>44978</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51471,7 +51471,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45000</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51595,7 +51595,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51652,7 +51652,7 @@
         <v>45006</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51714,7 +51714,7 @@
         <v>45019</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51771,7 +51771,7 @@
         <v>45020</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51828,7 +51828,7 @@
         <v>45022</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         <v>45022</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51942,7 +51942,7 @@
         <v>45029</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52004,7 +52004,7 @@
         <v>45034</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52061,7 +52061,7 @@
         <v>45035</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52118,7 +52118,7 @@
         <v>45036</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52175,7 +52175,7 @@
         <v>45036</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52232,7 +52232,7 @@
         <v>45036</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52289,7 +52289,7 @@
         <v>45036</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52346,7 +52346,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52403,7 +52403,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52460,7 +52460,7 @@
         <v>45040</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45040</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52574,7 +52574,7 @@
         <v>45040</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52631,7 +52631,7 @@
         <v>45041</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52688,7 +52688,7 @@
         <v>45042</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45048</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45048</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52926,7 +52926,7 @@
         <v>45049</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>45050</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53045,7 +53045,7 @@
         <v>45055</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         <v>45055</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53159,7 +53159,7 @@
         <v>45056</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53216,7 +53216,7 @@
         <v>45056</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53273,7 +53273,7 @@
         <v>45056</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53330,7 +53330,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53387,7 +53387,7 @@
         <v>45057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53449,7 +53449,7 @@
         <v>45062</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53511,7 +53511,7 @@
         <v>45062</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53573,7 +53573,7 @@
         <v>45065</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>45070</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53692,7 +53692,7 @@
         <v>45071</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53749,7 +53749,7 @@
         <v>45079</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53806,7 +53806,7 @@
         <v>45082</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53868,7 +53868,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53925,7 +53925,7 @@
         <v>45086</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53982,7 +53982,7 @@
         <v>45090</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54039,7 +54039,7 @@
         <v>45090</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54096,7 +54096,7 @@
         <v>45090</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54153,7 +54153,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54210,7 +54210,7 @@
         <v>45096</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54267,7 +54267,7 @@
         <v>45097</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54324,7 +54324,7 @@
         <v>45097</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54381,7 +54381,7 @@
         <v>45097</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54443,7 +54443,7 @@
         <v>45098</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>45099</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>45105</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>45107</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>45107</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54733,7 +54733,7 @@
         <v>45107</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54790,7 +54790,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54847,7 +54847,7 @@
         <v>45111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54904,7 +54904,7 @@
         <v>45111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54961,7 +54961,7 @@
         <v>45112</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55018,7 +55018,7 @@
         <v>45112</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>45112</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55132,7 +55132,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55189,7 +55189,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55246,7 +55246,7 @@
         <v>45117</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55303,7 +55303,7 @@
         <v>45117</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55360,7 +55360,7 @@
         <v>45117</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55417,7 +55417,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55474,7 +55474,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55536,7 +55536,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55598,7 +55598,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55655,7 +55655,7 @@
         <v>45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55712,7 +55712,7 @@
         <v>45139</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55774,7 +55774,7 @@
         <v>45140</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55831,7 +55831,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55888,7 +55888,7 @@
         <v>45146</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55945,7 +55945,7 @@
         <v>45148</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56007,7 +56007,7 @@
         <v>45149</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56064,7 +56064,7 @@
         <v>45152</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56121,7 +56121,7 @@
         <v>45152</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56178,7 +56178,7 @@
         <v>45152</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56240,7 +56240,7 @@
         <v>45153</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56302,7 +56302,7 @@
         <v>45159</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56359,7 +56359,7 @@
         <v>45162</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         <v>45163</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56478,7 +56478,7 @@
         <v>45166</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56535,7 +56535,7 @@
         <v>45168</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56592,7 +56592,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56654,7 +56654,7 @@
         <v>45169</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56716,7 +56716,7 @@
         <v>45173</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56773,7 +56773,7 @@
         <v>45173</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56835,7 +56835,7 @@
         <v>45176</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56897,7 +56897,7 @@
         <v>45176</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -572,7 +572,7 @@
         <v>43392</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43731</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45121</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44165</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45041</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43816</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44013</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>45041</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43587</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44260</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45086</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>44552</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44038</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44133</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45049</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45149</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43817</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44013</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44155</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44308</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44355</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44477</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44534</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44834</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43474</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43920</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44150</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44183</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44194</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44510</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44557</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>45079</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43669</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43669</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43670</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43731</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43816</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43817</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44174</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44512</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>44553</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44722</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44722</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>44728</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44797</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44903</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44904</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43490</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43766</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44468</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44671</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44757</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44757</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44841</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44867</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44936</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>45049</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>43362</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43433</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43682</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43816</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44123</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44279</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44316</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44355</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44524</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44757</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44890</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>43327</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43353</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43412</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43636</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>43642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43783</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43858</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>43873</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43878</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43930</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43956</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44064</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44075</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44090</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44097</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44099</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44154</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>44207</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>44230</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44308</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44510</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44512</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44512</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44530</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44540</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44540</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44540</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44568</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44568</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44603</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44683</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44728</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>44742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>44747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44788</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>45079</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>43328</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>43334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43335</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>43340</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43342</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43342</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43346</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43350</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43350</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>43353</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>43357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>43357</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>43362</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>43362</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>43362</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>43364</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>43389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>43392</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>43412</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>43412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>43412</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>43413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>43413</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>43413</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43417</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43420</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43423</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43425</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>43430</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43432</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>43433</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>43437</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>43439</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43441</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43447</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>43453</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43455</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43455</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43455</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>43463</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>43468</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>43474</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>43474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43474</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>43476</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>43476</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>43477</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>43479</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>43482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>43488</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>43490</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>43497</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>43500</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>43509</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43521</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43522</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43522</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43523</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>43523</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>43530</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>43530</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>43535</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>43539</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>43545</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>43545</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>43545</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>43549</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>43551</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>43556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>43558</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>43559</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>43559</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43559</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>43559</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>43560</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>43563</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>43563</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>43564</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>43565</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>43566</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>43571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>43572</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>43579</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43580</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>43581</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>43581</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>43584</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>43585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>43585</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>43585</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>43587</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>43587</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>43591</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>43594</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>43599</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>43602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>43602</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>43602</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>43605</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>43608</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>43612</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>43612</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>43613</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>43614</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>43616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>43619</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>43619</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>43619</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>43619</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>43623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>43623</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>43623</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43626</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>43628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>43628</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>43633</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>43633</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>43633</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>43634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>43636</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>43636</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>43640</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>43640</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>43640</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>43641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>43641</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>43642</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>43649</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>43649</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>43650</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>43651</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>43651</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>43654</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>43655</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>43657</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>43657</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>43661</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>43661</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>43678</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>43682</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>43684</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>43690</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>43691</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>43692</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>43692</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>43693</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>43696</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>43703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43703</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>43704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>43704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>43704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>43704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>43707</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>43710</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>43717</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>43722</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>43726</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>43727</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>43731</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>43731</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>43731</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>43731</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>43734</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>43734</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>43734</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>43734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26269,7 +26269,7 @@
         <v>43735</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>43735</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>43735</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>43741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>43745</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>43747</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>43747</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>43752</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>43752</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>43752</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43755</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43755</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43755</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>43759</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>43759</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>43762</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>43762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>43762</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27476,7 +27476,7 @@
         <v>43762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>43763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>43768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>43770</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>43770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>43773</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>43774</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>43776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27947,7 +27947,7 @@
         <v>43776</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>43781</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>43782</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>43783</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>43783</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>43783</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>43784</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>43787</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>43787</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>43787</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>43787</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>43789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>43789</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>43790</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>43791</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>43794</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>43801</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>43802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>43802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>43804</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>43805</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>43809</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>43810</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>43811</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>43811</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>43811</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>43811</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>43816</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43818</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43826</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43826</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43831</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43837</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43838</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43860</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43874</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43879</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43879</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43879</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43880</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43885</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43887</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43893</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43894</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43900</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43900</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43900</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43907</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43913</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43920</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>43927</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>43928</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>43936</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>43938</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>43941</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>43942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>43942</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43951</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43951</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43955</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43959</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43983</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43983</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43991</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44007</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44013</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32307,7 +32307,7 @@
         <v>44015</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32364,7 +32364,7 @@
         <v>44032</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32421,7 +32421,7 @@
         <v>44033</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44038</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>44048</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44050</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44050</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44057</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44061</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>44062</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44076</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44077</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44090</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>44095</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44095</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>44102</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>44103</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44123</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44123</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44123</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44123</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44126</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44133</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44133</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44133</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44133</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44139</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44140</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44140</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>44141</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>44146</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>44148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44151</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44151</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34694,7 +34694,7 @@
         <v>44153</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34751,7 +34751,7 @@
         <v>44154</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34808,7 +34808,7 @@
         <v>44154</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34865,7 +34865,7 @@
         <v>44159</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34922,7 +34922,7 @@
         <v>44161</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44162</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44167</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44169</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44172</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44172</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44173</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>44175</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>44175</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35554,7 +35554,7 @@
         <v>44179</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>44183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>44183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35839,7 +35839,7 @@
         <v>44183</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35896,7 +35896,7 @@
         <v>44186</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
         <v>44186</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36010,7 +36010,7 @@
         <v>44188</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>44200</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>44203</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36181,7 +36181,7 @@
         <v>44206</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>44207</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44207</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44207</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44207</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44209</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44209</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44209</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44209</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44211</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44211</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44214</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44214</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44214</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44214</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44228</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44228</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44243</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44244</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44255</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44256</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44260</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44263</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44265</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44265</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44270</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44271</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44273</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44278</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44279</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44279</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44279</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44279</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44284</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44285</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44285</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44285</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44285</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44286</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44287</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44292</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44299</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44300</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44306</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44312</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44313</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44316</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44323</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44326</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44331</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44333</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44334</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44335</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         <v>44337</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39445,7 +39445,7 @@
         <v>44348</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44348</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44349</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>44358</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>44362</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44363</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44370</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44370</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44371</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44377</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>44377</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44377</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44379</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44381</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44389</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44389</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44390</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44391</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44391</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44419</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44427</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44445</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44447</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44449</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44452</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44456</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44459</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>44459</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44460</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>44468</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>44470</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41309,7 +41309,7 @@
         <v>44470</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41366,7 +41366,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41423,7 +41423,7 @@
         <v>44473</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41480,7 +41480,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44491</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44494</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44495</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44495</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44498</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44498</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44498</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44502</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44504</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44510</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44512</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44516</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44524</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44524</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44524</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44524</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44525</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>44525</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>44525</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42640,7 +42640,7 @@
         <v>44526</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42697,7 +42697,7 @@
         <v>44532</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42759,7 +42759,7 @@
         <v>44533</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44535</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44539</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>44539</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44540</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>44540</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         <v>44543</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43158,7 +43158,7 @@
         <v>44544</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43215,7 +43215,7 @@
         <v>44544</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44546</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>44550</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>44557</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44568</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44573</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>44575</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44575</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43681,7 +43681,7 @@
         <v>44582</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43738,7 +43738,7 @@
         <v>44591</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44592</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44596</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>44609</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>44610</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>44610</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>44631</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>44638</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>44652</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>44658</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>44664</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>44665</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>44672</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
         <v>44679</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>44683</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>44686</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>44686</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>44694</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>44699</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>44700</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44898,7 +44898,7 @@
         <v>44705</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44705</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45017,7 +45017,7 @@
         <v>44705</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45074,7 +45074,7 @@
         <v>44711</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44714</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44720</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>44721</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>44725</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>44726</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44726</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>44727</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45545,7 +45545,7 @@
         <v>44727</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>44727</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>44732</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45716,7 +45716,7 @@
         <v>44732</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45773,7 +45773,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45830,7 +45830,7 @@
         <v>44741</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45887,7 +45887,7 @@
         <v>44743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45944,7 +45944,7 @@
         <v>44743</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>44748</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>44749</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         <v>44749</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46182,7 +46182,7 @@
         <v>44749</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         <v>44749</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46363,7 +46363,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>44750</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>44750</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>44757</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>44757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44757</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>44764</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46777,7 +46777,7 @@
         <v>44764</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>44780</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         <v>44788</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46953,7 +46953,7 @@
         <v>44788</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>44788</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47067,7 +47067,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47124,7 +47124,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>44788</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44795</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47310,7 +47310,7 @@
         <v>44795</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47372,7 +47372,7 @@
         <v>44796</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47434,7 +47434,7 @@
         <v>44797</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44797</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47558,7 +47558,7 @@
         <v>44803</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47615,7 +47615,7 @@
         <v>44818</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44820</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47729,7 +47729,7 @@
         <v>44825</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44825</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>44830</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47910,7 +47910,7 @@
         <v>44833</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47967,7 +47967,7 @@
         <v>44841</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>44847</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48081,7 +48081,7 @@
         <v>44847</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48138,7 +48138,7 @@
         <v>44848</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48195,7 +48195,7 @@
         <v>44848</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48252,7 +48252,7 @@
         <v>44848</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48309,7 +48309,7 @@
         <v>44855</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48366,7 +48366,7 @@
         <v>44855</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48423,7 +48423,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48480,7 +48480,7 @@
         <v>44858</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48537,7 +48537,7 @@
         <v>44861</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48594,7 +48594,7 @@
         <v>44861</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48651,7 +48651,7 @@
         <v>44865</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48708,7 +48708,7 @@
         <v>44866</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48765,7 +48765,7 @@
         <v>44873</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48822,7 +48822,7 @@
         <v>44873</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48899,7 +48899,7 @@
         <v>44873</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48956,7 +48956,7 @@
         <v>44874</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49013,7 +49013,7 @@
         <v>44875</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         <v>44875</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49132,7 +49132,7 @@
         <v>44875</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49189,7 +49189,7 @@
         <v>44879</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49246,7 +49246,7 @@
         <v>44880</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49308,7 +49308,7 @@
         <v>44880</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         <v>44881</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49422,7 +49422,7 @@
         <v>44883</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49479,7 +49479,7 @@
         <v>44883</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49536,7 +49536,7 @@
         <v>44887</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49598,7 +49598,7 @@
         <v>44887</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49660,7 +49660,7 @@
         <v>44889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>44889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49774,7 +49774,7 @@
         <v>44889</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49831,7 +49831,7 @@
         <v>44890</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49893,7 +49893,7 @@
         <v>44893</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49950,7 +49950,7 @@
         <v>44895</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44900</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50064,7 +50064,7 @@
         <v>44900</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50121,7 +50121,7 @@
         <v>44901</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50178,7 +50178,7 @@
         <v>44904</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50235,7 +50235,7 @@
         <v>44908</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44911</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50354,7 +50354,7 @@
         <v>44922</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50416,7 +50416,7 @@
         <v>44922</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50473,7 +50473,7 @@
         <v>44931</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50530,7 +50530,7 @@
         <v>44931</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50587,7 +50587,7 @@
         <v>44935</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50644,7 +50644,7 @@
         <v>44939</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50701,7 +50701,7 @@
         <v>44946</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50758,7 +50758,7 @@
         <v>44946</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50815,7 +50815,7 @@
         <v>44946</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50872,7 +50872,7 @@
         <v>44961</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50929,7 +50929,7 @@
         <v>44963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50986,7 +50986,7 @@
         <v>44965</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51048,7 +51048,7 @@
         <v>44966</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51105,7 +51105,7 @@
         <v>44966</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51162,7 +51162,7 @@
         <v>44970</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51219,7 +51219,7 @@
         <v>44970</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51276,7 +51276,7 @@
         <v>44971</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51333,7 +51333,7 @@
         <v>44974</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51395,7 +51395,7 @@
         <v>44977</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51457,7 +51457,7 @@
         <v>44977</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51514,7 +51514,7 @@
         <v>44978</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         <v>44986</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51633,7 +51633,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>45000</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>45006</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>45019</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51871,7 +51871,7 @@
         <v>45020</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51928,7 +51928,7 @@
         <v>45022</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51985,7 +51985,7 @@
         <v>45022</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52042,7 +52042,7 @@
         <v>45029</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52104,7 +52104,7 @@
         <v>45034</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52161,7 +52161,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52218,7 +52218,7 @@
         <v>45036</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52275,7 +52275,7 @@
         <v>45036</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52332,7 +52332,7 @@
         <v>45036</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52446,7 +52446,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52503,7 +52503,7 @@
         <v>45036</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52560,7 +52560,7 @@
         <v>45040</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52617,7 +52617,7 @@
         <v>45040</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52674,7 +52674,7 @@
         <v>45040</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52731,7 +52731,7 @@
         <v>45041</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52788,7 +52788,7 @@
         <v>45042</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52845,7 +52845,7 @@
         <v>45048</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52907,7 +52907,7 @@
         <v>45048</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45049</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45049</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45050</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53145,7 +53145,7 @@
         <v>45055</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53202,7 +53202,7 @@
         <v>45055</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53259,7 +53259,7 @@
         <v>45056</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53316,7 +53316,7 @@
         <v>45056</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53373,7 +53373,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53430,7 +53430,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53487,7 +53487,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53549,7 +53549,7 @@
         <v>45062</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53611,7 +53611,7 @@
         <v>45062</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53673,7 +53673,7 @@
         <v>45065</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53735,7 +53735,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53792,7 +53792,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53849,7 +53849,7 @@
         <v>45082</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53911,7 +53911,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53968,7 +53968,7 @@
         <v>45086</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54025,7 +54025,7 @@
         <v>45090</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54082,7 +54082,7 @@
         <v>45090</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54139,7 +54139,7 @@
         <v>45090</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54196,7 +54196,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54253,7 +54253,7 @@
         <v>45096</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54310,7 +54310,7 @@
         <v>45097</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54367,7 +54367,7 @@
         <v>45097</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54424,7 +54424,7 @@
         <v>45097</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54486,7 +54486,7 @@
         <v>45098</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>45099</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54605,7 +54605,7 @@
         <v>45105</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54662,7 +54662,7 @@
         <v>45107</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54719,7 +54719,7 @@
         <v>45107</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54776,7 +54776,7 @@
         <v>45107</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54833,7 +54833,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54890,7 +54890,7 @@
         <v>45111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54947,7 +54947,7 @@
         <v>45111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55004,7 +55004,7 @@
         <v>45112</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55061,7 +55061,7 @@
         <v>45112</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55118,7 +55118,7 @@
         <v>45112</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55175,7 +55175,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55232,7 +55232,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55289,7 +55289,7 @@
         <v>45117</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45117</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55403,7 +55403,7 @@
         <v>45117</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55641,7 +55641,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55755,7 +55755,7 @@
         <v>45139</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55817,7 +55817,7 @@
         <v>45140</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55874,7 +55874,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55931,7 +55931,7 @@
         <v>45146</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55988,7 +55988,7 @@
         <v>45148</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56050,7 +56050,7 @@
         <v>45149</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         <v>45152</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56164,7 +56164,7 @@
         <v>45152</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56221,7 +56221,7 @@
         <v>45152</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56283,7 +56283,7 @@
         <v>45153</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56345,7 +56345,7 @@
         <v>45159</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56402,7 +56402,7 @@
         <v>45162</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56464,7 +56464,7 @@
         <v>45163</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56521,7 +56521,7 @@
         <v>45166</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56578,7 +56578,7 @@
         <v>45168</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56635,7 +56635,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56697,7 +56697,7 @@
         <v>45169</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56759,7 +56759,7 @@
         <v>45173</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56816,7 +56816,7 @@
         <v>45173</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56878,7 +56878,7 @@
         <v>45176</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56940,7 +56940,7 @@
         <v>45176</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y883"/>
+  <dimension ref="A1:Y884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43392</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43731</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45121</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44165</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45041</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43816</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44013</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>45041</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43587</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44260</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45086</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>44552</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44038</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44133</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45049</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45149</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43817</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44013</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44155</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44308</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44355</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44477</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44534</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44834</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43474</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43920</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44150</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44183</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44194</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44510</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44557</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>45079</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43669</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43669</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43670</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43731</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43816</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43817</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44174</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44512</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>44553</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44722</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44722</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>44728</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44797</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44903</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44904</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43490</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43766</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44468</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44671</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44757</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44757</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44841</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44867</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44936</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>45049</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>43362</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43433</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43682</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43816</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44123</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44279</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44316</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44355</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44524</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44757</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44890</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>43327</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43353</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43412</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43636</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>43642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43783</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43858</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>43873</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43878</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43930</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43956</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44064</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44075</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44090</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44097</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44099</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44154</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>44207</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>44230</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44308</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44510</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44512</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44512</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44530</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44540</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44540</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44540</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44568</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44568</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44603</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44683</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44728</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>44742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>44747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44788</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>45079</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>43328</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>43334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43335</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>43340</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43342</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43342</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43346</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43350</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43350</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>43353</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>43357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>43357</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>43362</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>43362</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>43362</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>43364</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>43389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>43392</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>43412</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>43412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>43412</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>43413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>43413</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>43413</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43417</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43420</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43423</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43425</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>43430</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43432</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>43433</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>43437</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>43439</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43441</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43447</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>43453</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43455</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43455</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43455</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>43463</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>43468</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>43474</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>43474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43474</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>43476</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>43476</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>43477</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>43479</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>43482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>43488</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>43490</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>43497</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>43500</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>43509</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43521</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43522</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43522</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43523</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>43523</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>43530</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>43530</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>43535</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>43539</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>43545</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>43545</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>43545</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>43549</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>43551</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>43556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>43558</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>43559</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>43559</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43559</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>43559</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>43560</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>43563</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>43563</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>43564</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>43565</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>43566</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>43571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>43572</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>43579</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43580</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>43581</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>43581</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>43584</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>43585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>43585</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>43585</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>43587</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>43587</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>43591</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>43594</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>43599</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>43602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>43602</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>43602</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>43605</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>43608</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>43612</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>43612</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>43613</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>43614</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>43616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>43619</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>43619</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>43619</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>43619</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>43623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>43623</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>43623</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43626</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>43628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>43628</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>43633</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>43633</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>43633</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>43634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>43636</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>43636</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>43640</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>43640</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>43640</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>43641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>43641</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>43642</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>43649</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>43649</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>43650</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>43651</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>43651</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>43654</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>43655</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>43657</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>43657</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>43661</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>43661</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>43678</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>43682</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>43684</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>43690</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>43691</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>43692</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>43692</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>43693</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>43696</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>43703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43703</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>43704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>43704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>43704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>43704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>43707</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>43710</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>43717</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>43722</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>43726</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>43727</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>43731</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>43731</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>43731</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>43731</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>43734</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>43734</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>43734</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>43734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26269,7 +26269,7 @@
         <v>43735</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>43735</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>43735</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>43741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>43745</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>43747</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>43747</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>43752</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>43752</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>43752</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43755</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43755</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43755</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>43759</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>43759</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>43762</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>43762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>43762</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27476,7 +27476,7 @@
         <v>43762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>43763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>43768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>43770</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>43770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>43773</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>43774</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>43776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27947,7 +27947,7 @@
         <v>43776</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>43781</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>43782</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>43783</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>43783</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>43783</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>43784</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>43787</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>43787</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>43787</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>43787</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>43789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>43789</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>43790</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>43791</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>43794</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>43801</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>43802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>43802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>43804</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>43805</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>43809</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>43810</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>43811</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>43811</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>43811</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>43811</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>43816</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43818</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43826</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43826</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43831</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43837</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43838</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43860</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43874</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43879</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43879</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43879</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43880</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43885</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43887</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43893</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43894</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43900</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43900</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43900</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43907</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43913</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43920</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>43927</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>43928</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>43936</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>43938</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>43941</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>43942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>43942</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43951</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43951</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43955</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43959</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43983</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43983</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43991</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44007</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44013</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32307,7 +32307,7 @@
         <v>44015</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32364,7 +32364,7 @@
         <v>44032</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32421,7 +32421,7 @@
         <v>44033</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44038</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>44048</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44050</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44050</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44057</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44061</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>44062</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44076</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44077</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44090</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>44095</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44095</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>44102</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>44103</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44123</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44123</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44123</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44123</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44126</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44133</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44133</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44133</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44133</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44139</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44140</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44140</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>44141</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>44146</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>44148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44151</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44151</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34694,7 +34694,7 @@
         <v>44153</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34751,7 +34751,7 @@
         <v>44154</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34808,7 +34808,7 @@
         <v>44154</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34865,7 +34865,7 @@
         <v>44159</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34922,7 +34922,7 @@
         <v>44161</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44162</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44167</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44169</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44172</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44172</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44173</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>44175</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>44175</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35554,7 +35554,7 @@
         <v>44179</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>44183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>44183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35839,7 +35839,7 @@
         <v>44183</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35896,7 +35896,7 @@
         <v>44186</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
         <v>44186</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36010,7 +36010,7 @@
         <v>44188</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>44200</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>44203</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36181,7 +36181,7 @@
         <v>44206</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>44207</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44207</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44207</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44207</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44209</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44209</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44209</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44209</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44211</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44211</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44214</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44214</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44214</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44214</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44228</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44228</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44243</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44244</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44255</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44256</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44260</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44263</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44265</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44265</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44270</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44271</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44273</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44278</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44279</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44279</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44279</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44279</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44284</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44285</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44285</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44285</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44285</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44286</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44287</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44292</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44299</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44300</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44306</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44312</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44313</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44316</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44323</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44326</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44331</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44333</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44334</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44335</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         <v>44337</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39445,7 +39445,7 @@
         <v>44348</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44348</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44349</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>44358</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>44362</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44363</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44370</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44370</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44371</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44377</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>44377</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44377</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44379</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44381</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44389</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44389</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44390</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44391</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44391</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44419</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44427</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44445</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44447</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44449</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44452</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44456</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44459</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>44459</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44460</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>44468</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>44470</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41309,7 +41309,7 @@
         <v>44470</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41366,7 +41366,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41423,7 +41423,7 @@
         <v>44473</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41480,7 +41480,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44491</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44494</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44495</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44495</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44498</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44498</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44498</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44502</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44504</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44510</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44512</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44516</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44524</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44524</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44524</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44524</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44525</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>44525</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>44525</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42640,7 +42640,7 @@
         <v>44526</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42697,7 +42697,7 @@
         <v>44532</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42759,7 +42759,7 @@
         <v>44533</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44535</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44539</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>44539</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44540</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>44540</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         <v>44543</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43158,7 +43158,7 @@
         <v>44544</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43215,7 +43215,7 @@
         <v>44544</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44546</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>44550</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>44557</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44568</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44573</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>44575</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44575</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43681,7 +43681,7 @@
         <v>44582</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43738,7 +43738,7 @@
         <v>44591</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44592</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44596</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>44609</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>44610</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>44610</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>44631</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>44638</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>44652</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>44658</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>44664</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>44665</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>44672</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
         <v>44679</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>44683</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>44686</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>44686</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>44694</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>44699</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>44700</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44898,7 +44898,7 @@
         <v>44705</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44705</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45017,7 +45017,7 @@
         <v>44705</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45074,7 +45074,7 @@
         <v>44711</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44714</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44720</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>44721</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>44725</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>44726</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44726</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>44727</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45545,7 +45545,7 @@
         <v>44727</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>44727</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>44732</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45716,7 +45716,7 @@
         <v>44732</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45773,7 +45773,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45830,7 +45830,7 @@
         <v>44741</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45887,7 +45887,7 @@
         <v>44743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45944,7 +45944,7 @@
         <v>44743</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>44748</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>44749</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         <v>44749</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46182,7 +46182,7 @@
         <v>44749</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         <v>44749</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46363,7 +46363,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>44750</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>44750</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>44757</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>44757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44757</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>44764</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46777,7 +46777,7 @@
         <v>44764</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>44780</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         <v>44788</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46953,7 +46953,7 @@
         <v>44788</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>44788</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47067,7 +47067,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47124,7 +47124,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>44788</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44795</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47310,7 +47310,7 @@
         <v>44795</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47372,7 +47372,7 @@
         <v>44796</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47434,7 +47434,7 @@
         <v>44797</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44797</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47558,7 +47558,7 @@
         <v>44803</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47615,7 +47615,7 @@
         <v>44818</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44820</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47729,7 +47729,7 @@
         <v>44825</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44825</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>44830</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47910,7 +47910,7 @@
         <v>44833</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47967,7 +47967,7 @@
         <v>44841</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>44847</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48081,7 +48081,7 @@
         <v>44847</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48138,7 +48138,7 @@
         <v>44848</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48195,7 +48195,7 @@
         <v>44848</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48252,7 +48252,7 @@
         <v>44848</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48309,7 +48309,7 @@
         <v>44855</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48366,7 +48366,7 @@
         <v>44855</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48423,7 +48423,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48480,7 +48480,7 @@
         <v>44858</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48537,7 +48537,7 @@
         <v>44861</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48594,7 +48594,7 @@
         <v>44861</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48651,7 +48651,7 @@
         <v>44865</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48708,7 +48708,7 @@
         <v>44866</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48765,7 +48765,7 @@
         <v>44873</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48822,7 +48822,7 @@
         <v>44873</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48899,7 +48899,7 @@
         <v>44873</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48956,7 +48956,7 @@
         <v>44874</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49013,7 +49013,7 @@
         <v>44875</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         <v>44875</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49132,7 +49132,7 @@
         <v>44875</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49189,7 +49189,7 @@
         <v>44879</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49246,7 +49246,7 @@
         <v>44880</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49308,7 +49308,7 @@
         <v>44880</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         <v>44881</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49422,7 +49422,7 @@
         <v>44883</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49479,7 +49479,7 @@
         <v>44883</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49536,7 +49536,7 @@
         <v>44887</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49598,7 +49598,7 @@
         <v>44887</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49660,7 +49660,7 @@
         <v>44889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>44889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49774,7 +49774,7 @@
         <v>44889</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49831,7 +49831,7 @@
         <v>44890</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49893,7 +49893,7 @@
         <v>44893</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49950,7 +49950,7 @@
         <v>44895</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44900</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50064,7 +50064,7 @@
         <v>44900</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50121,7 +50121,7 @@
         <v>44901</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50178,7 +50178,7 @@
         <v>44904</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50235,7 +50235,7 @@
         <v>44908</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44911</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50354,7 +50354,7 @@
         <v>44922</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50416,7 +50416,7 @@
         <v>44922</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50473,7 +50473,7 @@
         <v>44931</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50530,7 +50530,7 @@
         <v>44931</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50587,7 +50587,7 @@
         <v>44935</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50644,7 +50644,7 @@
         <v>44939</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50701,7 +50701,7 @@
         <v>44946</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50758,7 +50758,7 @@
         <v>44946</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50815,7 +50815,7 @@
         <v>44946</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50872,7 +50872,7 @@
         <v>44961</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50929,7 +50929,7 @@
         <v>44963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50986,7 +50986,7 @@
         <v>44965</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51048,7 +51048,7 @@
         <v>44966</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51105,7 +51105,7 @@
         <v>44966</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51162,7 +51162,7 @@
         <v>44970</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51219,7 +51219,7 @@
         <v>44970</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51276,7 +51276,7 @@
         <v>44971</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51333,7 +51333,7 @@
         <v>44974</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51395,7 +51395,7 @@
         <v>44977</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51457,7 +51457,7 @@
         <v>44977</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51514,7 +51514,7 @@
         <v>44978</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         <v>44986</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51633,7 +51633,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>45000</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>45006</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>45019</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51871,7 +51871,7 @@
         <v>45020</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51928,7 +51928,7 @@
         <v>45022</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51985,7 +51985,7 @@
         <v>45022</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52042,7 +52042,7 @@
         <v>45029</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52104,7 +52104,7 @@
         <v>45034</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52161,7 +52161,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52218,7 +52218,7 @@
         <v>45036</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52275,7 +52275,7 @@
         <v>45036</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52332,7 +52332,7 @@
         <v>45036</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52446,7 +52446,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52503,7 +52503,7 @@
         <v>45036</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52560,7 +52560,7 @@
         <v>45040</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52617,7 +52617,7 @@
         <v>45040</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52674,7 +52674,7 @@
         <v>45040</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52731,7 +52731,7 @@
         <v>45041</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52788,7 +52788,7 @@
         <v>45042</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52845,7 +52845,7 @@
         <v>45048</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52907,7 +52907,7 @@
         <v>45048</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45049</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45049</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45050</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53145,7 +53145,7 @@
         <v>45055</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53202,7 +53202,7 @@
         <v>45055</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53259,7 +53259,7 @@
         <v>45056</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53316,7 +53316,7 @@
         <v>45056</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53373,7 +53373,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53430,7 +53430,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53487,7 +53487,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53549,7 +53549,7 @@
         <v>45062</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53611,7 +53611,7 @@
         <v>45062</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53673,7 +53673,7 @@
         <v>45065</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53735,7 +53735,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53792,7 +53792,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53849,7 +53849,7 @@
         <v>45082</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53911,7 +53911,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53968,7 +53968,7 @@
         <v>45086</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54025,7 +54025,7 @@
         <v>45090</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54082,7 +54082,7 @@
         <v>45090</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54139,7 +54139,7 @@
         <v>45090</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54196,7 +54196,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54253,7 +54253,7 @@
         <v>45096</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54310,7 +54310,7 @@
         <v>45097</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54367,7 +54367,7 @@
         <v>45097</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54424,7 +54424,7 @@
         <v>45097</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54486,7 +54486,7 @@
         <v>45098</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>45099</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54605,7 +54605,7 @@
         <v>45105</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54662,7 +54662,7 @@
         <v>45107</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54719,7 +54719,7 @@
         <v>45107</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54776,7 +54776,7 @@
         <v>45107</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54833,7 +54833,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54890,7 +54890,7 @@
         <v>45111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54947,7 +54947,7 @@
         <v>45111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55004,7 +55004,7 @@
         <v>45112</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55061,7 +55061,7 @@
         <v>45112</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55118,7 +55118,7 @@
         <v>45112</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55175,7 +55175,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55232,7 +55232,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55289,7 +55289,7 @@
         <v>45117</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45117</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55403,7 +55403,7 @@
         <v>45117</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55641,7 +55641,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55755,7 +55755,7 @@
         <v>45139</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55817,7 +55817,7 @@
         <v>45140</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55874,7 +55874,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55931,7 +55931,7 @@
         <v>45146</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55988,7 +55988,7 @@
         <v>45148</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56050,7 +56050,7 @@
         <v>45149</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         <v>45152</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56164,7 +56164,7 @@
         <v>45152</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56221,7 +56221,7 @@
         <v>45152</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56283,7 +56283,7 @@
         <v>45153</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56345,7 +56345,7 @@
         <v>45159</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56402,7 +56402,7 @@
         <v>45162</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56464,7 +56464,7 @@
         <v>45163</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56521,7 +56521,7 @@
         <v>45166</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56578,7 +56578,7 @@
         <v>45168</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56635,7 +56635,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56697,7 +56697,7 @@
         <v>45169</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56759,7 +56759,7 @@
         <v>45173</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56816,7 +56816,7 @@
         <v>45173</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56878,7 +56878,7 @@
         <v>45176</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56930,7 +56930,7 @@
       </c>
       <c r="R882" s="2" t="inlineStr"/>
     </row>
-    <row r="883">
+    <row r="883" ht="15" customHeight="1">
       <c r="A883" t="inlineStr">
         <is>
           <t>A 41784-2023</t>
@@ -56940,7 +56940,7 @@
         <v>45176</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56991,6 +56991,68 @@
         <v>0</v>
       </c>
       <c r="R883" s="2" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>A 42258-2023</t>
+        </is>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C884" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G884" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0</v>
+      </c>
+      <c r="I884" t="n">
+        <v>0</v>
+      </c>
+      <c r="J884" t="n">
+        <v>0</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>0</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y884"/>
+  <dimension ref="A1:Y887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43392</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>43731</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45121</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44165</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45041</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>43816</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>44013</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>45041</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43587</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44260</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45086</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>44552</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44038</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44133</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45049</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45149</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43817</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44013</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44155</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44308</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44355</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44477</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44534</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44834</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43474</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43920</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44150</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44183</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44194</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44510</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44557</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>45079</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43669</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43669</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43670</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43731</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43816</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43817</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44174</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44512</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>44553</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44722</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44722</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>44728</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44797</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44903</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44904</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44966</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43490</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43717</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43766</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44468</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44671</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44757</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44757</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44841</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44867</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44936</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>45049</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>43362</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43433</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43608</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43682</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43816</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44123</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44209</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44279</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44316</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44355</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44524</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44757</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44890</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>43327</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43353</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43412</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43636</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>43642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43783</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43858</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>43873</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43878</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43930</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43956</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44064</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44075</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44090</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44097</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44099</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44154</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>44207</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>44230</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44308</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44510</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44512</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44512</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44530</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44540</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44540</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44540</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44568</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44568</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44603</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44683</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44728</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>44742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>44747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44788</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>45079</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>43328</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>43334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43335</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>43340</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43342</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43342</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43346</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43350</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43350</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>43353</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>43357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>43357</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>43362</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>43362</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>43362</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>43364</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>43389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>43392</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>43412</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>43412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>43412</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>43413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>43413</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>43413</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43417</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43420</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43423</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43425</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>43430</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43432</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>43433</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>43437</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>43439</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43441</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43447</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>43453</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43455</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43455</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43455</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>43463</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>43468</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>43474</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>43474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43474</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>43476</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>43476</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>43477</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>43479</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>43482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>43488</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>43490</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>43497</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>43500</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>43509</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43514</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43521</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43522</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43522</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43523</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>43523</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>43528</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>43530</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>43530</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>43535</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>43539</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>43545</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>43545</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>43545</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>43549</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>43551</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>43556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>43558</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>43559</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>43559</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43559</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>43559</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>43560</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>43563</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>43563</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>43564</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>43565</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>43566</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>43571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>43572</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>43579</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43580</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>43581</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>43581</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>43584</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>43585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>43585</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>43585</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>43587</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>43587</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>43591</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>43594</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>43599</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>43602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>43602</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>43602</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>43605</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>43608</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>43612</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>43612</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>43613</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>43614</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>43616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>43619</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>43619</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>43619</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>43619</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>43623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>43623</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>43623</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43626</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>43628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>43628</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>43633</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>43633</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>43633</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>43634</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>43636</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>43636</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>43640</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>43640</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>43640</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>43641</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>43641</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>43642</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>43649</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>43649</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>43650</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>43651</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>43651</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>43654</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>43655</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>43657</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>43657</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>43661</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>43661</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>43678</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>43682</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>43684</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>43690</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>43691</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>43692</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>43692</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>43693</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>43696</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>43699</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>43703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43703</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>43704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>43704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>43704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>43704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>43707</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>43707</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>43710</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>43710</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>43712</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>43717</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>43722</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>43726</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>43727</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>43731</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>43731</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>43731</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>43731</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>43734</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>43734</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>43734</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>43734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26269,7 +26269,7 @@
         <v>43735</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>43735</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>43735</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>43741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>43745</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>43747</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>43747</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>43752</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>43752</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>43752</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43755</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43755</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43755</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>43759</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>43759</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>43762</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>43762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>43762</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27476,7 +27476,7 @@
         <v>43762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>43763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>43768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>43770</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>43770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>43773</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>43774</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>43776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27947,7 +27947,7 @@
         <v>43776</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>43781</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>43782</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>43783</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>43783</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>43783</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>43784</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>43787</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>43787</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>43787</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>43787</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>43789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>43789</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>43790</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>43791</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>43794</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>43794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>43801</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>43802</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>43802</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>43804</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>43804</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>43805</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>43809</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>43810</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>43811</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>43811</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>43811</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>43811</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>43816</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>43818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>43818</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>43826</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43826</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>43831</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>43837</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>43838</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>43858</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>43859</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>43860</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>43874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>43874</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>43879</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>43879</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>43879</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>43880</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>43885</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>43887</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>43889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>43893</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>43894</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>43900</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>43900</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>43900</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>43907</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>43907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>43913</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>43920</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>43927</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>43928</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>43936</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>43938</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>43941</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>43942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>43942</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43951</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43951</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43955</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43959</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>43983</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>43983</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>43991</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44007</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44013</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32307,7 +32307,7 @@
         <v>44015</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32364,7 +32364,7 @@
         <v>44032</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32421,7 +32421,7 @@
         <v>44033</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32478,7 +32478,7 @@
         <v>44038</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>44048</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44050</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44050</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44050</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44057</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>44061</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>44062</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44076</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44077</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44090</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>44095</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44095</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33229,7 +33229,7 @@
         <v>44102</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>44103</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>44113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44123</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44123</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44123</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44123</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44126</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44133</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44133</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44133</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44133</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44139</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44140</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44140</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>44141</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>44146</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>44148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44151</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44151</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34694,7 +34694,7 @@
         <v>44153</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34751,7 +34751,7 @@
         <v>44154</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34808,7 +34808,7 @@
         <v>44154</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34865,7 +34865,7 @@
         <v>44159</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34922,7 +34922,7 @@
         <v>44161</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>44162</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>44167</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>44169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>44169</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>44172</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>44172</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>44173</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>44175</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>44175</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35554,7 +35554,7 @@
         <v>44179</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35611,7 +35611,7 @@
         <v>44183</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>44183</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>44183</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35839,7 +35839,7 @@
         <v>44183</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35896,7 +35896,7 @@
         <v>44186</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
         <v>44186</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36010,7 +36010,7 @@
         <v>44188</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>44200</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>44203</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36181,7 +36181,7 @@
         <v>44206</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>44207</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44207</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44207</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44207</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44209</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44209</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44209</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44209</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44211</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44211</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44214</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44214</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44214</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44214</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44228</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44228</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44243</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44244</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44255</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44256</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44260</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44263</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44265</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44265</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44270</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44271</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>44273</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44278</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         <v>44279</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38020,7 +38020,7 @@
         <v>44279</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44279</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38134,7 +38134,7 @@
         <v>44279</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38191,7 +38191,7 @@
         <v>44284</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44285</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44285</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44285</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44285</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44286</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44287</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44292</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44299</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44300</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44306</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44312</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44313</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44316</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44323</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44326</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44331</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44333</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44334</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44335</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         <v>44337</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39445,7 +39445,7 @@
         <v>44348</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44348</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44349</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>44358</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>44362</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>44363</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44370</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>44370</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>44371</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44377</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>44377</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44377</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>44379</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
         <v>44381</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44389</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
         <v>44389</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44390</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>44391</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44391</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44419</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>44427</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>44445</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44447</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44449</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44452</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44456</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44459</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>44459</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>44460</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>44468</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>44470</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41309,7 +41309,7 @@
         <v>44470</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41366,7 +41366,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41423,7 +41423,7 @@
         <v>44473</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41480,7 +41480,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41542,7 +41542,7 @@
         <v>44491</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41599,7 +41599,7 @@
         <v>44494</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41656,7 +41656,7 @@
         <v>44495</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41713,7 +41713,7 @@
         <v>44495</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>44498</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41827,7 +41827,7 @@
         <v>44498</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
         <v>44498</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44502</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>44504</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>44510</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>44512</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>44516</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44524</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>44524</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>44524</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>44524</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>44525</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>44525</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>44525</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42640,7 +42640,7 @@
         <v>44526</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42697,7 +42697,7 @@
         <v>44532</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42759,7 +42759,7 @@
         <v>44533</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44535</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44539</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>44539</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44540</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>44540</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         <v>44543</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43158,7 +43158,7 @@
         <v>44544</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43215,7 +43215,7 @@
         <v>44544</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43272,7 +43272,7 @@
         <v>44546</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         <v>44550</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43391,7 +43391,7 @@
         <v>44557</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43448,7 +43448,7 @@
         <v>44568</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43505,7 +43505,7 @@
         <v>44573</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>44575</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>44575</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43681,7 +43681,7 @@
         <v>44582</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43738,7 +43738,7 @@
         <v>44591</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         <v>44592</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43852,7 +43852,7 @@
         <v>44596</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>44609</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>44610</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>44610</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>44631</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>44638</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>44652</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>44658</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>44664</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>44665</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>44672</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
         <v>44679</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>44683</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>44686</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>44686</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>44694</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>44699</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>44700</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44898,7 +44898,7 @@
         <v>44705</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44705</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45017,7 +45017,7 @@
         <v>44705</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45074,7 +45074,7 @@
         <v>44711</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45136,7 +45136,7 @@
         <v>44714</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44720</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>44721</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>44725</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>44726</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44726</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>44727</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45545,7 +45545,7 @@
         <v>44727</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>44727</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>44732</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45716,7 +45716,7 @@
         <v>44732</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45773,7 +45773,7 @@
         <v>44741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45830,7 +45830,7 @@
         <v>44741</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45887,7 +45887,7 @@
         <v>44743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45944,7 +45944,7 @@
         <v>44743</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>44748</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>44749</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         <v>44749</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46182,7 +46182,7 @@
         <v>44749</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         <v>44749</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46363,7 +46363,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>44750</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>44750</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>44757</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>44757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44757</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>44764</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46777,7 +46777,7 @@
         <v>44764</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>44780</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         <v>44788</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46953,7 +46953,7 @@
         <v>44788</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>44788</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47067,7 +47067,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47124,7 +47124,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>44788</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44795</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47310,7 +47310,7 @@
         <v>44795</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47372,7 +47372,7 @@
         <v>44796</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47434,7 +47434,7 @@
         <v>44797</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44797</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47558,7 +47558,7 @@
         <v>44803</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47615,7 +47615,7 @@
         <v>44818</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>44820</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47729,7 +47729,7 @@
         <v>44825</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44825</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>44830</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47910,7 +47910,7 @@
         <v>44833</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47967,7 +47967,7 @@
         <v>44841</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>44847</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48081,7 +48081,7 @@
         <v>44847</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48138,7 +48138,7 @@
         <v>44848</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48195,7 +48195,7 @@
         <v>44848</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48252,7 +48252,7 @@
         <v>44848</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48309,7 +48309,7 @@
         <v>44855</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48366,7 +48366,7 @@
         <v>44855</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48423,7 +48423,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48480,7 +48480,7 @@
         <v>44858</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48537,7 +48537,7 @@
         <v>44861</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48594,7 +48594,7 @@
         <v>44861</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48651,7 +48651,7 @@
         <v>44865</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48708,7 +48708,7 @@
         <v>44866</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48765,7 +48765,7 @@
         <v>44873</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48822,7 +48822,7 @@
         <v>44873</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48899,7 +48899,7 @@
         <v>44873</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48956,7 +48956,7 @@
         <v>44874</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49013,7 +49013,7 @@
         <v>44875</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         <v>44875</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49132,7 +49132,7 @@
         <v>44875</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49189,7 +49189,7 @@
         <v>44879</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49246,7 +49246,7 @@
         <v>44880</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49308,7 +49308,7 @@
         <v>44880</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         <v>44881</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49422,7 +49422,7 @@
         <v>44883</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49479,7 +49479,7 @@
         <v>44883</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49536,7 +49536,7 @@
         <v>44887</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49598,7 +49598,7 @@
         <v>44887</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49660,7 +49660,7 @@
         <v>44889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>44889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49774,7 +49774,7 @@
         <v>44889</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49831,7 +49831,7 @@
         <v>44890</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49893,7 +49893,7 @@
         <v>44893</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49950,7 +49950,7 @@
         <v>44895</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44900</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50064,7 +50064,7 @@
         <v>44900</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50121,7 +50121,7 @@
         <v>44901</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50178,7 +50178,7 @@
         <v>44904</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50235,7 +50235,7 @@
         <v>44908</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44911</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50354,7 +50354,7 @@
         <v>44922</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50416,7 +50416,7 @@
         <v>44922</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50473,7 +50473,7 @@
         <v>44931</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50530,7 +50530,7 @@
         <v>44931</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50587,7 +50587,7 @@
         <v>44935</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50644,7 +50644,7 @@
         <v>44939</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50701,7 +50701,7 @@
         <v>44946</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50758,7 +50758,7 @@
         <v>44946</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50815,7 +50815,7 @@
         <v>44946</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50872,7 +50872,7 @@
         <v>44961</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50929,7 +50929,7 @@
         <v>44963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50986,7 +50986,7 @@
         <v>44965</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51048,7 +51048,7 @@
         <v>44966</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51105,7 +51105,7 @@
         <v>44966</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51162,7 +51162,7 @@
         <v>44970</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51219,7 +51219,7 @@
         <v>44970</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51276,7 +51276,7 @@
         <v>44971</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51333,7 +51333,7 @@
         <v>44974</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51395,7 +51395,7 @@
         <v>44977</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51457,7 +51457,7 @@
         <v>44977</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51514,7 +51514,7 @@
         <v>44978</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         <v>44986</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51633,7 +51633,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>45000</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>45006</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>45019</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51871,7 +51871,7 @@
         <v>45020</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51928,7 +51928,7 @@
         <v>45022</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51985,7 +51985,7 @@
         <v>45022</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52042,7 +52042,7 @@
         <v>45029</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52104,7 +52104,7 @@
         <v>45034</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52161,7 +52161,7 @@
         <v>45035</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52218,7 +52218,7 @@
         <v>45036</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52275,7 +52275,7 @@
         <v>45036</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52332,7 +52332,7 @@
         <v>45036</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52446,7 +52446,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52503,7 +52503,7 @@
         <v>45036</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52560,7 +52560,7 @@
         <v>45040</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52617,7 +52617,7 @@
         <v>45040</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52674,7 +52674,7 @@
         <v>45040</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52731,7 +52731,7 @@
         <v>45041</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52788,7 +52788,7 @@
         <v>45042</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52845,7 +52845,7 @@
         <v>45048</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52907,7 +52907,7 @@
         <v>45048</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45049</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45049</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45050</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53145,7 +53145,7 @@
         <v>45055</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53202,7 +53202,7 @@
         <v>45055</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53259,7 +53259,7 @@
         <v>45056</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53316,7 +53316,7 @@
         <v>45056</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53373,7 +53373,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53430,7 +53430,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53487,7 +53487,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53549,7 +53549,7 @@
         <v>45062</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53611,7 +53611,7 @@
         <v>45062</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53673,7 +53673,7 @@
         <v>45065</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53735,7 +53735,7 @@
         <v>45070</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53792,7 +53792,7 @@
         <v>45071</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53849,7 +53849,7 @@
         <v>45082</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53911,7 +53911,7 @@
         <v>45084</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53968,7 +53968,7 @@
         <v>45086</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54025,7 +54025,7 @@
         <v>45090</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54082,7 +54082,7 @@
         <v>45090</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54139,7 +54139,7 @@
         <v>45090</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54196,7 +54196,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54253,7 +54253,7 @@
         <v>45096</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54310,7 +54310,7 @@
         <v>45097</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54367,7 +54367,7 @@
         <v>45097</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54424,7 +54424,7 @@
         <v>45097</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54486,7 +54486,7 @@
         <v>45098</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>45099</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54605,7 +54605,7 @@
         <v>45105</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54662,7 +54662,7 @@
         <v>45107</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54719,7 +54719,7 @@
         <v>45107</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54776,7 +54776,7 @@
         <v>45107</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54833,7 +54833,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54890,7 +54890,7 @@
         <v>45111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54947,7 +54947,7 @@
         <v>45111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55004,7 +55004,7 @@
         <v>45112</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55061,7 +55061,7 @@
         <v>45112</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55118,7 +55118,7 @@
         <v>45112</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55175,7 +55175,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55232,7 +55232,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55289,7 +55289,7 @@
         <v>45117</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45117</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55403,7 +55403,7 @@
         <v>45117</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55641,7 +55641,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55755,7 +55755,7 @@
         <v>45139</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55817,7 +55817,7 @@
         <v>45140</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55874,7 +55874,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55931,7 +55931,7 @@
         <v>45146</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55988,7 +55988,7 @@
         <v>45148</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56050,7 +56050,7 @@
         <v>45149</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         <v>45152</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56164,7 +56164,7 @@
         <v>45152</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56221,7 +56221,7 @@
         <v>45152</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56283,7 +56283,7 @@
         <v>45153</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56345,7 +56345,7 @@
         <v>45159</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56402,7 +56402,7 @@
         <v>45162</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56464,7 +56464,7 @@
         <v>45163</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56521,7 +56521,7 @@
         <v>45166</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56578,7 +56578,7 @@
         <v>45168</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56635,7 +56635,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56697,7 +56697,7 @@
         <v>45169</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56759,7 +56759,7 @@
         <v>45173</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56816,7 +56816,7 @@
         <v>45173</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56878,7 +56878,7 @@
         <v>45176</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56940,7 +56940,7 @@
         <v>45176</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56992,17 +56992,17 @@
       </c>
       <c r="R883" s="2" t="inlineStr"/>
     </row>
-    <row r="884">
+    <row r="884" ht="15" customHeight="1">
       <c r="A884" t="inlineStr">
         <is>
-          <t>A 42258-2023</t>
+          <t>A 42369-2023</t>
         </is>
       </c>
       <c r="B884" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57053,6 +57053,192 @@
         <v>0</v>
       </c>
       <c r="R884" s="2" t="inlineStr"/>
+    </row>
+    <row r="885" ht="15" customHeight="1">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>A 42385-2023</t>
+        </is>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C885" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G885" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H885" t="n">
+        <v>0</v>
+      </c>
+      <c r="I885" t="n">
+        <v>0</v>
+      </c>
+      <c r="J885" t="n">
+        <v>0</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>0</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
+      <c r="R885" s="2" t="inlineStr"/>
+    </row>
+    <row r="886" ht="15" customHeight="1">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>A 42258-2023</t>
+        </is>
+      </c>
+      <c r="B886" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C886" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G886" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H886" t="n">
+        <v>0</v>
+      </c>
+      <c r="I886" t="n">
+        <v>0</v>
+      </c>
+      <c r="J886" t="n">
+        <v>0</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>0</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>0</v>
+      </c>
+      <c r="R886" s="2" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>A 42372-2023</t>
+        </is>
+      </c>
+      <c r="B887" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C887" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>KROKOM</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G887" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0</v>
+      </c>
+      <c r="I887" t="n">
+        <v>0</v>
+      </c>
+      <c r="J887" t="n">
+        <v>0</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>0</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -572,7 +572,7 @@
         <v>44522</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43392</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43731</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45041</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43816</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44013</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45041</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43587</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44260</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45086</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44552</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44038</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44133</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>45049</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>45149</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43817</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>44013</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>44155</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44308</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44355</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44477</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44534</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44834</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43474</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43920</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44150</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44183</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44194</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44510</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44557</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>45079</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>45180</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43669</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43669</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43670</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43731</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43816</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44174</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44512</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44540</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44722</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44722</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44728</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44797</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44879</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44903</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44904</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43402</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43490</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43766</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>44468</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44671</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44757</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44757</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44841</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44867</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>44873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45049</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45169</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43362</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43433</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43503</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43811</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43816</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44123</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44161</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44209</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44316</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44355</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44524</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44757</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44890</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43412</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43508</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>43642</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43734</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43873</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>43930</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43956</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>44064</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44075</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>44090</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44097</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44099</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44154</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>44207</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44230</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44308</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44510</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44512</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44512</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44524</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>44530</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44540</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44540</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44568</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44568</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44603</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44683</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44728</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44747</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44797</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>45079</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45169</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43328</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>43335</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43335</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43340</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>43342</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43346</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43350</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43350</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43353</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>43357</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>43357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>43362</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>43362</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>43362</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>43364</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>43389</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>43392</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>43412</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>43413</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43413</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43413</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43417</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>43420</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>43423</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>43423</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43425</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>43427</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43430</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43431</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43432</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43433</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>43437</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43441</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>43441</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>43447</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>43453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>43453</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>43455</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>43455</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>43455</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>43463</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43468</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>43474</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>43474</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>43474</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>43476</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>43476</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>43477</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>43479</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>43482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>43482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43490</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>43497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43503</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>43503</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>43509</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43509</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43514</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43522</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43523</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43523</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>43528</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>43530</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>43530</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>43535</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>43539</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>43545</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>43545</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>43545</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>43549</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>43551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43558</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43559</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43559</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43559</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>43559</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>43560</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>43563</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>43563</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>43564</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>43565</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>43566</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43571</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>43572</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>43579</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>43580</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>43581</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>43581</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>43584</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>43585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>43587</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>43587</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>43591</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>43594</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>43599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>43602</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>43602</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>43602</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>43608</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>43612</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>43612</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>43613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>43614</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>43616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>43619</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>43619</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>43619</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>43619</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>43623</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>43623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>43623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>43626</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>43628</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>43628</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>43633</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>43633</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>43633</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>43634</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>43640</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>43640</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>43641</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>43641</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>43642</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>43642</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>43649</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>43649</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>43650</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>43651</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>43651</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>43651</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>43651</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>43654</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>43655</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>43656</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>43657</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>43657</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>43661</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>43661</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>43661</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>43678</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>43682</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>43684</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>43690</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>43691</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>43692</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>43692</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43693</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>43696</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>43703</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>43704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>43704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>43704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>43704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>43707</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>43707</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>43710</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>43710</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>43717</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>43722</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>43726</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>43727</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>43731</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>43731</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>43731</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>43731</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>43734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>43734</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>43734</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>43734</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>43735</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>43735</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>43735</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>43741</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>43745</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43747</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43747</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43752</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>43752</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>43752</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>43755</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>43755</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>43755</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>43759</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>43759</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>43762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>43762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>43762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>43762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>43763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>43768</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27947,7 +27947,7 @@
         <v>43770</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28004,7 +28004,7 @@
         <v>43770</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28061,7 +28061,7 @@
         <v>43773</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         <v>43774</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>43776</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>43776</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>43781</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>43782</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>43783</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>43783</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>43783</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>43784</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>43787</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>43787</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>43787</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>43787</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>43789</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>43789</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>43790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>43791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>43794</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>43794</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>43801</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>43802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>43802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>43804</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>43804</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>43805</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>43809</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>43810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>43811</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>43811</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>43811</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43811</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>43816</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>43818</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>43818</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>43826</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>43826</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>43831</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>43837</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>43838</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>43858</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>43859</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>43860</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>43874</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>43874</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>43879</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>43879</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>43879</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30934,7 +30934,7 @@
         <v>43880</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30991,7 +30991,7 @@
         <v>43885</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31048,7 +31048,7 @@
         <v>43887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>43889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>43893</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>43894</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>43900</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>43900</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>43900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43907</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43907</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43913</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43920</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43927</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43928</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43936</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43938</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43941</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43942</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>43942</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>43951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>43951</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>43955</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>43959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>43983</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>43983</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>43991</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32488,7 +32488,7 @@
         <v>44007</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32545,7 +32545,7 @@
         <v>44013</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44015</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44032</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44038</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44048</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44050</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44050</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44050</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44057</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>44061</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44062</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44076</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44077</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44090</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33410,7 +33410,7 @@
         <v>44095</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44095</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44102</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33581,7 +33581,7 @@
         <v>44103</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>44106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>44113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33881,7 +33881,7 @@
         <v>44113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>44123</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         <v>44123</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44123</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>44123</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44126</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44133</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44133</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44133</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44133</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44139</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>44140</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>44140</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>44141</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>44141</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44146</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44151</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44151</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44153</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44154</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44154</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44159</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44161</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44162</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44162</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44167</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44169</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44169</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44172</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44172</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44173</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>44175</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>44175</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>44179</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>44183</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>44183</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         <v>44183</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>44183</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
         <v>44186</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36248,7 +36248,7 @@
         <v>44186</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>44188</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44200</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44203</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44206</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44207</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         <v>44207</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>44207</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>44207</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36771,7 +36771,7 @@
         <v>44209</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
         <v>44209</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36885,7 +36885,7 @@
         <v>44209</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36942,7 +36942,7 @@
         <v>44209</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36999,7 +36999,7 @@
         <v>44211</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37056,7 +37056,7 @@
         <v>44211</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>44214</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44214</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>44214</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>44214</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>44228</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>44228</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44243</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>44244</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>44255</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>44256</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>44260</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>44263</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>44265</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>44265</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38025,7 +38025,7 @@
         <v>44270</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38087,7 +38087,7 @@
         <v>44271</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38144,7 +38144,7 @@
         <v>44273</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44278</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38258,7 +38258,7 @@
         <v>44279</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>44279</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44279</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>44279</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44284</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38543,7 +38543,7 @@
         <v>44285</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38600,7 +38600,7 @@
         <v>44285</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>44285</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38714,7 +38714,7 @@
         <v>44285</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38771,7 +38771,7 @@
         <v>44286</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38828,7 +38828,7 @@
         <v>44287</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38885,7 +38885,7 @@
         <v>44292</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38942,7 +38942,7 @@
         <v>44299</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38999,7 +38999,7 @@
         <v>44300</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39056,7 +39056,7 @@
         <v>44306</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44312</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44313</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44316</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44323</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44326</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44331</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44334</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44335</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44337</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44337</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44348</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44348</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39864,7 +39864,7 @@
         <v>44349</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39926,7 +39926,7 @@
         <v>44358</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39983,7 +39983,7 @@
         <v>44362</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44363</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44370</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44370</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44377</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40330,7 +40330,7 @@
         <v>44377</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44377</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44379</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44381</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40568,7 +40568,7 @@
         <v>44389</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44389</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44390</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44391</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44391</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44407</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44419</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44427</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44447</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44449</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44452</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44456</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44459</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44459</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44460</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44468</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44470</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44470</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44473</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44473</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44480</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41837,7 +41837,7 @@
         <v>44491</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
         <v>44494</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41951,7 +41951,7 @@
         <v>44495</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42008,7 +42008,7 @@
         <v>44495</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42065,7 +42065,7 @@
         <v>44498</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44498</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44498</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>44502</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>44504</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>44510</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>44512</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42469,7 +42469,7 @@
         <v>44516</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42526,7 +42526,7 @@
         <v>44524</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42583,7 +42583,7 @@
         <v>44524</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42640,7 +42640,7 @@
         <v>44524</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42697,7 +42697,7 @@
         <v>44524</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44525</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44525</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44525</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44526</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42992,7 +42992,7 @@
         <v>44532</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43054,7 +43054,7 @@
         <v>44533</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43111,7 +43111,7 @@
         <v>44535</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44539</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44539</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43282,7 +43282,7 @@
         <v>44540</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43339,7 +43339,7 @@
         <v>44540</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43396,7 +43396,7 @@
         <v>44543</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43453,7 +43453,7 @@
         <v>44544</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43510,7 +43510,7 @@
         <v>44544</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>44546</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43629,7 +43629,7 @@
         <v>44550</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44557</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44568</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44573</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44575</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44575</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44582</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44591</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44592</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44596</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44609</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44610</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44610</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44380,7 +44380,7 @@
         <v>44631</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>44638</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>44652</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>44658</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>44664</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>44665</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44722,7 +44722,7 @@
         <v>44672</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>44679</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44841,7 +44841,7 @@
         <v>44683</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44898,7 +44898,7 @@
         <v>44686</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>44686</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>44694</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45074,7 +45074,7 @@
         <v>44699</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>44700</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44705</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>44705</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>44705</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>44711</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44714</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>44720</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>44721</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>44725</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>44726</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>44726</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>44727</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>44727</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>44727</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>44732</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46011,7 +46011,7 @@
         <v>44732</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46068,7 +46068,7 @@
         <v>44741</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         <v>44741</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46182,7 +46182,7 @@
         <v>44743</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46239,7 +46239,7 @@
         <v>44743</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44748</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>44749</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>44749</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>44749</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>44749</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44750</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>44750</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>44750</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>44757</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         <v>44757</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46953,7 +46953,7 @@
         <v>44757</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47015,7 +47015,7 @@
         <v>44764</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47072,7 +47072,7 @@
         <v>44764</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47129,7 +47129,7 @@
         <v>44780</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>44788</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>44788</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>44788</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47481,7 +47481,7 @@
         <v>44788</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47543,7 +47543,7 @@
         <v>44795</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47605,7 +47605,7 @@
         <v>44795</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47667,7 +47667,7 @@
         <v>44796</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47729,7 +47729,7 @@
         <v>44797</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44797</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44803</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47910,7 +47910,7 @@
         <v>44818</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47967,7 +47967,7 @@
         <v>44820</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>44825</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44825</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48205,7 +48205,7 @@
         <v>44833</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48262,7 +48262,7 @@
         <v>44841</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48319,7 +48319,7 @@
         <v>44847</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48376,7 +48376,7 @@
         <v>44847</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48433,7 +48433,7 @@
         <v>44848</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48490,7 +48490,7 @@
         <v>44848</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         <v>44848</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48604,7 +48604,7 @@
         <v>44855</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48661,7 +48661,7 @@
         <v>44855</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48718,7 +48718,7 @@
         <v>44858</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48775,7 +48775,7 @@
         <v>44858</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48832,7 +48832,7 @@
         <v>44861</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44861</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44865</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49003,7 +49003,7 @@
         <v>44866</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49060,7 +49060,7 @@
         <v>44873</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>44873</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49194,7 +49194,7 @@
         <v>44873</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49251,7 +49251,7 @@
         <v>44874</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49308,7 +49308,7 @@
         <v>44875</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         <v>44875</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49427,7 +49427,7 @@
         <v>44875</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49484,7 +49484,7 @@
         <v>44879</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49541,7 +49541,7 @@
         <v>44880</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49603,7 +49603,7 @@
         <v>44880</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49660,7 +49660,7 @@
         <v>44881</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>44883</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49774,7 +49774,7 @@
         <v>44883</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49831,7 +49831,7 @@
         <v>44887</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49893,7 +49893,7 @@
         <v>44887</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49955,7 +49955,7 @@
         <v>44889</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50012,7 +50012,7 @@
         <v>44889</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44889</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44890</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50188,7 +50188,7 @@
         <v>44893</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50245,7 +50245,7 @@
         <v>44895</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50302,7 +50302,7 @@
         <v>44900</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44900</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50416,7 +50416,7 @@
         <v>44901</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50473,7 +50473,7 @@
         <v>44904</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50530,7 +50530,7 @@
         <v>44908</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50592,7 +50592,7 @@
         <v>44911</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50649,7 +50649,7 @@
         <v>44922</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50711,7 +50711,7 @@
         <v>44922</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50768,7 +50768,7 @@
         <v>44931</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50825,7 +50825,7 @@
         <v>44931</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50882,7 +50882,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50939,7 +50939,7 @@
         <v>44939</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50996,7 +50996,7 @@
         <v>44946</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51053,7 +51053,7 @@
         <v>44946</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51110,7 +51110,7 @@
         <v>44946</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51167,7 +51167,7 @@
         <v>44961</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51224,7 +51224,7 @@
         <v>44963</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51281,7 +51281,7 @@
         <v>44965</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51343,7 +51343,7 @@
         <v>44966</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51400,7 +51400,7 @@
         <v>44966</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51457,7 +51457,7 @@
         <v>44970</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51514,7 +51514,7 @@
         <v>44970</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         <v>44971</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51628,7 +51628,7 @@
         <v>44974</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51690,7 +51690,7 @@
         <v>44977</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>44977</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51809,7 +51809,7 @@
         <v>44978</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51866,7 +51866,7 @@
         <v>44986</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51928,7 +51928,7 @@
         <v>45000</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51990,7 +51990,7 @@
         <v>45000</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52047,7 +52047,7 @@
         <v>45006</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52109,7 +52109,7 @@
         <v>45019</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52166,7 +52166,7 @@
         <v>45020</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52223,7 +52223,7 @@
         <v>45022</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52280,7 +52280,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52337,7 +52337,7 @@
         <v>45029</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52399,7 +52399,7 @@
         <v>45034</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52456,7 +52456,7 @@
         <v>45035</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52513,7 +52513,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>45036</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>45036</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52741,7 +52741,7 @@
         <v>45036</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52798,7 +52798,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52855,7 +52855,7 @@
         <v>45040</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45041</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45042</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53140,7 +53140,7 @@
         <v>45048</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53202,7 +53202,7 @@
         <v>45048</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53264,7 +53264,7 @@
         <v>45049</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53321,7 +53321,7 @@
         <v>45049</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53378,7 +53378,7 @@
         <v>45050</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53440,7 +53440,7 @@
         <v>45055</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53497,7 +53497,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53554,7 +53554,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53611,7 +53611,7 @@
         <v>45056</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53668,7 +53668,7 @@
         <v>45056</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53725,7 +53725,7 @@
         <v>45056</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53782,7 +53782,7 @@
         <v>45057</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53844,7 +53844,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53968,7 +53968,7 @@
         <v>45065</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54030,7 +54030,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54087,7 +54087,7 @@
         <v>45071</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54144,7 +54144,7 @@
         <v>45082</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54206,7 +54206,7 @@
         <v>45084</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54263,7 +54263,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54320,7 +54320,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54377,7 +54377,7 @@
         <v>45090</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54434,7 +54434,7 @@
         <v>45090</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54491,7 +54491,7 @@
         <v>45090</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54605,7 +54605,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54662,7 +54662,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54719,7 +54719,7 @@
         <v>45097</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54781,7 +54781,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54843,7 +54843,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54900,7 +54900,7 @@
         <v>45105</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54957,7 +54957,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55014,7 +55014,7 @@
         <v>45107</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55071,7 +55071,7 @@
         <v>45107</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55128,7 +55128,7 @@
         <v>45107</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55185,7 +55185,7 @@
         <v>45111</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55242,7 +55242,7 @@
         <v>45111</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55299,7 +55299,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55356,7 +55356,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         <v>45112</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55470,7 +55470,7 @@
         <v>45112</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55527,7 +55527,7 @@
         <v>45112</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55584,7 +55584,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55641,7 +55641,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45117</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55755,7 +55755,7 @@
         <v>45117</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55812,7 +55812,7 @@
         <v>45117</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55874,7 +55874,7 @@
         <v>45118</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55936,7 +55936,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55993,7 +55993,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56050,7 +56050,7 @@
         <v>45139</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56112,7 +56112,7 @@
         <v>45140</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56169,7 +56169,7 @@
         <v>45140</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         <v>45146</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56283,7 +56283,7 @@
         <v>45148</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56345,7 +56345,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56402,7 +56402,7 @@
         <v>45152</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56459,7 +56459,7 @@
         <v>45152</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56516,7 +56516,7 @@
         <v>45152</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56578,7 +56578,7 @@
         <v>45153</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56640,7 +56640,7 @@
         <v>45159</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56697,7 +56697,7 @@
         <v>45162</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56759,7 +56759,7 @@
         <v>45163</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56816,7 +56816,7 @@
         <v>45166</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56873,7 +56873,7 @@
         <v>45168</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56930,7 +56930,7 @@
         <v>45173</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56987,7 +56987,7 @@
         <v>45173</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57049,7 +57049,7 @@
         <v>45176</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57111,7 +57111,7 @@
         <v>45176</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57173,7 +57173,7 @@
         <v>45180</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57235,7 +57235,7 @@
         <v>45180</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57297,7 +57297,7 @@
         <v>45180</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -572,7 +572,7 @@
         <v>44522</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43392</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44165</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43731</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45041</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43816</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44013</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45041</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43587</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44260</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45086</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44552</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44038</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44133</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44500</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44585</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>45049</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>45149</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43817</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>44013</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>44155</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44308</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44355</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44477</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44534</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44834</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43474</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43920</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44150</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44183</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44194</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44510</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44557</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>45079</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>45180</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43669</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>43669</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43670</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43731</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43816</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44174</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44512</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44540</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44722</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44722</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44728</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44797</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44879</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44903</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44904</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43402</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43490</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43717</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43766</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>44468</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44671</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44757</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44757</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44841</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44867</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>44873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45049</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45169</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43362</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43433</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43503</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43811</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43816</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44123</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44161</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44209</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44316</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44355</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44378</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44524</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44757</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44890</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43412</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43508</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>43642</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43734</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43873</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>43930</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43956</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>44064</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44075</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>44090</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44097</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44099</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44154</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>44207</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44230</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44308</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44510</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44512</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44512</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44524</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>44530</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44540</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44540</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44568</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44568</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44603</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44683</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44728</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44747</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44788</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44797</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>45079</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45169</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43328</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>43335</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43335</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43340</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>43342</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43346</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43350</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43350</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43353</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>43357</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>43357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>43362</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>43362</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>43362</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>43364</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>43389</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>43392</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>43412</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>43413</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43413</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43413</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43417</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>43420</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>43423</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>43423</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43425</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>43427</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43430</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43431</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43432</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43433</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>43437</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>43439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>43441</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>43441</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>43447</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>43453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>43453</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>43455</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>43455</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>43455</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>43463</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43468</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>43474</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>43474</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>43474</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>43476</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>43476</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>43477</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>43479</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>43482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>43482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43490</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>43497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>43500</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43503</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>43503</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>43509</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43509</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43514</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43521</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43522</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43522</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43522</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43523</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43523</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>43528</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>43530</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>43530</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>43535</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>43539</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>43545</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>43545</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>43545</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>43549</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>43551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>43558</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43559</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43559</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43559</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>43559</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>43560</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>43563</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>43563</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>43564</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>43565</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>43566</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>43571</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>43572</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>43579</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>43580</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>43581</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>43581</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>43584</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>43585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>43587</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>43587</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>43591</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>43594</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>43599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>43602</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>43602</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>43602</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>43608</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>43612</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>43612</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>43613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>43614</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>43616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>43619</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>43619</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>43619</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>43619</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>43623</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>43623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>43623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>43626</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>43628</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>43628</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>43633</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>43633</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>43633</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>43634</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>43640</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>43640</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>43641</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>43641</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>43642</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>43642</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>43649</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>43649</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>43650</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>43651</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>43651</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>43651</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>43651</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>43651</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>43654</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>43655</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>43656</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>43657</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>43657</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>43661</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>43661</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>43661</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>43678</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>43682</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>43684</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>43690</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>43691</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>43692</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>43692</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43693</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>43696</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         <v>43699</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>43703</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>43703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>43704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>43704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>43704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>43704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>43704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>43704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>43707</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>43707</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>43710</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>43710</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>43712</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>43717</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>43722</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>43726</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>43727</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>43731</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>43731</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>43731</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>43731</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>43731</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>43734</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>43734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>43734</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>43734</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>43734</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>43735</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>43735</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>43735</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>43741</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>43745</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43747</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>43747</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>43752</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>43752</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>43752</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>43755</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>43755</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>43755</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>43759</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>43759</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>43762</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>43762</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>43762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>43762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>43762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>43762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>43762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>43763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>43768</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27947,7 +27947,7 @@
         <v>43770</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28004,7 +28004,7 @@
         <v>43770</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28061,7 +28061,7 @@
         <v>43773</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         <v>43774</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>43776</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>43776</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>43781</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>43782</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>43783</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>43783</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>43783</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>43784</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>43787</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>43787</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>43787</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>43787</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>43789</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>43789</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>43790</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>43791</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>43794</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>43794</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>43801</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>43802</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>43802</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>43804</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>43804</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>43805</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>43809</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>43810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>43811</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>43811</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>43811</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>43811</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>43811</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>43816</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>43818</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>43818</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>43826</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>43826</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>43831</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>43837</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>43838</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>43858</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>43859</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>43860</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>43874</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>43874</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>43879</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>43879</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>43879</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30934,7 +30934,7 @@
         <v>43880</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30991,7 +30991,7 @@
         <v>43885</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31048,7 +31048,7 @@
         <v>43887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>43889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>43893</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>43894</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>43900</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>43900</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>43900</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>43907</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>43907</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>43913</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>43920</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>43927</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>43928</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>43936</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>43938</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>43941</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>43942</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>43942</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>43951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>43951</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>43955</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>43959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>43983</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>43983</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>43991</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32488,7 +32488,7 @@
         <v>44007</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32545,7 +32545,7 @@
         <v>44013</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44015</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44032</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44038</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44048</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44050</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>44050</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33001,7 +33001,7 @@
         <v>44050</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33058,7 +33058,7 @@
         <v>44057</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>44061</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44062</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44076</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>44077</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44090</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33410,7 +33410,7 @@
         <v>44095</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44095</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44102</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33581,7 +33581,7 @@
         <v>44103</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>44106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>44113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>44113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>44113</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33881,7 +33881,7 @@
         <v>44113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>44123</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         <v>44123</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44123</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>44123</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44126</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44133</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44133</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44133</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44133</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44139</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>44140</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>44140</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>44141</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>44141</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44146</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44151</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44151</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44153</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44154</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44154</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44159</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44161</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44162</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44162</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44167</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44169</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44169</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44172</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44172</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44173</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>44175</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>44175</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>44179</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>44183</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>44183</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>44183</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         <v>44183</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>44183</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
         <v>44186</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36248,7 +36248,7 @@
         <v>44186</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>44188</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44200</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44203</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44206</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44207</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         <v>44207</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>44207</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>44207</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36771,7 +36771,7 @@
         <v>44209</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
         <v>44209</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36885,7 +36885,7 @@
         <v>44209</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36942,7 +36942,7 @@
         <v>44209</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36999,7 +36999,7 @@
         <v>44211</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37056,7 +37056,7 @@
         <v>44211</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>44214</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>44214</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>44214</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44214</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>44214</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>44214</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>44228</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>44228</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44243</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>44244</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>44255</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>44256</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>44260</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>44263</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>44265</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>44265</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38025,7 +38025,7 @@
         <v>44270</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38087,7 +38087,7 @@
         <v>44271</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38144,7 +38144,7 @@
         <v>44273</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44278</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38258,7 +38258,7 @@
         <v>44279</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>44279</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38372,7 +38372,7 @@
         <v>44279</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38429,7 +38429,7 @@
         <v>44279</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44284</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38543,7 +38543,7 @@
         <v>44285</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38600,7 +38600,7 @@
         <v>44285</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>44285</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38714,7 +38714,7 @@
         <v>44285</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38771,7 +38771,7 @@
         <v>44286</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38828,7 +38828,7 @@
         <v>44287</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38885,7 +38885,7 @@
         <v>44292</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38942,7 +38942,7 @@
         <v>44299</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38999,7 +38999,7 @@
         <v>44300</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39056,7 +39056,7 @@
         <v>44306</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44312</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44313</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44316</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44323</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44326</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44331</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44334</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44335</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44337</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44337</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44348</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>44348</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39864,7 +39864,7 @@
         <v>44349</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39926,7 +39926,7 @@
         <v>44358</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39983,7 +39983,7 @@
         <v>44362</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40040,7 +40040,7 @@
         <v>44363</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40097,7 +40097,7 @@
         <v>44370</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
         <v>44370</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         <v>44371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40273,7 +40273,7 @@
         <v>44377</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40330,7 +40330,7 @@
         <v>44377</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40392,7 +40392,7 @@
         <v>44377</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40454,7 +40454,7 @@
         <v>44379</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40511,7 +40511,7 @@
         <v>44381</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40568,7 +40568,7 @@
         <v>44389</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44389</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44390</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44391</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44391</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44407</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44419</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44427</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         <v>44447</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44449</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44452</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41257,7 +41257,7 @@
         <v>44456</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>44459</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>44459</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44460</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41485,7 +41485,7 @@
         <v>44468</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44470</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44470</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44473</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44473</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44480</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41837,7 +41837,7 @@
         <v>44491</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
         <v>44494</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41951,7 +41951,7 @@
         <v>44495</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42008,7 +42008,7 @@
         <v>44495</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42065,7 +42065,7 @@
         <v>44498</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44498</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44498</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>44502</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>44504</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>44510</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>44512</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42469,7 +42469,7 @@
         <v>44516</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42526,7 +42526,7 @@
         <v>44524</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42583,7 +42583,7 @@
         <v>44524</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42640,7 +42640,7 @@
         <v>44524</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42697,7 +42697,7 @@
         <v>44524</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44525</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44525</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44525</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44526</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42992,7 +42992,7 @@
         <v>44532</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43054,7 +43054,7 @@
         <v>44533</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43111,7 +43111,7 @@
         <v>44535</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44539</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44539</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43282,7 +43282,7 @@
         <v>44540</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43339,7 +43339,7 @@
         <v>44540</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43396,7 +43396,7 @@
         <v>44543</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43453,7 +43453,7 @@
         <v>44544</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43510,7 +43510,7 @@
         <v>44544</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>44546</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43629,7 +43629,7 @@
         <v>44550</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>44557</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>44568</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>44573</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44575</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44575</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>44582</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>44591</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>44592</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>44596</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>44609</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>44610</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44323,7 +44323,7 @@
         <v>44610</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44380,7 +44380,7 @@
         <v>44631</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>44638</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>44652</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>44658</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>44664</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>44665</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44722,7 +44722,7 @@
         <v>44672</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>44679</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44841,7 +44841,7 @@
         <v>44683</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44898,7 +44898,7 @@
         <v>44686</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>44686</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>44694</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45074,7 +45074,7 @@
         <v>44699</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>44700</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45193,7 +45193,7 @@
         <v>44705</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>44705</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>44705</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>44711</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44714</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>44720</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>44721</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>44725</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>44726</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>44726</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>44727</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>44727</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>44727</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>44732</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46011,7 +46011,7 @@
         <v>44732</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46068,7 +46068,7 @@
         <v>44741</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         <v>44741</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46182,7 +46182,7 @@
         <v>44743</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46239,7 +46239,7 @@
         <v>44743</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>44748</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44749</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>44749</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>44749</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>44749</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>44749</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44750</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>44750</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>44750</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>44757</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         <v>44757</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46953,7 +46953,7 @@
         <v>44757</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47015,7 +47015,7 @@
         <v>44764</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47072,7 +47072,7 @@
         <v>44764</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47129,7 +47129,7 @@
         <v>44780</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>44788</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44788</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>44788</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>44788</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>44788</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47481,7 +47481,7 @@
         <v>44788</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47543,7 +47543,7 @@
         <v>44795</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47605,7 +47605,7 @@
         <v>44795</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47667,7 +47667,7 @@
         <v>44796</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47729,7 +47729,7 @@
         <v>44797</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>44797</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>44803</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47910,7 +47910,7 @@
         <v>44818</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47967,7 +47967,7 @@
         <v>44820</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>44825</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>44825</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>44830</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48205,7 +48205,7 @@
         <v>44833</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48262,7 +48262,7 @@
         <v>44841</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48319,7 +48319,7 @@
         <v>44847</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48376,7 +48376,7 @@
         <v>44847</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48433,7 +48433,7 @@
         <v>44848</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48490,7 +48490,7 @@
         <v>44848</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         <v>44848</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48604,7 +48604,7 @@
         <v>44855</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48661,7 +48661,7 @@
         <v>44855</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48718,7 +48718,7 @@
         <v>44858</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48775,7 +48775,7 @@
         <v>44858</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48832,7 +48832,7 @@
         <v>44861</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48889,7 +48889,7 @@
         <v>44861</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         <v>44865</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49003,7 +49003,7 @@
         <v>44866</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49060,7 +49060,7 @@
         <v>44873</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>44873</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49194,7 +49194,7 @@
         <v>44873</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49251,7 +49251,7 @@
         <v>44874</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49308,7 +49308,7 @@
         <v>44875</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         <v>44875</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49427,7 +49427,7 @@
         <v>44875</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49484,7 +49484,7 @@
         <v>44879</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49541,7 +49541,7 @@
         <v>44880</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49603,7 +49603,7 @@
         <v>44880</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49660,7 +49660,7 @@
         <v>44881</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49717,7 +49717,7 @@
         <v>44883</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49774,7 +49774,7 @@
         <v>44883</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49831,7 +49831,7 @@
         <v>44887</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49893,7 +49893,7 @@
         <v>44887</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49955,7 +49955,7 @@
         <v>44889</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50012,7 +50012,7 @@
         <v>44889</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44889</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44890</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50188,7 +50188,7 @@
         <v>44893</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50245,7 +50245,7 @@
         <v>44895</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50302,7 +50302,7 @@
         <v>44900</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44900</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50416,7 +50416,7 @@
         <v>44901</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50473,7 +50473,7 @@
         <v>44904</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50530,7 +50530,7 @@
         <v>44908</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50592,7 +50592,7 @@
         <v>44911</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50649,7 +50649,7 @@
         <v>44922</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50711,7 +50711,7 @@
         <v>44922</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50768,7 +50768,7 @@
         <v>44931</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50825,7 +50825,7 @@
         <v>44931</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50882,7 +50882,7 @@
         <v>44935</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50939,7 +50939,7 @@
         <v>44939</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50996,7 +50996,7 @@
         <v>44946</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51053,7 +51053,7 @@
         <v>44946</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51110,7 +51110,7 @@
         <v>44946</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51167,7 +51167,7 @@
         <v>44961</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51224,7 +51224,7 @@
         <v>44963</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51281,7 +51281,7 @@
         <v>44965</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51343,7 +51343,7 @@
         <v>44966</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51400,7 +51400,7 @@
         <v>44966</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51457,7 +51457,7 @@
         <v>44970</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51514,7 +51514,7 @@
         <v>44970</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         <v>44971</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51628,7 +51628,7 @@
         <v>44974</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51690,7 +51690,7 @@
         <v>44977</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>44977</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51809,7 +51809,7 @@
         <v>44978</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51866,7 +51866,7 @@
         <v>44986</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51928,7 +51928,7 @@
         <v>45000</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51990,7 +51990,7 @@
         <v>45000</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52047,7 +52047,7 @@
         <v>45006</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52109,7 +52109,7 @@
         <v>45019</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52166,7 +52166,7 @@
         <v>45020</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52223,7 +52223,7 @@
         <v>45022</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52280,7 +52280,7 @@
         <v>45022</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52337,7 +52337,7 @@
         <v>45029</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52399,7 +52399,7 @@
         <v>45034</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52456,7 +52456,7 @@
         <v>45035</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52513,7 +52513,7 @@
         <v>45036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         <v>45036</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>45036</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>45036</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52741,7 +52741,7 @@
         <v>45036</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52798,7 +52798,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52855,7 +52855,7 @@
         <v>45040</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>45040</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45041</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45042</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53140,7 +53140,7 @@
         <v>45048</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53202,7 +53202,7 @@
         <v>45048</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53264,7 +53264,7 @@
         <v>45049</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53321,7 +53321,7 @@
         <v>45049</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53378,7 +53378,7 @@
         <v>45050</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53440,7 +53440,7 @@
         <v>45055</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53497,7 +53497,7 @@
         <v>45055</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53554,7 +53554,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53611,7 +53611,7 @@
         <v>45056</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53668,7 +53668,7 @@
         <v>45056</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53725,7 +53725,7 @@
         <v>45056</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53782,7 +53782,7 @@
         <v>45057</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53844,7 +53844,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53968,7 +53968,7 @@
         <v>45065</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54030,7 +54030,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54087,7 +54087,7 @@
         <v>45071</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54144,7 +54144,7 @@
         <v>45082</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54206,7 +54206,7 @@
         <v>45084</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54263,7 +54263,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54320,7 +54320,7 @@
         <v>45090</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54377,7 +54377,7 @@
         <v>45090</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54434,7 +54434,7 @@
         <v>45090</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54491,7 +54491,7 @@
         <v>45090</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54605,7 +54605,7 @@
         <v>45097</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54662,7 +54662,7 @@
         <v>45097</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54719,7 +54719,7 @@
         <v>45097</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54781,7 +54781,7 @@
         <v>45098</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54843,7 +54843,7 @@
         <v>45099</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54900,7 +54900,7 @@
         <v>45105</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54957,7 +54957,7 @@
         <v>45107</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55014,7 +55014,7 @@
         <v>45107</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55071,7 +55071,7 @@
         <v>45107</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55128,7 +55128,7 @@
         <v>45107</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55185,7 +55185,7 @@
         <v>45111</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55242,7 +55242,7 @@
         <v>45111</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55299,7 +55299,7 @@
         <v>45112</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55356,7 +55356,7 @@
         <v>45112</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         <v>45112</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55470,7 +55470,7 @@
         <v>45112</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55527,7 +55527,7 @@
         <v>45112</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55584,7 +55584,7 @@
         <v>45117</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55641,7 +55641,7 @@
         <v>45117</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45117</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55755,7 +55755,7 @@
         <v>45117</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55812,7 +55812,7 @@
         <v>45117</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55874,7 +55874,7 @@
         <v>45118</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55936,7 +55936,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55993,7 +55993,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56050,7 +56050,7 @@
         <v>45139</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56112,7 +56112,7 @@
         <v>45140</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56169,7 +56169,7 @@
         <v>45140</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         <v>45146</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56283,7 +56283,7 @@
         <v>45148</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56345,7 +56345,7 @@
         <v>45149</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56402,7 +56402,7 @@
         <v>45152</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56459,7 +56459,7 @@
         <v>45152</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56516,7 +56516,7 @@
         <v>45152</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56578,7 +56578,7 @@
         <v>45153</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56640,7 +56640,7 @@
         <v>45159</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56697,7 +56697,7 @@
         <v>45162</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56759,7 +56759,7 @@
         <v>45163</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56816,7 +56816,7 @@
         <v>45166</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56873,7 +56873,7 @@
         <v>45168</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56930,7 +56930,7 @@
         <v>45173</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56987,7 +56987,7 @@
         <v>45173</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57049,7 +57049,7 @@
         <v>45176</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57111,7 +57111,7 @@
         <v>45176</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57173,7 +57173,7 @@
         <v>45180</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57235,7 +57235,7 @@
         <v>45180</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57297,7 +57297,7 @@
         <v>45180</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -572,7 +572,7 @@
         <v>44522</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43392</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44165</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44014</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43731</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45041</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43816</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44013</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45041</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43587</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44260</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45086</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44552</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45169</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44015</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>44038</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>44698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45049</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>45149</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43817</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44013</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>44355</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44477</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>44534</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44834</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45180</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43474</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43734</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43817</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43920</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44150</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44183</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44194</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44452</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44510</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44540</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44557</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44895</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>45079</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>43669</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43669</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43670</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43705</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43731</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43731</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43816</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43817</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44174</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44512</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44722</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44722</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>44797</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44895</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44903</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44904</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>45169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43402</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43766</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44540</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44671</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44757</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44757</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44867</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44873</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44936</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45049</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>43362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>43503</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43682</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44123</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44161</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44209</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44279</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44316</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44355</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44378</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44524</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44540</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44757</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44890</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>43353</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>43412</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43636</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43642</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43734</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43783</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43873</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>43878</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43930</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>44064</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44075</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44090</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44097</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44099</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44154</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44207</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44230</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44308</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44512</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>44512</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44524</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44568</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44603</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>44683</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44728</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44747</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44788</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44797</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45079</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>45153</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45180</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43328</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43335</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43335</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43340</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43342</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43342</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43346</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43350</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43353</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>43357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>43357</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>43362</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>43362</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>43362</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>43364</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>43389</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>43392</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>43412</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>43412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>43412</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43413</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43413</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>43413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43420</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>43423</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>43423</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>43425</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43427</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>43430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>43431</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43432</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>43433</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>43437</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43439</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>43441</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43441</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43447</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>43453</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43453</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>43455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>43455</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>43455</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>43463</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>43468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>43474</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>43474</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>43474</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>43476</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43476</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>43477</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>43479</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>43482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>43482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>43488</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43497</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>43503</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>43503</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>43503</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>43509</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>43509</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>43514</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>43521</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>43522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>43522</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>43522</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>43523</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>43528</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>43535</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>43539</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43545</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>43545</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>43545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>43549</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43551</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>43556</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>43558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>43559</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>43559</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>43559</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>43559</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>43560</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43563</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>43563</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43564</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>43565</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>43566</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>43571</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>43572</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>43579</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>43580</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>43581</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>43581</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>43584</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>43585</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>43585</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43585</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43587</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43591</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>43594</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43599</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>43602</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>43602</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>43602</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>43608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>43612</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>43612</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>43613</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>43616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>43619</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>43619</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>43619</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>43623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>43623</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>43623</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>43626</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>43628</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>43628</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>43633</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>43633</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>43633</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>43634</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>43636</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>43636</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>43640</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>43640</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>43640</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43641</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43641</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>43642</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>43642</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>43649</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>43649</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43650</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43651</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43651</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43651</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43651</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43651</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>43654</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24395,7 +24395,7 @@
         <v>43655</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>43656</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>43657</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>43657</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>43661</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>43661</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>43661</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>43678</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>43682</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>43684</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>43690</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         <v>43691</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         <v>43692</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         <v>43692</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>43693</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>43696</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>43699</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>43703</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>43703</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>43704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>43704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>43704</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>43704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>43704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>43704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>43707</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>43707</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>43710</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>43710</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>43712</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>43717</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>43722</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>43726</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>43727</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>43731</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>43731</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>43731</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>43731</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>43731</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>43734</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>43734</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>43734</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>43734</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>43735</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>43735</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>43735</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>43741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>43745</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>43747</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>43747</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>43752</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>43752</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>43752</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>43755</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>43755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>43755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43759</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>43759</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>43762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>43762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>43762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>43762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>43762</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>43762</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>43762</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>43763</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>43768</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>43770</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>43770</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>43773</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>43774</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>43776</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>43776</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>43781</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>43782</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43783</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>43783</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43783</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>43784</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>43787</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>43787</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>43789</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>43789</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>43790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>43791</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>43794</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29496,7 +29496,7 @@
         <v>43794</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>43801</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>43802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>43802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>43804</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>43804</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>43805</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>43809</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>43810</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>43811</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>43811</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>43811</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>43811</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>43811</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>43816</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>43818</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>43818</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>43826</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>43826</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>43831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>43837</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>43838</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>43858</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>43859</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>43860</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>43874</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>43874</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>43879</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>43879</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
         <v>43885</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31360,7 +31360,7 @@
         <v>43887</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>43889</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>43893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31531,7 +31531,7 @@
         <v>43894</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>43900</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31645,7 +31645,7 @@
         <v>43900</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>43900</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31759,7 +31759,7 @@
         <v>43907</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>43907</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>43913</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>43920</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>43927</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>43928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32101,7 +32101,7 @@
         <v>43936</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>43938</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>43941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32272,7 +32272,7 @@
         <v>43942</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>43942</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32396,7 +32396,7 @@
         <v>43951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>43951</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>43955</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>43959</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>43983</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>43983</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>43991</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44007</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44013</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44015</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44032</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44033</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44038</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44048</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44050</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>44050</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33313,7 +33313,7 @@
         <v>44050</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33370,7 +33370,7 @@
         <v>44057</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44061</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33484,7 +33484,7 @@
         <v>44062</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44076</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44077</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44090</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44095</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44095</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44102</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44103</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44106</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34012,7 +34012,7 @@
         <v>44113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
         <v>44113</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44113</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>44113</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34255,7 +34255,7 @@
         <v>44123</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34312,7 +34312,7 @@
         <v>44123</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34374,7 +34374,7 @@
         <v>44123</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44123</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44126</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>44133</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>44133</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>44133</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>44133</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44139</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34845,7 +34845,7 @@
         <v>44140</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34902,7 +34902,7 @@
         <v>44140</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34959,7 +34959,7 @@
         <v>44141</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35016,7 +35016,7 @@
         <v>44141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35073,7 +35073,7 @@
         <v>44146</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>44148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35187,7 +35187,7 @@
         <v>44151</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44151</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44153</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44154</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44154</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44159</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44161</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44162</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44162</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44167</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44169</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44172</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44172</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44173</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36047,7 +36047,7 @@
         <v>44175</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36104,7 +36104,7 @@
         <v>44175</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36161,7 +36161,7 @@
         <v>44179</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>44183</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44183</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44183</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44183</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44183</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44186</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44186</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44188</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44200</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44203</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44206</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44207</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36907,7 +36907,7 @@
         <v>44207</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36964,7 +36964,7 @@
         <v>44207</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         <v>44207</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>44209</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37140,7 +37140,7 @@
         <v>44209</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         <v>44209</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37254,7 +37254,7 @@
         <v>44209</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44211</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37368,7 +37368,7 @@
         <v>44211</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37425,7 +37425,7 @@
         <v>44214</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37482,7 +37482,7 @@
         <v>44214</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44214</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37596,7 +37596,7 @@
         <v>44214</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37653,7 +37653,7 @@
         <v>44214</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37710,7 +37710,7 @@
         <v>44214</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>44228</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37824,7 +37824,7 @@
         <v>44228</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37881,7 +37881,7 @@
         <v>44243</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44244</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37995,7 +37995,7 @@
         <v>44255</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38052,7 +38052,7 @@
         <v>44256</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38109,7 +38109,7 @@
         <v>44260</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38166,7 +38166,7 @@
         <v>44263</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38223,7 +38223,7 @@
         <v>44265</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38280,7 +38280,7 @@
         <v>44265</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38337,7 +38337,7 @@
         <v>44270</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38399,7 +38399,7 @@
         <v>44271</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38456,7 +38456,7 @@
         <v>44273</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>44278</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>44279</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>44279</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44279</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44279</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44284</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44285</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>44285</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38969,7 +38969,7 @@
         <v>44285</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         <v>44285</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>44286</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>44287</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>44292</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>44299</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44300</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>44306</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44312</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44313</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44316</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>44323</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>44326</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>44331</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>44333</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>44334</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>44335</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44337</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>44337</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>44348</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44348</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40176,7 +40176,7 @@
         <v>44349</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>44358</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
         <v>44362</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40352,7 +40352,7 @@
         <v>44363</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40409,7 +40409,7 @@
         <v>44370</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         <v>44370</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44371</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
         <v>44377</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40642,7 +40642,7 @@
         <v>44377</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40704,7 +40704,7 @@
         <v>44377</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44379</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44381</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44389</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44389</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44390</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44391</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>44391</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>44407</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>44419</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>44427</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>44445</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>44447</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>44449</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>44452</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>44456</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44459</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>44459</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>44460</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>44468</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44470</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44470</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44473</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44473</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44480</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>44491</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44494</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44495</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44495</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44498</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>44498</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42491,7 +42491,7 @@
         <v>44498</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42548,7 +42548,7 @@
         <v>44502</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42605,7 +42605,7 @@
         <v>44504</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42662,7 +42662,7 @@
         <v>44510</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44512</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44516</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44524</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44524</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44524</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44524</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44525</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44525</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>44525</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>44526</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>44532</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43366,7 +43366,7 @@
         <v>44533</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43423,7 +43423,7 @@
         <v>44535</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>44539</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43537,7 +43537,7 @@
         <v>44539</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43594,7 +43594,7 @@
         <v>44540</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         <v>44543</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43708,7 +43708,7 @@
         <v>44544</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>44544</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43822,7 +43822,7 @@
         <v>44546</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>44550</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>44557</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43998,7 +43998,7 @@
         <v>44568</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44055,7 +44055,7 @@
         <v>44573</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44117,7 +44117,7 @@
         <v>44575</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44174,7 +44174,7 @@
         <v>44575</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44231,7 +44231,7 @@
         <v>44582</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44288,7 +44288,7 @@
         <v>44591</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44345,7 +44345,7 @@
         <v>44592</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44402,7 +44402,7 @@
         <v>44596</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44459,7 +44459,7 @@
         <v>44609</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44521,7 +44521,7 @@
         <v>44610</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44578,7 +44578,7 @@
         <v>44610</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44635,7 +44635,7 @@
         <v>44631</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44692,7 +44692,7 @@
         <v>44638</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44749,7 +44749,7 @@
         <v>44652</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44806,7 +44806,7 @@
         <v>44658</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44863,7 +44863,7 @@
         <v>44664</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44920,7 +44920,7 @@
         <v>44665</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44977,7 +44977,7 @@
         <v>44672</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>44679</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45096,7 +45096,7 @@
         <v>44683</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45153,7 +45153,7 @@
         <v>44686</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45210,7 +45210,7 @@
         <v>44686</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>44694</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45329,7 +45329,7 @@
         <v>44699</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45386,7 +45386,7 @@
         <v>44700</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45448,7 +45448,7 @@
         <v>44705</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45510,7 +45510,7 @@
         <v>44705</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45567,7 +45567,7 @@
         <v>44705</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45624,7 +45624,7 @@
         <v>44711</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45686,7 +45686,7 @@
         <v>44714</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45743,7 +45743,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45805,7 +45805,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>44725</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
         <v>44726</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         <v>44726</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -46038,7 +46038,7 @@
         <v>44727</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46095,7 +46095,7 @@
         <v>44727</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46152,7 +46152,7 @@
         <v>44727</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44732</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44732</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46323,7 +46323,7 @@
         <v>44741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46380,7 +46380,7 @@
         <v>44741</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46437,7 +46437,7 @@
         <v>44743</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46494,7 +46494,7 @@
         <v>44743</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>44748</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>44749</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>44749</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46732,7 +46732,7 @@
         <v>44749</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44749</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46856,7 +46856,7 @@
         <v>44749</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46913,7 +46913,7 @@
         <v>44750</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46970,7 +46970,7 @@
         <v>44750</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47027,7 +47027,7 @@
         <v>44750</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>44757</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>44757</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>44757</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44764</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44764</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44780</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44788</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47503,7 +47503,7 @@
         <v>44788</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47560,7 +47560,7 @@
         <v>44788</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47617,7 +47617,7 @@
         <v>44788</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44788</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>44788</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47798,7 +47798,7 @@
         <v>44795</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47860,7 +47860,7 @@
         <v>44795</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44796</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47984,7 +47984,7 @@
         <v>44797</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>44797</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48108,7 +48108,7 @@
         <v>44803</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48165,7 +48165,7 @@
         <v>44818</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48222,7 +48222,7 @@
         <v>44820</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48279,7 +48279,7 @@
         <v>44825</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48341,7 +48341,7 @@
         <v>44825</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48398,7 +48398,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48460,7 +48460,7 @@
         <v>44833</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48517,7 +48517,7 @@
         <v>44841</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>44847</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44847</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48688,7 +48688,7 @@
         <v>44848</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44848</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>44848</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>44855</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48916,7 +48916,7 @@
         <v>44855</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48973,7 +48973,7 @@
         <v>44858</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -49030,7 +49030,7 @@
         <v>44858</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49087,7 +49087,7 @@
         <v>44861</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49144,7 +49144,7 @@
         <v>44861</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49201,7 +49201,7 @@
         <v>44865</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49258,7 +49258,7 @@
         <v>44866</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49315,7 +49315,7 @@
         <v>44873</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49372,7 +49372,7 @@
         <v>44873</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49449,7 +49449,7 @@
         <v>44873</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         <v>44874</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49563,7 +49563,7 @@
         <v>44875</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49620,7 +49620,7 @@
         <v>44875</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49682,7 +49682,7 @@
         <v>44875</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49739,7 +49739,7 @@
         <v>44879</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49796,7 +49796,7 @@
         <v>44880</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>44880</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>44881</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>44883</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>44883</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>44887</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50148,7 +50148,7 @@
         <v>44887</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44889</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44889</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44890</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50443,7 +50443,7 @@
         <v>44893</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50500,7 +50500,7 @@
         <v>44895</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50557,7 +50557,7 @@
         <v>44900</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50614,7 +50614,7 @@
         <v>44900</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50671,7 +50671,7 @@
         <v>44901</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44904</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44908</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50847,7 +50847,7 @@
         <v>44911</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50904,7 +50904,7 @@
         <v>44922</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50966,7 +50966,7 @@
         <v>44922</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -51023,7 +51023,7 @@
         <v>44931</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -51080,7 +51080,7 @@
         <v>44931</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51137,7 +51137,7 @@
         <v>44935</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51194,7 +51194,7 @@
         <v>44939</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51251,7 +51251,7 @@
         <v>44946</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51308,7 +51308,7 @@
         <v>44946</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51365,7 +51365,7 @@
         <v>44946</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51422,7 +51422,7 @@
         <v>44961</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51479,7 +51479,7 @@
         <v>44963</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51536,7 +51536,7 @@
         <v>44965</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51598,7 +51598,7 @@
         <v>44966</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51655,7 +51655,7 @@
         <v>44966</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51712,7 +51712,7 @@
         <v>44970</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51769,7 +51769,7 @@
         <v>44970</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         <v>44971</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51883,7 +51883,7 @@
         <v>44974</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51945,7 +51945,7 @@
         <v>44977</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -52007,7 +52007,7 @@
         <v>44977</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -52064,7 +52064,7 @@
         <v>44978</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52121,7 +52121,7 @@
         <v>44986</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52183,7 +52183,7 @@
         <v>45000</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         <v>45000</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52302,7 +52302,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52364,7 +52364,7 @@
         <v>45019</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52421,7 +52421,7 @@
         <v>45020</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52478,7 +52478,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52535,7 +52535,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52592,7 +52592,7 @@
         <v>45029</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52654,7 +52654,7 @@
         <v>45034</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52711,7 +52711,7 @@
         <v>45035</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52768,7 +52768,7 @@
         <v>45036</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52825,7 +52825,7 @@
         <v>45036</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52882,7 +52882,7 @@
         <v>45036</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52996,7 +52996,7 @@
         <v>45036</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53053,7 +53053,7 @@
         <v>45036</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53110,7 +53110,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53167,7 +53167,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53224,7 +53224,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53281,7 +53281,7 @@
         <v>45041</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53338,7 +53338,7 @@
         <v>45042</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53395,7 +53395,7 @@
         <v>45048</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53457,7 +53457,7 @@
         <v>45048</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53519,7 +53519,7 @@
         <v>45049</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53576,7 +53576,7 @@
         <v>45049</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53633,7 +53633,7 @@
         <v>45050</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53695,7 +53695,7 @@
         <v>45055</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53752,7 +53752,7 @@
         <v>45055</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53809,7 +53809,7 @@
         <v>45056</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53866,7 +53866,7 @@
         <v>45056</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53923,7 +53923,7 @@
         <v>45056</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53980,7 +53980,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54037,7 +54037,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54099,7 +54099,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54161,7 +54161,7 @@
         <v>45062</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54223,7 +54223,7 @@
         <v>45065</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>45070</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>45071</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54399,7 +54399,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>45084</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>45086</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         <v>45090</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45090</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45097</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54917,7 +54917,7 @@
         <v>45097</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54974,7 +54974,7 @@
         <v>45097</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55036,7 +55036,7 @@
         <v>45098</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55098,7 +55098,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55155,7 +55155,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55212,7 +55212,7 @@
         <v>45107</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         <v>45107</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55326,7 +55326,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55383,7 +55383,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55440,7 +55440,7 @@
         <v>45111</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55497,7 +55497,7 @@
         <v>45111</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55554,7 +55554,7 @@
         <v>45112</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55611,7 +55611,7 @@
         <v>45112</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55668,7 +55668,7 @@
         <v>45112</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55725,7 +55725,7 @@
         <v>45112</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55782,7 +55782,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55839,7 +55839,7 @@
         <v>45117</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55896,7 +55896,7 @@
         <v>45117</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55953,7 +55953,7 @@
         <v>45117</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45117</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56067,7 +56067,7 @@
         <v>45117</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56191,7 +56191,7 @@
         <v>45119</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56248,7 +56248,7 @@
         <v>45125</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56305,7 +56305,7 @@
         <v>45139</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56367,7 +56367,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56424,7 +56424,7 @@
         <v>45140</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56481,7 +56481,7 @@
         <v>45146</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56600,7 +56600,7 @@
         <v>45149</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56657,7 +56657,7 @@
         <v>45152</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56714,7 +56714,7 @@
         <v>45152</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45152</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56833,7 +56833,7 @@
         <v>45159</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45162</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56952,7 +56952,7 @@
         <v>45163</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57009,7 +57009,7 @@
         <v>45166</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57066,7 +57066,7 @@
         <v>45168</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57123,7 +57123,7 @@
         <v>45173</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57180,7 +57180,7 @@
         <v>45173</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57242,7 +57242,7 @@
         <v>45176</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57304,7 +57304,7 @@
         <v>45176</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57366,7 +57366,7 @@
         <v>45180</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57428,7 +57428,7 @@
         <v>45180</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57490,7 +57490,7 @@
         <v>45189</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         <v>45194</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57604,7 +57604,7 @@
         <v>45195</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57661,7 +57661,7 @@
         <v>45195</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57718,7 +57718,7 @@
         <v>45195</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -572,7 +572,7 @@
         <v>44522</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43392</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44165</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44014</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43731</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45041</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43816</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44013</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45041</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43587</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44260</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45086</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44552</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45169</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44015</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>44038</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>44698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45049</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>45149</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43817</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44013</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>44355</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44477</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>44534</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44834</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45180</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43474</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43734</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43817</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43920</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44150</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44183</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44194</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44452</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44510</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44540</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44557</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44895</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>45079</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>43669</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43669</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43670</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43705</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43731</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43731</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43816</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43817</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44174</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44512</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44722</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44722</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>44797</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44895</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44903</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44904</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>45169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43402</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43766</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44540</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44671</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44757</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44757</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44867</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44873</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44936</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45049</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>43362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>43503</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43682</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44123</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44161</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44209</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44279</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44316</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44355</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44378</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44524</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44540</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44757</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44890</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>43353</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>43412</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43636</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43642</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43734</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43783</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43873</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>43878</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43930</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>44064</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44075</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44090</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44097</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44099</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44154</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44207</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44230</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44308</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44512</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>44512</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44524</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44568</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44603</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>44683</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44728</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44747</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44788</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44797</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45079</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>45153</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45180</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43328</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43335</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43335</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43340</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43342</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43342</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43346</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43350</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43353</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>43357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>43357</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>43362</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>43362</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>43362</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>43364</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>43389</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>43392</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>43412</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>43412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>43412</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43413</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43413</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>43413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43420</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>43423</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>43423</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>43425</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43427</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>43430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>43431</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43432</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>43433</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>43437</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43439</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>43441</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43441</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43447</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>43453</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43453</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>43455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>43455</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>43455</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>43463</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>43468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>43474</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>43474</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>43474</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>43476</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43476</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>43477</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>43479</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>43482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>43482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>43488</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43497</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>43503</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>43503</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>43503</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>43509</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>43509</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>43514</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>43521</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>43522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>43522</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>43522</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>43523</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>43528</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>43535</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>43539</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43545</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>43545</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>43545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>43549</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43551</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>43556</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>43558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>43559</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>43559</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>43559</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>43559</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>43560</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43563</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>43563</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43564</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>43565</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>43566</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>43571</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>43572</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>43579</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>43580</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>43581</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>43581</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>43584</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>43585</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>43585</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43585</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43587</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43591</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>43594</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43599</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>43602</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>43602</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>43602</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>43608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>43612</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>43612</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>43613</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>43616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>43619</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>43619</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>43619</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>43623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>43623</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>43623</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>43626</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>43628</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>43628</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>43633</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>43633</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>43633</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>43634</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>43636</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>43636</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>43640</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>43640</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>43640</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43641</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43641</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>43642</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>43642</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>43649</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>43649</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43650</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43651</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43651</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43651</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43651</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43651</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>43654</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24395,7 +24395,7 @@
         <v>43655</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>43656</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>43657</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>43657</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>43661</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>43661</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>43661</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>43678</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>43682</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>43684</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>43690</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         <v>43691</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         <v>43692</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         <v>43692</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>43693</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>43696</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>43699</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>43703</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>43703</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>43704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>43704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>43704</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>43704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>43704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>43704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>43707</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>43707</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>43710</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>43710</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>43712</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>43717</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>43722</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>43726</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>43727</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>43731</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>43731</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>43731</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>43731</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>43731</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>43734</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>43734</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>43734</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>43734</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>43735</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>43735</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>43735</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>43741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>43745</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>43747</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>43747</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>43752</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>43752</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>43752</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>43755</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>43755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>43755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43759</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>43759</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>43762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>43762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>43762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>43762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>43762</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>43762</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>43762</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>43763</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>43768</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>43770</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>43770</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>43773</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>43774</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>43776</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>43776</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>43781</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>43782</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43783</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>43783</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43783</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>43784</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>43787</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>43787</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>43789</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>43789</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>43790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>43791</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>43794</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29496,7 +29496,7 @@
         <v>43794</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>43801</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>43802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>43802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>43804</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>43804</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>43805</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>43809</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>43810</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>43811</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>43811</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>43811</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>43811</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>43811</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>43816</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>43818</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>43818</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>43826</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>43826</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>43831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>43837</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>43838</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>43858</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>43859</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>43860</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>43874</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>43874</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>43879</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>43879</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
         <v>43885</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31360,7 +31360,7 @@
         <v>43887</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>43889</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>43893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31531,7 +31531,7 @@
         <v>43894</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>43900</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31645,7 +31645,7 @@
         <v>43900</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>43900</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31759,7 +31759,7 @@
         <v>43907</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>43907</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>43913</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>43920</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>43927</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>43928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32101,7 +32101,7 @@
         <v>43936</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>43938</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>43941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32272,7 +32272,7 @@
         <v>43942</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>43942</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32396,7 +32396,7 @@
         <v>43951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>43951</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>43955</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>43959</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>43983</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>43983</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>43991</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44007</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44013</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44015</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44032</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44033</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44038</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44048</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44050</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>44050</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33313,7 +33313,7 @@
         <v>44050</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33370,7 +33370,7 @@
         <v>44057</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44061</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33484,7 +33484,7 @@
         <v>44062</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44076</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44077</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44090</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44095</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44095</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44102</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44103</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44106</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34012,7 +34012,7 @@
         <v>44113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
         <v>44113</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44113</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>44113</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34255,7 +34255,7 @@
         <v>44123</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34312,7 +34312,7 @@
         <v>44123</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34374,7 +34374,7 @@
         <v>44123</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44123</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44126</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>44133</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>44133</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>44133</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>44133</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44139</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34845,7 +34845,7 @@
         <v>44140</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34902,7 +34902,7 @@
         <v>44140</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34959,7 +34959,7 @@
         <v>44141</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35016,7 +35016,7 @@
         <v>44141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35073,7 +35073,7 @@
         <v>44146</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35130,7 +35130,7 @@
         <v>44148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35187,7 +35187,7 @@
         <v>44151</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         <v>44151</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44153</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44154</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44154</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44159</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44161</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44162</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44162</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44167</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44169</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44169</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44172</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44172</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44173</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36047,7 +36047,7 @@
         <v>44175</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36104,7 +36104,7 @@
         <v>44175</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36161,7 +36161,7 @@
         <v>44179</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>44183</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44183</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44183</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44183</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44183</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44186</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44186</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44188</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44200</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>44203</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>44206</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>44207</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36907,7 +36907,7 @@
         <v>44207</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36964,7 +36964,7 @@
         <v>44207</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         <v>44207</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>44209</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37140,7 +37140,7 @@
         <v>44209</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         <v>44209</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37254,7 +37254,7 @@
         <v>44209</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>44211</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37368,7 +37368,7 @@
         <v>44211</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37425,7 +37425,7 @@
         <v>44214</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37482,7 +37482,7 @@
         <v>44214</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44214</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37596,7 +37596,7 @@
         <v>44214</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37653,7 +37653,7 @@
         <v>44214</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37710,7 +37710,7 @@
         <v>44214</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>44228</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37824,7 +37824,7 @@
         <v>44228</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37881,7 +37881,7 @@
         <v>44243</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44244</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37995,7 +37995,7 @@
         <v>44255</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38052,7 +38052,7 @@
         <v>44256</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38109,7 +38109,7 @@
         <v>44260</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38166,7 +38166,7 @@
         <v>44263</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38223,7 +38223,7 @@
         <v>44265</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38280,7 +38280,7 @@
         <v>44265</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38337,7 +38337,7 @@
         <v>44270</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38399,7 +38399,7 @@
         <v>44271</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38456,7 +38456,7 @@
         <v>44273</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>44278</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>44279</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>44279</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44279</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>44279</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>44284</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>44285</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>44285</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38969,7 +38969,7 @@
         <v>44285</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         <v>44285</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>44286</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>44287</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>44292</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>44299</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>44300</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>44306</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>44312</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44313</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44316</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>44323</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>44326</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>44331</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>44333</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39824,7 +39824,7 @@
         <v>44334</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39881,7 +39881,7 @@
         <v>44335</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39938,7 +39938,7 @@
         <v>44337</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
         <v>44337</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40052,7 +40052,7 @@
         <v>44348</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44348</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40176,7 +40176,7 @@
         <v>44349</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>44358</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
         <v>44362</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40352,7 +40352,7 @@
         <v>44363</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40409,7 +40409,7 @@
         <v>44370</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         <v>44370</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44371</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
         <v>44377</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40642,7 +40642,7 @@
         <v>44377</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40704,7 +40704,7 @@
         <v>44377</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44379</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44381</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44389</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44389</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44390</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44391</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>44391</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>44407</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>44419</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>44427</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>44445</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>44447</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>44449</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>44452</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>44456</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44459</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>44459</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>44460</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>44468</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44470</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44470</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44473</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44473</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44480</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>44491</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44494</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44495</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44495</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44498</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>44498</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42491,7 +42491,7 @@
         <v>44498</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42548,7 +42548,7 @@
         <v>44502</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42605,7 +42605,7 @@
         <v>44504</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42662,7 +42662,7 @@
         <v>44510</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44512</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44516</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44524</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44524</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44524</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44524</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44525</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44525</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>44525</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>44526</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>44532</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43366,7 +43366,7 @@
         <v>44533</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43423,7 +43423,7 @@
         <v>44535</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>44539</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43537,7 +43537,7 @@
         <v>44539</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43594,7 +43594,7 @@
         <v>44540</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         <v>44543</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43708,7 +43708,7 @@
         <v>44544</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>44544</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43822,7 +43822,7 @@
         <v>44546</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>44550</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>44557</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43998,7 +43998,7 @@
         <v>44568</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44055,7 +44055,7 @@
         <v>44573</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44117,7 +44117,7 @@
         <v>44575</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44174,7 +44174,7 @@
         <v>44575</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44231,7 +44231,7 @@
         <v>44582</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44288,7 +44288,7 @@
         <v>44591</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44345,7 +44345,7 @@
         <v>44592</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44402,7 +44402,7 @@
         <v>44596</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44459,7 +44459,7 @@
         <v>44609</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44521,7 +44521,7 @@
         <v>44610</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44578,7 +44578,7 @@
         <v>44610</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44635,7 +44635,7 @@
         <v>44631</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44692,7 +44692,7 @@
         <v>44638</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44749,7 +44749,7 @@
         <v>44652</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44806,7 +44806,7 @@
         <v>44658</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44863,7 +44863,7 @@
         <v>44664</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44920,7 +44920,7 @@
         <v>44665</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44977,7 +44977,7 @@
         <v>44672</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>44679</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45096,7 +45096,7 @@
         <v>44683</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45153,7 +45153,7 @@
         <v>44686</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45210,7 +45210,7 @@
         <v>44686</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>44694</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45329,7 +45329,7 @@
         <v>44699</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45386,7 +45386,7 @@
         <v>44700</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45448,7 +45448,7 @@
         <v>44705</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45510,7 +45510,7 @@
         <v>44705</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45567,7 +45567,7 @@
         <v>44705</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45624,7 +45624,7 @@
         <v>44711</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45686,7 +45686,7 @@
         <v>44714</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45743,7 +45743,7 @@
         <v>44720</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45805,7 +45805,7 @@
         <v>44721</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>44725</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
         <v>44726</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         <v>44726</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -46038,7 +46038,7 @@
         <v>44727</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46095,7 +46095,7 @@
         <v>44727</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46152,7 +46152,7 @@
         <v>44727</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44732</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44732</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46323,7 +46323,7 @@
         <v>44741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46380,7 +46380,7 @@
         <v>44741</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46437,7 +46437,7 @@
         <v>44743</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46494,7 +46494,7 @@
         <v>44743</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>44748</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>44749</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>44749</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46732,7 +46732,7 @@
         <v>44749</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>44749</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46856,7 +46856,7 @@
         <v>44749</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46913,7 +46913,7 @@
         <v>44750</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46970,7 +46970,7 @@
         <v>44750</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47027,7 +47027,7 @@
         <v>44750</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>44757</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>44757</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>44757</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>44764</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47327,7 +47327,7 @@
         <v>44764</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47384,7 +47384,7 @@
         <v>44780</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>44788</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47503,7 +47503,7 @@
         <v>44788</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47560,7 +47560,7 @@
         <v>44788</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47617,7 +47617,7 @@
         <v>44788</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47674,7 +47674,7 @@
         <v>44788</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>44788</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47798,7 +47798,7 @@
         <v>44795</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47860,7 +47860,7 @@
         <v>44795</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44796</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47984,7 +47984,7 @@
         <v>44797</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>44797</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48108,7 +48108,7 @@
         <v>44803</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48165,7 +48165,7 @@
         <v>44818</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48222,7 +48222,7 @@
         <v>44820</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48279,7 +48279,7 @@
         <v>44825</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48341,7 +48341,7 @@
         <v>44825</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48398,7 +48398,7 @@
         <v>44830</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48460,7 +48460,7 @@
         <v>44833</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48517,7 +48517,7 @@
         <v>44841</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>44847</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>44847</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48688,7 +48688,7 @@
         <v>44848</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44848</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>44848</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>44855</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48916,7 +48916,7 @@
         <v>44855</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48973,7 +48973,7 @@
         <v>44858</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -49030,7 +49030,7 @@
         <v>44858</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49087,7 +49087,7 @@
         <v>44861</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49144,7 +49144,7 @@
         <v>44861</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49201,7 +49201,7 @@
         <v>44865</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49258,7 +49258,7 @@
         <v>44866</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49315,7 +49315,7 @@
         <v>44873</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49372,7 +49372,7 @@
         <v>44873</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49449,7 +49449,7 @@
         <v>44873</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         <v>44874</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49563,7 +49563,7 @@
         <v>44875</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49620,7 +49620,7 @@
         <v>44875</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49682,7 +49682,7 @@
         <v>44875</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49739,7 +49739,7 @@
         <v>44879</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49796,7 +49796,7 @@
         <v>44880</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>44880</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>44881</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>44883</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>44883</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>44887</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50148,7 +50148,7 @@
         <v>44887</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50210,7 +50210,7 @@
         <v>44889</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50267,7 +50267,7 @@
         <v>44889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>44889</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>44890</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50443,7 +50443,7 @@
         <v>44893</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50500,7 +50500,7 @@
         <v>44895</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50557,7 +50557,7 @@
         <v>44900</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50614,7 +50614,7 @@
         <v>44900</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50671,7 +50671,7 @@
         <v>44901</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44904</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>44908</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50847,7 +50847,7 @@
         <v>44911</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50904,7 +50904,7 @@
         <v>44922</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50966,7 +50966,7 @@
         <v>44922</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -51023,7 +51023,7 @@
         <v>44931</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -51080,7 +51080,7 @@
         <v>44931</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51137,7 +51137,7 @@
         <v>44935</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51194,7 +51194,7 @@
         <v>44939</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51251,7 +51251,7 @@
         <v>44946</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51308,7 +51308,7 @@
         <v>44946</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51365,7 +51365,7 @@
         <v>44946</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51422,7 +51422,7 @@
         <v>44961</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51479,7 +51479,7 @@
         <v>44963</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51536,7 +51536,7 @@
         <v>44965</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51598,7 +51598,7 @@
         <v>44966</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51655,7 +51655,7 @@
         <v>44966</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51712,7 +51712,7 @@
         <v>44970</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51769,7 +51769,7 @@
         <v>44970</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         <v>44971</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51883,7 +51883,7 @@
         <v>44974</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51945,7 +51945,7 @@
         <v>44977</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -52007,7 +52007,7 @@
         <v>44977</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -52064,7 +52064,7 @@
         <v>44978</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52121,7 +52121,7 @@
         <v>44986</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52183,7 +52183,7 @@
         <v>45000</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         <v>45000</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52302,7 +52302,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52364,7 +52364,7 @@
         <v>45019</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52421,7 +52421,7 @@
         <v>45020</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52478,7 +52478,7 @@
         <v>45022</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52535,7 +52535,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52592,7 +52592,7 @@
         <v>45029</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52654,7 +52654,7 @@
         <v>45034</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52711,7 +52711,7 @@
         <v>45035</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52768,7 +52768,7 @@
         <v>45036</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52825,7 +52825,7 @@
         <v>45036</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52882,7 +52882,7 @@
         <v>45036</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52996,7 +52996,7 @@
         <v>45036</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53053,7 +53053,7 @@
         <v>45036</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53110,7 +53110,7 @@
         <v>45040</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53167,7 +53167,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53224,7 +53224,7 @@
         <v>45040</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53281,7 +53281,7 @@
         <v>45041</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53338,7 +53338,7 @@
         <v>45042</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53395,7 +53395,7 @@
         <v>45048</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53457,7 +53457,7 @@
         <v>45048</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53519,7 +53519,7 @@
         <v>45049</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53576,7 +53576,7 @@
         <v>45049</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53633,7 +53633,7 @@
         <v>45050</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53695,7 +53695,7 @@
         <v>45055</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53752,7 +53752,7 @@
         <v>45055</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53809,7 +53809,7 @@
         <v>45056</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53866,7 +53866,7 @@
         <v>45056</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53923,7 +53923,7 @@
         <v>45056</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53980,7 +53980,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54037,7 +54037,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54099,7 +54099,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54161,7 +54161,7 @@
         <v>45062</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54223,7 +54223,7 @@
         <v>45065</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>45070</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>45071</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54399,7 +54399,7 @@
         <v>45082</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>45084</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>45086</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         <v>45090</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45090</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>45097</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54917,7 +54917,7 @@
         <v>45097</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54974,7 +54974,7 @@
         <v>45097</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55036,7 +55036,7 @@
         <v>45098</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55098,7 +55098,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55155,7 +55155,7 @@
         <v>45105</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55212,7 +55212,7 @@
         <v>45107</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         <v>45107</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55326,7 +55326,7 @@
         <v>45107</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55383,7 +55383,7 @@
         <v>45107</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55440,7 +55440,7 @@
         <v>45111</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55497,7 +55497,7 @@
         <v>45111</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55554,7 +55554,7 @@
         <v>45112</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55611,7 +55611,7 @@
         <v>45112</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55668,7 +55668,7 @@
         <v>45112</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55725,7 +55725,7 @@
         <v>45112</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55782,7 +55782,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55839,7 +55839,7 @@
         <v>45117</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55896,7 +55896,7 @@
         <v>45117</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55953,7 +55953,7 @@
         <v>45117</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>45117</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56067,7 +56067,7 @@
         <v>45117</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56129,7 +56129,7 @@
         <v>45118</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56191,7 +56191,7 @@
         <v>45119</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56248,7 +56248,7 @@
         <v>45125</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56305,7 +56305,7 @@
         <v>45139</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56367,7 +56367,7 @@
         <v>45140</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56424,7 +56424,7 @@
         <v>45140</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56481,7 +56481,7 @@
         <v>45146</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56538,7 +56538,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56600,7 +56600,7 @@
         <v>45149</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56657,7 +56657,7 @@
         <v>45152</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56714,7 +56714,7 @@
         <v>45152</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56771,7 +56771,7 @@
         <v>45152</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56833,7 +56833,7 @@
         <v>45159</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56890,7 +56890,7 @@
         <v>45162</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56952,7 +56952,7 @@
         <v>45163</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57009,7 +57009,7 @@
         <v>45166</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57066,7 +57066,7 @@
         <v>45168</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57123,7 +57123,7 @@
         <v>45173</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57180,7 +57180,7 @@
         <v>45173</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57242,7 +57242,7 @@
         <v>45176</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57304,7 +57304,7 @@
         <v>45176</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57366,7 +57366,7 @@
         <v>45180</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57428,7 +57428,7 @@
         <v>45180</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57490,7 +57490,7 @@
         <v>45189</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         <v>45194</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57604,7 +57604,7 @@
         <v>45195</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57661,7 +57661,7 @@
         <v>45195</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57718,7 +57718,7 @@
         <v>45195</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>

--- a/Översikt KROKOM.xlsx
+++ b/Översikt KROKOM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y892"/>
+  <dimension ref="A1:Y893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44522</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43392</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44165</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44014</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43731</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>45041</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43816</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44013</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45082</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44326</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44328</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44358</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43816</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44795</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45041</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43587</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>44118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44260</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45086</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44552</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45169</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44015</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>44038</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>44698</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45049</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>45149</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43817</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44013</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>44355</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44477</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>44534</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44834</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45180</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43474</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43734</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43817</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43920</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44150</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44183</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44194</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44452</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44510</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44540</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44557</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44895</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>45079</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>43669</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43669</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43670</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43705</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43731</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43731</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43731</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43816</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43817</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44174</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44512</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44722</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44722</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>44797</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44895</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44903</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44904</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44966</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>45169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43402</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43717</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43766</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44540</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44671</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44757</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44757</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44867</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44873</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44936</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45049</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>43362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>43503</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43682</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44123</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44161</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44209</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44279</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44316</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44355</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44378</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44524</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44540</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44757</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44890</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>43353</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>43412</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43636</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43642</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43734</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43783</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43873</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>43878</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43930</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>44064</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44075</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44090</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44097</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44099</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44154</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44207</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44230</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44308</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44512</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>44512</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44524</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44568</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44603</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>44683</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44728</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44742</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44747</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44788</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44797</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>45079</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>45153</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45180</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43328</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43335</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43335</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43340</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43342</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43342</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43346</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43350</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43353</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>43357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>43357</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>43362</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>43362</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>43362</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>43364</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>43389</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>43392</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>43412</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>43412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>43412</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43413</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43413</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>43413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>43417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>43420</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>43423</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>43423</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>43425</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43427</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>43430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>43431</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43432</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>43433</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>43437</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43439</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>43441</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43441</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43447</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>43453</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43453</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>43455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>43455</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>43455</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>43463</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>43468</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>43474</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>43474</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>43474</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>43476</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43476</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>43477</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>43479</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>43482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>43482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>43488</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43490</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43497</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>43503</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>43503</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>43503</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>43509</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>43509</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>43514</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>43521</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>43522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>43522</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>43522</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>43523</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>43528</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>43535</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>43539</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43545</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>43545</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>43545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>43549</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43551</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>43556</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>43558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>43559</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>43559</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>43559</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>43559</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>43560</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>43563</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>43563</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43564</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>43565</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>43566</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>43571</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>43572</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>43579</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>43580</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>43581</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>43581</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>43584</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>43585</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>43585</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43585</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43587</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43591</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>43594</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43599</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>43602</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>43602</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>43602</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>43608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>43612</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>43612</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>43613</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>43616</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>43619</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>43619</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>43619</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>43623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>43623</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>43623</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>43626</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>43628</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>43628</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>43633</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>43633</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>43633</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>43634</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>43636</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>43636</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>43640</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>43640</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>43640</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43641</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43641</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>43642</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>43642</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>43649</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>43649</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43650</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43651</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43651</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43651</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43651</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43651</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>43654</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24395,7 +24395,7 @@
         <v>43655</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>43656</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>43657</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>43657</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>43661</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>43661</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>43661</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>43678</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>43682</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>43684</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>43690</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         <v>43691</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         <v>43692</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         <v>43692</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>43693</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>43696</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>43699</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>43703</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>43703</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>43704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>43704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>43704</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>43704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>43704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>43704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>43707</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>43707</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>43710</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>43710</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>43712</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>43717</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>43722</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>43726</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>43727</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>43731</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>43731</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>43731</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>43731</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>43731</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>43734</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>43734</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>43734</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>43734</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>43735</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>43735</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>43735</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>43741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>43745</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>43747</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>43747</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>43752</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>43752</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>43752</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>43755</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>43755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>43755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43759</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>43759</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>43762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>43762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>43762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>43762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>43762</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>43762</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>43762</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>43763</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>43768</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>43770</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>43770</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>43773</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>43774</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>43776</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>43776</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>43781</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>43782</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43783</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>43783</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43783</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>43784</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>43787</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>43787</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>43787</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>43787</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>43789</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>43789</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>43790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>43791</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>43794</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29496,7 +29496,7 @@
         <v>43794</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>43801</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>43802</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>43802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>43804</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>43804</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>43805</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>43809</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>43810</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>43811</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>43811</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>43811</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>43811</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>43811</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>43816</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>43818</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>43818</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>43826</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>43826</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>43831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>43837</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>43838</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>43858</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>43859</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>43860</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>43874</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>43874</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>43879</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>43879</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>43879</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>43880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
         <v>43885</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31360,7 +31360,7 @@
         <v>43887</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>43889</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>43893</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31531,7 +31531,7 @@
         <v>43894</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>43900</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31645,7 +31645,7 @@
         <v>43900</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>43900</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31759,7 +31759,7 @@
         <v>43907</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>43907</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>43913</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>43920</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>43927</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>43928</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32101,7 +32101,7 @@
         <v>43936</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>43938</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>43941</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32272,7 +32272,7 @@
         <v>43942</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>43942</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32396,7 +32396,7 @@
         <v>43951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>43951</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>43955</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>43959</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>43983</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>43983</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>43991</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44007</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44013</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44015</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44032</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44033</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44038</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44048</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44050</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>44050</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33313,7 +33313,7 @@
         <v>44050</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33370,7 +33370,7 @@
         <v>44057</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>44061</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33484,7 +33484,7 @@
         <v>44062</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44076</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44077</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44090</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44095</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44095</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44102</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44103</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44106</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34012,7 +34012,7 @@
         <v>44113</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
         <v>44113</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44113</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>44113</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34255,7 +34255,7 @@
         <v>44123</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34312,7 +34312,7 @@
         <v>44123</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34374,7 +34374,7 @@
         <v>44123</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44123</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>44126</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>44133</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>44133</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34669,7 +34669,7 @@
         <v>44133</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>44133</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
